--- a/data.xlsx
+++ b/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9000" tabRatio="907" firstSheet="3" activeTab="11"/>
+    <workbookView windowWidth="23040" windowHeight="9000" tabRatio="907" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Design Operating Data" sheetId="23" r:id="rId1"/>
@@ -12,8 +12,8 @@
     <sheet name="Key" sheetId="20" r:id="rId3"/>
     <sheet name="Boiler" sheetId="2" r:id="rId4"/>
     <sheet name="Heat Recovery Steam Gen" sheetId="26" r:id="rId5"/>
-    <sheet name="steam turbine" sheetId="3" r:id="rId6"/>
-    <sheet name="Gas turbine" sheetId="9" r:id="rId7"/>
+    <sheet name="Steam Turbine" sheetId="3" r:id="rId6"/>
+    <sheet name="Gas Turbine" sheetId="9" r:id="rId7"/>
     <sheet name="Generator" sheetId="4" r:id="rId8"/>
     <sheet name="Transformer" sheetId="12" r:id="rId9"/>
     <sheet name="Pump" sheetId="5" r:id="rId10"/>
@@ -462,7 +462,7 @@
     <t>B</t>
   </si>
   <si>
-    <t xml:space="preserve">SteamTurbine </t>
+    <t xml:space="preserve">Steam Turbine </t>
   </si>
   <si>
     <t>T</t>
@@ -2153,7 +2153,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="45">
+  <fills count="44">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2211,12 +2211,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3096,7 +3090,7 @@
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="44" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="44" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3120,16 +3114,16 @@
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="19" borderId="47" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="18" borderId="47" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="20" borderId="48" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="19" borderId="48" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="20" borderId="47" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="53" fillId="19" borderId="47" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="21" borderId="49" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="20" borderId="49" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="50" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -3138,90 +3132,90 @@
     <xf numFmtId="0" fontId="56" fillId="0" borderId="51" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="61" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="61" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="60" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="61" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="61" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="60" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="61" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="61" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="60" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="61" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="61" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="60" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="61" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="61" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="60" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="61" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="61" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="62" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="210">
+  <cellXfs count="209">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3405,7 +3399,7 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3413,7 +3407,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3426,7 +3420,6 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3437,16 +3430,16 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="12" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="11" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3460,7 +3453,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3486,14 +3479,14 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3505,22 +3498,22 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="15" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="15" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="16" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="16" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="9" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="9" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="17" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="17" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="18" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="18" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3555,22 +3548,22 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="19" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="19" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="16" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="16" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="20" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="20" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="18" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="18" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3584,23 +3577,23 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="16" xfId="49" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="16" xfId="49" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="9" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="9" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="11" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="11" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3656,7 +3649,7 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3671,13 +3664,13 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5274,8 +5267,8 @@
   </sheetPr>
   <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="25" zoomScaleSheetLayoutView="40" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="25" zoomScaleSheetLayoutView="40" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="19.5" customHeight="1"/>
@@ -5292,459 +5285,459 @@
     <col min="15" max="16384" width="9.75" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" s="157" customFormat="1" ht="52.5" customHeight="1" spans="1:5">
-      <c r="A1" s="158"/>
-      <c r="B1" s="158"/>
-      <c r="C1" s="158"/>
-      <c r="D1" s="158"/>
-      <c r="E1" s="158"/>
-    </row>
-    <row r="2" s="157" customFormat="1" ht="28.5" customHeight="1" spans="1:5">
-      <c r="A2" s="158"/>
-      <c r="B2" s="158"/>
-      <c r="C2" s="158"/>
-      <c r="D2" s="158"/>
-      <c r="E2" s="158"/>
-    </row>
-    <row r="3" s="157" customFormat="1" ht="37.9" customHeight="1" spans="1:5">
-      <c r="A3" s="158"/>
-      <c r="B3" s="158"/>
-      <c r="C3" s="158"/>
-      <c r="D3" s="158"/>
-      <c r="E3" s="158"/>
-    </row>
-    <row r="4" s="157" customFormat="1" ht="51.6" customHeight="1" spans="1:5">
-      <c r="A4" s="159" t="s">
+    <row r="1" s="156" customFormat="1" ht="52.5" customHeight="1" spans="1:5">
+      <c r="A1" s="157"/>
+      <c r="B1" s="157"/>
+      <c r="C1" s="157"/>
+      <c r="D1" s="157"/>
+      <c r="E1" s="157"/>
+    </row>
+    <row r="2" s="156" customFormat="1" ht="28.5" customHeight="1" spans="1:5">
+      <c r="A2" s="157"/>
+      <c r="B2" s="157"/>
+      <c r="C2" s="157"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="157"/>
+    </row>
+    <row r="3" s="156" customFormat="1" ht="37.9" customHeight="1" spans="1:5">
+      <c r="A3" s="157"/>
+      <c r="B3" s="157"/>
+      <c r="C3" s="157"/>
+      <c r="D3" s="157"/>
+      <c r="E3" s="157"/>
+    </row>
+    <row r="4" s="156" customFormat="1" ht="51.6" customHeight="1" spans="1:5">
+      <c r="A4" s="158" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="160"/>
-      <c r="C4" s="160"/>
-      <c r="D4" s="160"/>
-      <c r="E4" s="160"/>
-    </row>
-    <row r="5" s="157" customFormat="1" ht="50.45" customHeight="1" spans="1:5">
-      <c r="A5" s="159" t="s">
+      <c r="B4" s="159"/>
+      <c r="C4" s="159"/>
+      <c r="D4" s="159"/>
+      <c r="E4" s="159"/>
+    </row>
+    <row r="5" s="156" customFormat="1" ht="50.45" customHeight="1" spans="1:5">
+      <c r="A5" s="158" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="161"/>
-      <c r="C5" s="161"/>
-      <c r="D5" s="161"/>
-      <c r="E5" s="161"/>
-    </row>
-    <row r="6" s="157" customFormat="1" ht="23.45" customHeight="1" spans="1:5">
-      <c r="A6" s="162"/>
-      <c r="B6" s="163"/>
-      <c r="C6" s="163"/>
-      <c r="D6" s="163"/>
-      <c r="E6" s="163"/>
-    </row>
-    <row r="7" s="157" customFormat="1" ht="65.25" customHeight="1" spans="1:5">
-      <c r="A7" s="164" t="s">
+      <c r="B5" s="160"/>
+      <c r="C5" s="160"/>
+      <c r="D5" s="160"/>
+      <c r="E5" s="160"/>
+    </row>
+    <row r="6" s="156" customFormat="1" ht="23.45" customHeight="1" spans="1:5">
+      <c r="A6" s="161"/>
+      <c r="B6" s="162"/>
+      <c r="C6" s="162"/>
+      <c r="D6" s="162"/>
+      <c r="E6" s="162"/>
+    </row>
+    <row r="7" s="156" customFormat="1" ht="65.25" customHeight="1" spans="1:5">
+      <c r="A7" s="163" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="165"/>
-      <c r="C7" s="165"/>
-      <c r="D7" s="165" t="s">
+      <c r="B7" s="164"/>
+      <c r="C7" s="164"/>
+      <c r="D7" s="164" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="166"/>
+      <c r="E7" s="165"/>
     </row>
     <row r="8" ht="54" customHeight="1" spans="1:6">
-      <c r="A8" s="167" t="s">
+      <c r="A8" s="166" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="168"/>
-      <c r="C8" s="169" t="s">
+      <c r="B8" s="167"/>
+      <c r="C8" s="168" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="170"/>
-      <c r="E8" s="171"/>
-      <c r="F8" s="172"/>
+      <c r="D8" s="169"/>
+      <c r="E8" s="170"/>
+      <c r="F8" s="171"/>
     </row>
     <row r="9" ht="54" customHeight="1" spans="1:5">
-      <c r="A9" s="167"/>
-      <c r="B9" s="168"/>
-      <c r="C9" s="169" t="s">
+      <c r="A9" s="166"/>
+      <c r="B9" s="167"/>
+      <c r="C9" s="168" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="170"/>
-      <c r="E9" s="171"/>
+      <c r="D9" s="169"/>
+      <c r="E9" s="170"/>
     </row>
     <row r="10" ht="54" customHeight="1" spans="1:5">
-      <c r="A10" s="167"/>
-      <c r="B10" s="168"/>
-      <c r="C10" s="169" t="s">
+      <c r="A10" s="166"/>
+      <c r="B10" s="167"/>
+      <c r="C10" s="168" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="170"/>
-      <c r="E10" s="173"/>
+      <c r="D10" s="169"/>
+      <c r="E10" s="172"/>
     </row>
     <row r="11" ht="58.15" customHeight="1" spans="1:6">
-      <c r="A11" s="174" t="s">
+      <c r="A11" s="173" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="175"/>
-      <c r="C11" s="169" t="s">
+      <c r="B11" s="174"/>
+      <c r="C11" s="168" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="176" t="s">
+      <c r="D11" s="175" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="171"/>
-      <c r="F11" s="172"/>
+      <c r="E11" s="170"/>
+      <c r="F11" s="171"/>
     </row>
     <row r="12" ht="58.15" customHeight="1" spans="1:5">
-      <c r="A12" s="174"/>
-      <c r="B12" s="175"/>
-      <c r="C12" s="169" t="s">
+      <c r="A12" s="173"/>
+      <c r="B12" s="174"/>
+      <c r="C12" s="168" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="176" t="s">
+      <c r="D12" s="175" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="171"/>
+      <c r="E12" s="170"/>
     </row>
     <row r="13" ht="58.15" customHeight="1" spans="1:5">
-      <c r="A13" s="177" t="s">
+      <c r="A13" s="176" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="178"/>
-      <c r="C13" s="169" t="s">
+      <c r="B13" s="177"/>
+      <c r="C13" s="168" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="176" t="s">
+      <c r="D13" s="175" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="171"/>
+      <c r="E13" s="170"/>
     </row>
     <row r="14" ht="58.15" customHeight="1" spans="1:5">
-      <c r="A14" s="179"/>
-      <c r="B14" s="180"/>
-      <c r="C14" s="169" t="s">
+      <c r="A14" s="178"/>
+      <c r="B14" s="179"/>
+      <c r="C14" s="168" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="176" t="s">
+      <c r="D14" s="175" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="171"/>
+      <c r="E14" s="170"/>
     </row>
     <row r="15" ht="58.15" customHeight="1" spans="1:5">
-      <c r="A15" s="181" t="s">
+      <c r="A15" s="180" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="182"/>
-      <c r="C15" s="169" t="s">
+      <c r="B15" s="181"/>
+      <c r="C15" s="168" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="176" t="s">
+      <c r="D15" s="175" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="171"/>
+      <c r="E15" s="170"/>
     </row>
     <row r="16" ht="58.15" customHeight="1" spans="1:5">
-      <c r="A16" s="177" t="s">
+      <c r="A16" s="176" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="178"/>
-      <c r="C16" s="169" t="s">
+      <c r="B16" s="177"/>
+      <c r="C16" s="168" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="176" t="s">
+      <c r="D16" s="175" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="171"/>
+      <c r="E16" s="170"/>
     </row>
     <row r="17" ht="58.15" customHeight="1" spans="1:5">
-      <c r="A17" s="183"/>
-      <c r="B17" s="184"/>
-      <c r="C17" s="169" t="s">
+      <c r="A17" s="182"/>
+      <c r="B17" s="183"/>
+      <c r="C17" s="168" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="176" t="s">
+      <c r="D17" s="175" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="171"/>
+      <c r="E17" s="170"/>
     </row>
     <row r="18" ht="70.9" customHeight="1" spans="1:6">
-      <c r="A18" s="185" t="s">
+      <c r="A18" s="184" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="176" t="s">
+      <c r="B18" s="175" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="169" t="s">
+      <c r="C18" s="168" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="176" t="s">
+      <c r="D18" s="175" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="186"/>
-      <c r="F18" s="187" t="s">
+      <c r="E18" s="185"/>
+      <c r="F18" s="186" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="19" ht="65.45" customHeight="1" spans="1:6">
-      <c r="A19" s="188"/>
-      <c r="B19" s="176"/>
-      <c r="C19" s="169" t="s">
+      <c r="A19" s="187"/>
+      <c r="B19" s="175"/>
+      <c r="C19" s="168" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="176" t="s">
+      <c r="D19" s="175" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="186"/>
-      <c r="F19" s="187" t="s">
+      <c r="E19" s="185"/>
+      <c r="F19" s="186" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="20" ht="54.6" customHeight="1" spans="1:6">
-      <c r="A20" s="188"/>
-      <c r="B20" s="176"/>
-      <c r="C20" s="189" t="s">
+      <c r="A20" s="187"/>
+      <c r="B20" s="175"/>
+      <c r="C20" s="188" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="176" t="s">
+      <c r="D20" s="175" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="186"/>
-      <c r="F20" s="187" t="s">
+      <c r="E20" s="185"/>
+      <c r="F20" s="186" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="21" ht="58.15" customHeight="1" spans="1:6">
-      <c r="A21" s="188"/>
-      <c r="B21" s="176"/>
-      <c r="C21" s="189" t="s">
+      <c r="A21" s="187"/>
+      <c r="B21" s="175"/>
+      <c r="C21" s="188" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="176" t="s">
+      <c r="D21" s="175" t="s">
         <v>29</v>
       </c>
-      <c r="E21" s="186"/>
-      <c r="F21" s="187" t="s">
+      <c r="E21" s="185"/>
+      <c r="F21" s="186" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="22" ht="61.9" customHeight="1" spans="1:6">
-      <c r="A22" s="188"/>
-      <c r="B22" s="176" t="s">
+      <c r="A22" s="187"/>
+      <c r="B22" s="175" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="169" t="s">
+      <c r="C22" s="168" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="176" t="s">
+      <c r="D22" s="175" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="186"/>
-      <c r="F22" s="187" t="s">
+      <c r="E22" s="185"/>
+      <c r="F22" s="186" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="23" ht="66" customHeight="1" spans="1:6">
-      <c r="A23" s="188"/>
-      <c r="B23" s="176"/>
-      <c r="C23" s="169" t="s">
+      <c r="A23" s="187"/>
+      <c r="B23" s="175"/>
+      <c r="C23" s="168" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="176" t="s">
+      <c r="D23" s="175" t="s">
         <v>29</v>
       </c>
-      <c r="E23" s="186"/>
-      <c r="F23" s="187" t="s">
+      <c r="E23" s="185"/>
+      <c r="F23" s="186" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="24" ht="54" customHeight="1" spans="1:6">
-      <c r="A24" s="188"/>
-      <c r="B24" s="176"/>
-      <c r="C24" s="189" t="s">
+      <c r="A24" s="187"/>
+      <c r="B24" s="175"/>
+      <c r="C24" s="188" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="176" t="s">
+      <c r="D24" s="175" t="s">
         <v>32</v>
       </c>
-      <c r="E24" s="190"/>
-      <c r="F24" s="187" t="s">
+      <c r="E24" s="189"/>
+      <c r="F24" s="186" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="25" ht="60" customHeight="1" spans="1:6">
-      <c r="A25" s="188"/>
-      <c r="B25" s="176"/>
-      <c r="C25" s="189" t="s">
+      <c r="A25" s="187"/>
+      <c r="B25" s="175"/>
+      <c r="C25" s="188" t="s">
         <v>34</v>
       </c>
-      <c r="D25" s="176" t="s">
+      <c r="D25" s="175" t="s">
         <v>29</v>
       </c>
-      <c r="E25" s="186"/>
-      <c r="F25" s="187" t="s">
+      <c r="E25" s="185"/>
+      <c r="F25" s="186" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="26" ht="64.15" customHeight="1" spans="1:6">
-      <c r="A26" s="188"/>
-      <c r="B26" s="176" t="s">
+      <c r="A26" s="187"/>
+      <c r="B26" s="175" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="169" t="s">
+      <c r="C26" s="168" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="176" t="s">
+      <c r="D26" s="175" t="s">
         <v>26</v>
       </c>
-      <c r="E26" s="186"/>
-      <c r="F26" s="187" t="s">
+      <c r="E26" s="185"/>
+      <c r="F26" s="186" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="27" ht="70.15" customHeight="1" spans="1:6">
-      <c r="A27" s="188"/>
-      <c r="B27" s="176"/>
-      <c r="C27" s="169" t="s">
+      <c r="A27" s="187"/>
+      <c r="B27" s="175"/>
+      <c r="C27" s="168" t="s">
         <v>28</v>
       </c>
-      <c r="D27" s="176" t="s">
+      <c r="D27" s="175" t="s">
         <v>29</v>
       </c>
-      <c r="E27" s="186"/>
-      <c r="F27" s="187" t="s">
+      <c r="E27" s="185"/>
+      <c r="F27" s="186" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="28" ht="56.45" customHeight="1" spans="1:6">
-      <c r="A28" s="188"/>
-      <c r="B28" s="176"/>
-      <c r="C28" s="189" t="s">
+      <c r="A28" s="187"/>
+      <c r="B28" s="175"/>
+      <c r="C28" s="188" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="176" t="s">
+      <c r="D28" s="175" t="s">
         <v>32</v>
       </c>
-      <c r="E28" s="190"/>
-      <c r="F28" s="187"/>
+      <c r="E28" s="189"/>
+      <c r="F28" s="186"/>
     </row>
     <row r="29" ht="52.15" customHeight="1" spans="1:6">
-      <c r="A29" s="191"/>
-      <c r="B29" s="176"/>
-      <c r="C29" s="189" t="s">
+      <c r="A29" s="190"/>
+      <c r="B29" s="175"/>
+      <c r="C29" s="188" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="176" t="s">
+      <c r="D29" s="175" t="s">
         <v>29</v>
       </c>
-      <c r="E29" s="186"/>
-      <c r="F29" s="187" t="s">
+      <c r="E29" s="185"/>
+      <c r="F29" s="186" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="30" ht="71.45" customHeight="1" spans="1:6">
-      <c r="A30" s="167" t="s">
+      <c r="A30" s="166" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="176" t="s">
+      <c r="B30" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="192" t="s">
+      <c r="C30" s="191" t="s">
         <v>43</v>
       </c>
-      <c r="D30" s="176" t="s">
+      <c r="D30" s="175" t="s">
         <v>26</v>
       </c>
-      <c r="E30" s="171"/>
-      <c r="F30" s="187" t="s">
+      <c r="E30" s="170"/>
+      <c r="F30" s="186" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="31" ht="66" customHeight="1" spans="1:7">
-      <c r="A31" s="167"/>
-      <c r="B31" s="176"/>
-      <c r="C31" s="192" t="s">
+      <c r="A31" s="166"/>
+      <c r="B31" s="175"/>
+      <c r="C31" s="191" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="176" t="s">
+      <c r="D31" s="175" t="s">
         <v>32</v>
       </c>
-      <c r="E31" s="171"/>
-      <c r="F31" s="187" t="s">
+      <c r="E31" s="170"/>
+      <c r="F31" s="186" t="s">
         <v>37</v>
       </c>
-      <c r="G31" s="193"/>
+      <c r="G31" s="192"/>
     </row>
     <row r="32" ht="95.25" customHeight="1" spans="1:6">
-      <c r="A32" s="167"/>
-      <c r="B32" s="176" t="s">
+      <c r="A32" s="166"/>
+      <c r="B32" s="175" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="192" t="s">
+      <c r="C32" s="191" t="s">
         <v>47</v>
       </c>
-      <c r="D32" s="176" t="s">
+      <c r="D32" s="175" t="s">
         <v>26</v>
       </c>
-      <c r="E32" s="171"/>
-      <c r="F32" s="187" t="s">
+      <c r="E32" s="170"/>
+      <c r="F32" s="186" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="33" ht="80.45" customHeight="1" spans="1:7">
-      <c r="A33" s="194"/>
-      <c r="B33" s="195"/>
-      <c r="C33" s="192" t="s">
+      <c r="A33" s="193"/>
+      <c r="B33" s="194"/>
+      <c r="C33" s="191" t="s">
         <v>48</v>
       </c>
-      <c r="D33" s="196" t="s">
+      <c r="D33" s="195" t="s">
         <v>32</v>
       </c>
-      <c r="E33" s="197"/>
-      <c r="F33" s="187" t="s">
+      <c r="E33" s="196"/>
+      <c r="F33" s="186" t="s">
         <v>37</v>
       </c>
-      <c r="G33" s="193"/>
+      <c r="G33" s="192"/>
     </row>
     <row r="34" ht="87" customHeight="1" spans="1:14">
-      <c r="A34" s="198" t="s">
+      <c r="A34" s="197" t="s">
         <v>49</v>
       </c>
-      <c r="B34" s="199"/>
-      <c r="C34" s="200" t="s">
+      <c r="B34" s="198"/>
+      <c r="C34" s="199" t="s">
         <v>50</v>
       </c>
-      <c r="D34" s="201" t="s">
+      <c r="D34" s="200" t="s">
         <v>51</v>
       </c>
-      <c r="E34" s="202"/>
-      <c r="F34" s="187"/>
-      <c r="N34" s="208"/>
+      <c r="E34" s="201"/>
+      <c r="F34" s="186"/>
+      <c r="N34" s="207"/>
     </row>
     <row r="35" ht="65.45" customHeight="1" spans="1:14">
-      <c r="A35" s="167"/>
-      <c r="B35" s="168"/>
-      <c r="C35" s="169" t="s">
+      <c r="A35" s="166"/>
+      <c r="B35" s="167"/>
+      <c r="C35" s="168" t="s">
         <v>52</v>
       </c>
-      <c r="D35" s="203" t="s">
+      <c r="D35" s="202" t="s">
         <v>10</v>
       </c>
-      <c r="E35" s="202"/>
-      <c r="F35" s="187"/>
-      <c r="N35" s="209"/>
+      <c r="E35" s="201"/>
+      <c r="F35" s="186"/>
+      <c r="N35" s="208"/>
     </row>
     <row r="36" ht="60" customHeight="1" spans="1:14">
-      <c r="A36" s="204" t="s">
+      <c r="A36" s="203" t="s">
         <v>53</v>
       </c>
-      <c r="B36" s="205"/>
-      <c r="C36" s="206" t="s">
+      <c r="B36" s="204"/>
+      <c r="C36" s="205" t="s">
         <v>54</v>
       </c>
-      <c r="D36" s="203" t="s">
+      <c r="D36" s="202" t="s">
         <v>55</v>
       </c>
-      <c r="E36" s="207"/>
-      <c r="F36" s="187"/>
-      <c r="N36" s="172"/>
+      <c r="E36" s="206"/>
+      <c r="F36" s="186"/>
+      <c r="N36" s="171"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -5785,7 +5778,7 @@
   <sheetPr/>
   <dimension ref="A1:E121"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
@@ -7933,7 +7926,7 @@
   <sheetPr/>
   <dimension ref="A1:E121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
@@ -12930,2187 +12923,2187 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.75" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="7.75" style="95"/>
-    <col min="2" max="2" width="20.1333333333333" style="95" customWidth="1"/>
-    <col min="3" max="3" width="13.1333333333333" style="95" customWidth="1"/>
-    <col min="4" max="5" width="12" style="95" customWidth="1"/>
-    <col min="6" max="6" width="11.3833333333333" style="95" customWidth="1"/>
-    <col min="7" max="8" width="15" style="95" customWidth="1"/>
-    <col min="9" max="9" width="13" style="95" customWidth="1"/>
-    <col min="10" max="10" width="9.63333333333333" style="95" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="10" style="95" customWidth="1"/>
-    <col min="12" max="12" width="9.63333333333333" style="95" customWidth="1"/>
-    <col min="13" max="13" width="9.5" style="95" customWidth="1"/>
-    <col min="14" max="14" width="11.6333333333333" style="95" customWidth="1"/>
-    <col min="15" max="15" width="6.88333333333333" style="95" customWidth="1"/>
-    <col min="16" max="16" width="9" style="95" customWidth="1"/>
-    <col min="17" max="17" width="6.38333333333333" style="95" customWidth="1"/>
-    <col min="18" max="19" width="19" style="95" customWidth="1"/>
-    <col min="20" max="20" width="15.8833333333333" style="95" customWidth="1"/>
-    <col min="21" max="21" width="12.1333333333333" style="95" customWidth="1"/>
-    <col min="22" max="22" width="6.38333333333333" style="95" customWidth="1"/>
-    <col min="23" max="23" width="8.75" style="95" customWidth="1"/>
-    <col min="24" max="24" width="6.88333333333333" style="95" customWidth="1"/>
-    <col min="25" max="25" width="9.38333333333333" style="95" customWidth="1"/>
-    <col min="26" max="26" width="10.3833333333333" style="95" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="14.25" style="95" hidden="1" customWidth="1"/>
-    <col min="28" max="29" width="14.25" style="95" customWidth="1"/>
-    <col min="30" max="30" width="15.5" style="95" customWidth="1"/>
-    <col min="31" max="32" width="24.8833333333333" style="95" customWidth="1"/>
-    <col min="33" max="33" width="9.13333333333333" style="95" customWidth="1"/>
-    <col min="34" max="35" width="15" style="95" customWidth="1"/>
-    <col min="36" max="36" width="7.88333333333333" style="95" customWidth="1"/>
-    <col min="37" max="38" width="14.8833333333333" style="95" customWidth="1"/>
-    <col min="39" max="39" width="7.88333333333333" style="95" customWidth="1"/>
-    <col min="40" max="40" width="14.8833333333333" style="95" customWidth="1"/>
-    <col min="41" max="41" width="11.25" style="95" customWidth="1"/>
-    <col min="42" max="42" width="13.8833333333333" style="95" customWidth="1"/>
-    <col min="43" max="43" width="14.8833333333333" style="95" customWidth="1"/>
-    <col min="44" max="16384" width="7.75" style="95"/>
+    <col min="1" max="1" width="7.75" style="94"/>
+    <col min="2" max="2" width="20.1333333333333" style="94" customWidth="1"/>
+    <col min="3" max="3" width="13.1333333333333" style="94" customWidth="1"/>
+    <col min="4" max="5" width="12" style="94" customWidth="1"/>
+    <col min="6" max="6" width="11.3833333333333" style="94" customWidth="1"/>
+    <col min="7" max="8" width="15" style="94" customWidth="1"/>
+    <col min="9" max="9" width="13" style="94" customWidth="1"/>
+    <col min="10" max="10" width="9.63333333333333" style="94" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="10" style="94" customWidth="1"/>
+    <col min="12" max="12" width="9.63333333333333" style="94" customWidth="1"/>
+    <col min="13" max="13" width="9.5" style="94" customWidth="1"/>
+    <col min="14" max="14" width="11.6333333333333" style="94" customWidth="1"/>
+    <col min="15" max="15" width="6.88333333333333" style="94" customWidth="1"/>
+    <col min="16" max="16" width="9" style="94" customWidth="1"/>
+    <col min="17" max="17" width="6.38333333333333" style="94" customWidth="1"/>
+    <col min="18" max="19" width="19" style="94" customWidth="1"/>
+    <col min="20" max="20" width="15.8833333333333" style="94" customWidth="1"/>
+    <col min="21" max="21" width="12.1333333333333" style="94" customWidth="1"/>
+    <col min="22" max="22" width="6.38333333333333" style="94" customWidth="1"/>
+    <col min="23" max="23" width="8.75" style="94" customWidth="1"/>
+    <col min="24" max="24" width="6.88333333333333" style="94" customWidth="1"/>
+    <col min="25" max="25" width="9.38333333333333" style="94" customWidth="1"/>
+    <col min="26" max="26" width="10.3833333333333" style="94" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="14.25" style="94" hidden="1" customWidth="1"/>
+    <col min="28" max="29" width="14.25" style="94" customWidth="1"/>
+    <col min="30" max="30" width="15.5" style="94" customWidth="1"/>
+    <col min="31" max="32" width="24.8833333333333" style="94" customWidth="1"/>
+    <col min="33" max="33" width="9.13333333333333" style="94" customWidth="1"/>
+    <col min="34" max="35" width="15" style="94" customWidth="1"/>
+    <col min="36" max="36" width="7.88333333333333" style="94" customWidth="1"/>
+    <col min="37" max="38" width="14.8833333333333" style="94" customWidth="1"/>
+    <col min="39" max="39" width="7.88333333333333" style="94" customWidth="1"/>
+    <col min="40" max="40" width="14.8833333333333" style="94" customWidth="1"/>
+    <col min="41" max="41" width="11.25" style="94" customWidth="1"/>
+    <col min="42" max="42" width="13.8833333333333" style="94" customWidth="1"/>
+    <col min="43" max="43" width="14.8833333333333" style="94" customWidth="1"/>
+    <col min="44" max="16384" width="7.75" style="94"/>
   </cols>
   <sheetData>
     <row r="1" ht="54.75" customHeight="1" spans="2:40">
-      <c r="B1" s="96" t="s">
+      <c r="B1" s="95" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="122"/>
-      <c r="L1" s="122"/>
-      <c r="M1" s="122"/>
-      <c r="N1" s="122"/>
-      <c r="O1" s="122"/>
-      <c r="P1" s="122"/>
-      <c r="Q1" s="122"/>
-      <c r="R1" s="122"/>
-      <c r="S1" s="122"/>
-      <c r="T1" s="122"/>
-      <c r="U1" s="122"/>
-      <c r="V1" s="122"/>
-      <c r="W1" s="122"/>
-      <c r="X1" s="122"/>
-      <c r="Y1" s="131"/>
-      <c r="Z1" s="122"/>
-      <c r="AA1" s="122"/>
-      <c r="AB1" s="122"/>
-      <c r="AC1" s="122"/>
-      <c r="AD1" s="122"/>
-      <c r="AE1" s="132"/>
-      <c r="AF1" s="132"/>
-      <c r="AG1" s="132"/>
-      <c r="AH1" s="132"/>
-      <c r="AI1" s="132"/>
-      <c r="AJ1" s="132"/>
-      <c r="AK1" s="132"/>
-      <c r="AL1" s="132"/>
-      <c r="AM1" s="132"/>
-      <c r="AN1" s="147"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
+      <c r="M1" s="121"/>
+      <c r="N1" s="121"/>
+      <c r="O1" s="121"/>
+      <c r="P1" s="121"/>
+      <c r="Q1" s="121"/>
+      <c r="R1" s="121"/>
+      <c r="S1" s="121"/>
+      <c r="T1" s="121"/>
+      <c r="U1" s="121"/>
+      <c r="V1" s="121"/>
+      <c r="W1" s="121"/>
+      <c r="X1" s="121"/>
+      <c r="Y1" s="130"/>
+      <c r="Z1" s="121"/>
+      <c r="AA1" s="121"/>
+      <c r="AB1" s="121"/>
+      <c r="AC1" s="121"/>
+      <c r="AD1" s="121"/>
+      <c r="AE1" s="131"/>
+      <c r="AF1" s="131"/>
+      <c r="AG1" s="131"/>
+      <c r="AH1" s="131"/>
+      <c r="AI1" s="131"/>
+      <c r="AJ1" s="131"/>
+      <c r="AK1" s="131"/>
+      <c r="AL1" s="131"/>
+      <c r="AM1" s="131"/>
+      <c r="AN1" s="146"/>
     </row>
     <row r="2" ht="55.5" customHeight="1" spans="1:40">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="97" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="100" t="s">
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="99" t="s">
         <v>58</v>
       </c>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="100"/>
-      <c r="L2" s="100"/>
-      <c r="M2" s="100"/>
-      <c r="N2" s="100"/>
-      <c r="O2" s="100"/>
-      <c r="P2" s="100"/>
-      <c r="Q2" s="100"/>
-      <c r="R2" s="100"/>
-      <c r="S2" s="100"/>
-      <c r="T2" s="100"/>
-      <c r="U2" s="100"/>
-      <c r="V2" s="100"/>
-      <c r="W2" s="100"/>
-      <c r="X2" s="100"/>
-      <c r="Y2" s="100"/>
-      <c r="Z2" s="100"/>
-      <c r="AA2" s="100"/>
-      <c r="AB2" s="100"/>
-      <c r="AC2" s="100"/>
-      <c r="AD2" s="123"/>
-      <c r="AE2" s="123"/>
-      <c r="AF2" s="123"/>
-      <c r="AG2" s="123"/>
-      <c r="AH2" s="123"/>
-      <c r="AI2" s="123"/>
-      <c r="AJ2" s="123"/>
-      <c r="AK2" s="123"/>
-      <c r="AL2" s="123"/>
-      <c r="AM2" s="123"/>
-      <c r="AN2" s="148"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="99"/>
+      <c r="N2" s="99"/>
+      <c r="O2" s="99"/>
+      <c r="P2" s="99"/>
+      <c r="Q2" s="99"/>
+      <c r="R2" s="99"/>
+      <c r="S2" s="99"/>
+      <c r="T2" s="99"/>
+      <c r="U2" s="99"/>
+      <c r="V2" s="99"/>
+      <c r="W2" s="99"/>
+      <c r="X2" s="99"/>
+      <c r="Y2" s="99"/>
+      <c r="Z2" s="99"/>
+      <c r="AA2" s="99"/>
+      <c r="AB2" s="99"/>
+      <c r="AC2" s="99"/>
+      <c r="AD2" s="122"/>
+      <c r="AE2" s="122"/>
+      <c r="AF2" s="122"/>
+      <c r="AG2" s="122"/>
+      <c r="AH2" s="122"/>
+      <c r="AI2" s="122"/>
+      <c r="AJ2" s="122"/>
+      <c r="AK2" s="122"/>
+      <c r="AL2" s="122"/>
+      <c r="AM2" s="122"/>
+      <c r="AN2" s="147"/>
     </row>
     <row r="3" ht="55.5" customHeight="1" spans="1:40">
-      <c r="A3" s="101"/>
-      <c r="B3" s="102" t="s">
+      <c r="A3" s="100"/>
+      <c r="B3" s="101" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="103"/>
-      <c r="D3" s="104" t="s">
+      <c r="C3" s="102"/>
+      <c r="D3" s="103" t="s">
         <v>60</v>
       </c>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
-      <c r="K3" s="123"/>
-      <c r="L3" s="123"/>
-      <c r="M3" s="123"/>
-      <c r="N3" s="123"/>
-      <c r="O3" s="123"/>
-      <c r="P3" s="123"/>
-      <c r="Q3" s="123"/>
-      <c r="R3" s="123"/>
-      <c r="S3" s="123"/>
-      <c r="T3" s="123"/>
-      <c r="U3" s="123"/>
-      <c r="V3" s="123"/>
-      <c r="W3" s="123"/>
-      <c r="X3" s="123"/>
-      <c r="Y3" s="123"/>
-      <c r="Z3" s="123"/>
-      <c r="AA3" s="133"/>
-      <c r="AB3" s="133"/>
-      <c r="AC3" s="133"/>
-      <c r="AD3" s="123"/>
-      <c r="AE3" s="123"/>
-      <c r="AF3" s="123"/>
-      <c r="AG3" s="123"/>
-      <c r="AH3" s="123"/>
-      <c r="AI3" s="123"/>
-      <c r="AJ3" s="123"/>
-      <c r="AK3" s="123"/>
-      <c r="AL3" s="123"/>
-      <c r="AM3" s="123"/>
-      <c r="AN3" s="148"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="122"/>
+      <c r="L3" s="122"/>
+      <c r="M3" s="122"/>
+      <c r="N3" s="122"/>
+      <c r="O3" s="122"/>
+      <c r="P3" s="122"/>
+      <c r="Q3" s="122"/>
+      <c r="R3" s="122"/>
+      <c r="S3" s="122"/>
+      <c r="T3" s="122"/>
+      <c r="U3" s="122"/>
+      <c r="V3" s="122"/>
+      <c r="W3" s="122"/>
+      <c r="X3" s="122"/>
+      <c r="Y3" s="122"/>
+      <c r="Z3" s="122"/>
+      <c r="AA3" s="132"/>
+      <c r="AB3" s="132"/>
+      <c r="AC3" s="132"/>
+      <c r="AD3" s="122"/>
+      <c r="AE3" s="122"/>
+      <c r="AF3" s="122"/>
+      <c r="AG3" s="122"/>
+      <c r="AH3" s="122"/>
+      <c r="AI3" s="122"/>
+      <c r="AJ3" s="122"/>
+      <c r="AK3" s="122"/>
+      <c r="AL3" s="122"/>
+      <c r="AM3" s="122"/>
+      <c r="AN3" s="147"/>
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:43">
-      <c r="A4" s="106" t="s">
+      <c r="A4" s="105" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="107" t="s">
+      <c r="B4" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="108" t="s">
+      <c r="C4" s="107" t="s">
         <v>62</v>
       </c>
-      <c r="D4" s="108" t="s">
+      <c r="D4" s="107" t="s">
         <v>63</v>
       </c>
-      <c r="E4" s="108" t="s">
+      <c r="E4" s="107" t="s">
         <v>64</v>
       </c>
-      <c r="F4" s="108" t="s">
+      <c r="F4" s="107" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="108" t="s">
+      <c r="G4" s="107" t="s">
         <v>66</v>
       </c>
-      <c r="H4" s="108" t="s">
+      <c r="H4" s="107" t="s">
         <v>67</v>
       </c>
-      <c r="I4" s="124" t="s">
+      <c r="I4" s="123" t="s">
         <v>68</v>
       </c>
-      <c r="J4" s="125"/>
-      <c r="K4" s="108" t="s">
+      <c r="J4" s="124"/>
+      <c r="K4" s="107" t="s">
         <v>69</v>
       </c>
-      <c r="L4" s="108" t="s">
+      <c r="L4" s="107" t="s">
         <v>70</v>
       </c>
-      <c r="M4" s="108" t="s">
+      <c r="M4" s="107" t="s">
         <v>71</v>
       </c>
-      <c r="N4" s="108" t="s">
+      <c r="N4" s="107" t="s">
         <v>72</v>
       </c>
-      <c r="O4" s="108" t="s">
+      <c r="O4" s="107" t="s">
         <v>73</v>
       </c>
-      <c r="P4" s="108"/>
-      <c r="Q4" s="108" t="s">
+      <c r="P4" s="107"/>
+      <c r="Q4" s="107" t="s">
         <v>74</v>
       </c>
-      <c r="R4" s="108"/>
-      <c r="S4" s="108" t="s">
+      <c r="R4" s="107"/>
+      <c r="S4" s="107" t="s">
         <v>75</v>
       </c>
-      <c r="T4" s="108"/>
-      <c r="U4" s="108" t="s">
+      <c r="T4" s="107"/>
+      <c r="U4" s="107" t="s">
         <v>76</v>
       </c>
-      <c r="V4" s="108" t="s">
+      <c r="V4" s="107" t="s">
         <v>77</v>
       </c>
-      <c r="W4" s="108"/>
-      <c r="X4" s="108" t="s">
+      <c r="W4" s="107"/>
+      <c r="X4" s="107" t="s">
         <v>78</v>
       </c>
-      <c r="Y4" s="108"/>
-      <c r="Z4" s="134"/>
-      <c r="AA4" s="134"/>
-      <c r="AB4" s="134"/>
-      <c r="AC4" s="134"/>
-      <c r="AD4" s="135" t="s">
+      <c r="Y4" s="107"/>
+      <c r="Z4" s="133"/>
+      <c r="AA4" s="133"/>
+      <c r="AB4" s="133"/>
+      <c r="AC4" s="133"/>
+      <c r="AD4" s="134" t="s">
         <v>79</v>
       </c>
-      <c r="AE4" s="136"/>
-      <c r="AF4" s="136"/>
-      <c r="AG4" s="136"/>
-      <c r="AH4" s="136"/>
-      <c r="AI4" s="136"/>
-      <c r="AJ4" s="136"/>
-      <c r="AK4" s="136"/>
-      <c r="AL4" s="136"/>
-      <c r="AM4" s="136"/>
-      <c r="AN4" s="136"/>
-      <c r="AO4" s="136"/>
-      <c r="AP4" s="136"/>
-      <c r="AQ4" s="138"/>
+      <c r="AE4" s="135"/>
+      <c r="AF4" s="135"/>
+      <c r="AG4" s="135"/>
+      <c r="AH4" s="135"/>
+      <c r="AI4" s="135"/>
+      <c r="AJ4" s="135"/>
+      <c r="AK4" s="135"/>
+      <c r="AL4" s="135"/>
+      <c r="AM4" s="135"/>
+      <c r="AN4" s="135"/>
+      <c r="AO4" s="135"/>
+      <c r="AP4" s="135"/>
+      <c r="AQ4" s="137"/>
     </row>
     <row r="5" ht="113.25" customHeight="1" spans="1:43">
-      <c r="A5" s="106"/>
-      <c r="B5" s="109"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="110"/>
-      <c r="H5" s="110"/>
-      <c r="I5" s="126"/>
-      <c r="J5" s="127"/>
-      <c r="K5" s="110"/>
-      <c r="L5" s="110"/>
-      <c r="M5" s="110"/>
-      <c r="N5" s="110"/>
-      <c r="O5" s="110"/>
-      <c r="P5" s="110"/>
-      <c r="Q5" s="110"/>
-      <c r="R5" s="110"/>
-      <c r="S5" s="110"/>
-      <c r="T5" s="110"/>
-      <c r="U5" s="110"/>
-      <c r="V5" s="110"/>
-      <c r="W5" s="110"/>
-      <c r="X5" s="110"/>
-      <c r="Y5" s="110"/>
-      <c r="Z5" s="137" t="s">
+      <c r="A5" s="105"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="109"/>
+      <c r="H5" s="109"/>
+      <c r="I5" s="125"/>
+      <c r="J5" s="126"/>
+      <c r="K5" s="109"/>
+      <c r="L5" s="109"/>
+      <c r="M5" s="109"/>
+      <c r="N5" s="109"/>
+      <c r="O5" s="109"/>
+      <c r="P5" s="109"/>
+      <c r="Q5" s="109"/>
+      <c r="R5" s="109"/>
+      <c r="S5" s="109"/>
+      <c r="T5" s="109"/>
+      <c r="U5" s="109"/>
+      <c r="V5" s="109"/>
+      <c r="W5" s="109"/>
+      <c r="X5" s="109"/>
+      <c r="Y5" s="109"/>
+      <c r="Z5" s="136" t="s">
         <v>80</v>
       </c>
-      <c r="AA5" s="137"/>
-      <c r="AB5" s="137"/>
-      <c r="AC5" s="137"/>
-      <c r="AD5" s="135" t="s">
+      <c r="AA5" s="136"/>
+      <c r="AB5" s="136"/>
+      <c r="AC5" s="136"/>
+      <c r="AD5" s="134" t="s">
         <v>81</v>
       </c>
-      <c r="AE5" s="136"/>
-      <c r="AF5" s="138"/>
-      <c r="AG5" s="137" t="s">
+      <c r="AE5" s="135"/>
+      <c r="AF5" s="137"/>
+      <c r="AG5" s="136" t="s">
         <v>82</v>
       </c>
-      <c r="AH5" s="137"/>
-      <c r="AI5" s="137"/>
-      <c r="AJ5" s="135" t="s">
+      <c r="AH5" s="136"/>
+      <c r="AI5" s="136"/>
+      <c r="AJ5" s="134" t="s">
         <v>83</v>
       </c>
-      <c r="AK5" s="136"/>
-      <c r="AL5" s="138"/>
-      <c r="AM5" s="135" t="s">
+      <c r="AK5" s="135"/>
+      <c r="AL5" s="137"/>
+      <c r="AM5" s="134" t="s">
         <v>84</v>
       </c>
-      <c r="AN5" s="136"/>
-      <c r="AO5" s="138"/>
-      <c r="AP5" s="152" t="s">
+      <c r="AN5" s="135"/>
+      <c r="AO5" s="137"/>
+      <c r="AP5" s="151" t="s">
         <v>85</v>
       </c>
-      <c r="AQ5" s="153" t="s">
+      <c r="AQ5" s="152" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="6" ht="81" customHeight="1" spans="1:43">
-      <c r="A6" s="106"/>
-      <c r="B6" s="109"/>
-      <c r="C6" s="110"/>
-      <c r="D6" s="110"/>
-      <c r="E6" s="110"/>
-      <c r="F6" s="110"/>
-      <c r="G6" s="110"/>
-      <c r="H6" s="110"/>
-      <c r="I6" s="126"/>
-      <c r="J6" s="127"/>
-      <c r="K6" s="110"/>
-      <c r="L6" s="110"/>
-      <c r="M6" s="110"/>
-      <c r="N6" s="110"/>
-      <c r="O6" s="110"/>
-      <c r="P6" s="110"/>
-      <c r="Q6" s="110"/>
-      <c r="R6" s="110"/>
-      <c r="S6" s="110"/>
-      <c r="T6" s="110"/>
-      <c r="U6" s="110"/>
-      <c r="V6" s="110"/>
-      <c r="W6" s="110"/>
-      <c r="X6" s="110"/>
-      <c r="Y6" s="110"/>
-      <c r="Z6" s="110" t="s">
+      <c r="A6" s="105"/>
+      <c r="B6" s="108"/>
+      <c r="C6" s="109"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="109"/>
+      <c r="F6" s="109"/>
+      <c r="G6" s="109"/>
+      <c r="H6" s="109"/>
+      <c r="I6" s="125"/>
+      <c r="J6" s="126"/>
+      <c r="K6" s="109"/>
+      <c r="L6" s="109"/>
+      <c r="M6" s="109"/>
+      <c r="N6" s="109"/>
+      <c r="O6" s="109"/>
+      <c r="P6" s="109"/>
+      <c r="Q6" s="109"/>
+      <c r="R6" s="109"/>
+      <c r="S6" s="109"/>
+      <c r="T6" s="109"/>
+      <c r="U6" s="109"/>
+      <c r="V6" s="109"/>
+      <c r="W6" s="109"/>
+      <c r="X6" s="109"/>
+      <c r="Y6" s="109"/>
+      <c r="Z6" s="109" t="s">
         <v>87</v>
       </c>
-      <c r="AA6" s="110" t="s">
+      <c r="AA6" s="109" t="s">
         <v>88</v>
       </c>
-      <c r="AB6" s="139" t="s">
+      <c r="AB6" s="138" t="s">
         <v>89</v>
       </c>
-      <c r="AC6" s="139" t="s">
+      <c r="AC6" s="138" t="s">
         <v>90</v>
       </c>
-      <c r="AD6" s="110" t="s">
+      <c r="AD6" s="109" t="s">
         <v>91</v>
       </c>
-      <c r="AE6" s="110" t="s">
+      <c r="AE6" s="109" t="s">
         <v>92</v>
       </c>
-      <c r="AF6" s="140" t="s">
+      <c r="AF6" s="139" t="s">
         <v>93</v>
       </c>
-      <c r="AG6" s="110" t="s">
+      <c r="AG6" s="109" t="s">
         <v>94</v>
       </c>
-      <c r="AH6" s="110" t="s">
+      <c r="AH6" s="109" t="s">
         <v>95</v>
       </c>
-      <c r="AI6" s="140" t="s">
+      <c r="AI6" s="139" t="s">
         <v>96</v>
       </c>
-      <c r="AJ6" s="110" t="s">
+      <c r="AJ6" s="109" t="s">
         <v>91</v>
       </c>
-      <c r="AK6" s="110" t="s">
+      <c r="AK6" s="109" t="s">
         <v>95</v>
       </c>
-      <c r="AL6" s="140" t="s">
+      <c r="AL6" s="139" t="s">
         <v>96</v>
       </c>
-      <c r="AM6" s="110" t="s">
+      <c r="AM6" s="109" t="s">
         <v>91</v>
       </c>
-      <c r="AN6" s="110" t="s">
+      <c r="AN6" s="109" t="s">
         <v>95</v>
       </c>
-      <c r="AO6" s="140" t="s">
+      <c r="AO6" s="139" t="s">
         <v>96</v>
       </c>
-      <c r="AP6" s="154"/>
-      <c r="AQ6" s="153"/>
+      <c r="AP6" s="153"/>
+      <c r="AQ6" s="152"/>
     </row>
     <row r="7" ht="84" customHeight="1" spans="1:43">
-      <c r="A7" s="106"/>
-      <c r="B7" s="111"/>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
-      <c r="G7" s="112"/>
-      <c r="H7" s="112"/>
-      <c r="I7" s="128"/>
-      <c r="J7" s="129" t="s">
+      <c r="A7" s="105"/>
+      <c r="B7" s="110"/>
+      <c r="C7" s="111"/>
+      <c r="D7" s="111"/>
+      <c r="E7" s="111"/>
+      <c r="F7" s="111"/>
+      <c r="G7" s="111"/>
+      <c r="H7" s="111"/>
+      <c r="I7" s="127"/>
+      <c r="J7" s="128" t="s">
         <v>97</v>
       </c>
-      <c r="K7" s="112"/>
-      <c r="L7" s="112"/>
-      <c r="M7" s="112"/>
-      <c r="N7" s="112"/>
-      <c r="O7" s="112" t="s">
+      <c r="K7" s="111"/>
+      <c r="L7" s="111"/>
+      <c r="M7" s="111"/>
+      <c r="N7" s="111"/>
+      <c r="O7" s="111" t="s">
         <v>98</v>
       </c>
-      <c r="P7" s="112" t="s">
+      <c r="P7" s="111" t="s">
         <v>60</v>
       </c>
-      <c r="Q7" s="112" t="s">
+      <c r="Q7" s="111" t="s">
         <v>98</v>
       </c>
-      <c r="R7" s="112" t="s">
+      <c r="R7" s="111" t="s">
         <v>60</v>
       </c>
-      <c r="S7" s="112" t="s">
+      <c r="S7" s="111" t="s">
         <v>98</v>
       </c>
-      <c r="T7" s="112" t="s">
+      <c r="T7" s="111" t="s">
         <v>60</v>
       </c>
-      <c r="U7" s="112"/>
-      <c r="V7" s="112" t="s">
+      <c r="U7" s="111"/>
+      <c r="V7" s="111" t="s">
         <v>98</v>
       </c>
-      <c r="W7" s="112" t="s">
+      <c r="W7" s="111" t="s">
         <v>60</v>
       </c>
-      <c r="X7" s="112" t="s">
+      <c r="X7" s="111" t="s">
         <v>98</v>
       </c>
-      <c r="Y7" s="112" t="s">
+      <c r="Y7" s="111" t="s">
         <v>60</v>
       </c>
-      <c r="Z7" s="112"/>
-      <c r="AA7" s="112"/>
-      <c r="AB7" s="112" t="s">
+      <c r="Z7" s="111"/>
+      <c r="AA7" s="111"/>
+      <c r="AB7" s="111" t="s">
         <v>60</v>
       </c>
-      <c r="AC7" s="112" t="s">
+      <c r="AC7" s="111" t="s">
         <v>60</v>
       </c>
-      <c r="AD7" s="112"/>
-      <c r="AE7" s="112"/>
-      <c r="AF7" s="128"/>
-      <c r="AG7" s="112"/>
-      <c r="AH7" s="112"/>
-      <c r="AI7" s="128"/>
-      <c r="AJ7" s="112"/>
-      <c r="AK7" s="112"/>
-      <c r="AL7" s="128"/>
-      <c r="AM7" s="112"/>
-      <c r="AN7" s="112"/>
-      <c r="AO7" s="128"/>
-      <c r="AP7" s="155"/>
-      <c r="AQ7" s="153"/>
-    </row>
-    <row r="8" s="94" customFormat="1" ht="39.95" customHeight="1" spans="1:43">
-      <c r="A8" s="113"/>
-      <c r="B8" s="114"/>
-      <c r="C8" s="115"/>
-      <c r="D8" s="115"/>
-      <c r="E8" s="116"/>
-      <c r="F8" s="116"/>
-      <c r="G8" s="117"/>
-      <c r="H8" s="118"/>
-      <c r="I8" s="117">
+      <c r="AD7" s="111"/>
+      <c r="AE7" s="111"/>
+      <c r="AF7" s="127"/>
+      <c r="AG7" s="111"/>
+      <c r="AH7" s="111"/>
+      <c r="AI7" s="127"/>
+      <c r="AJ7" s="111"/>
+      <c r="AK7" s="111"/>
+      <c r="AL7" s="127"/>
+      <c r="AM7" s="111"/>
+      <c r="AN7" s="111"/>
+      <c r="AO7" s="127"/>
+      <c r="AP7" s="154"/>
+      <c r="AQ7" s="152"/>
+    </row>
+    <row r="8" s="93" customFormat="1" ht="39.95" customHeight="1" spans="1:43">
+      <c r="A8" s="112"/>
+      <c r="B8" s="113"/>
+      <c r="C8" s="114"/>
+      <c r="D8" s="114"/>
+      <c r="E8" s="115"/>
+      <c r="F8" s="115"/>
+      <c r="G8" s="116"/>
+      <c r="H8" s="117"/>
+      <c r="I8" s="116">
         <f>G8-H8</f>
         <v>0</v>
       </c>
-      <c r="J8" s="130"/>
-      <c r="K8" s="116"/>
-      <c r="L8" s="116"/>
-      <c r="M8" s="116"/>
-      <c r="N8" s="116"/>
-      <c r="O8" s="116"/>
-      <c r="P8" s="116"/>
-      <c r="Q8" s="116"/>
-      <c r="R8" s="116"/>
-      <c r="S8" s="116"/>
-      <c r="T8" s="116"/>
-      <c r="U8" s="116"/>
-      <c r="V8" s="116"/>
-      <c r="W8" s="116"/>
-      <c r="X8" s="116"/>
-      <c r="Y8" s="116"/>
-      <c r="Z8" s="141"/>
-      <c r="AA8" s="141"/>
-      <c r="AB8" s="141"/>
-      <c r="AC8" s="141"/>
-      <c r="AD8" s="142"/>
-      <c r="AE8" s="143"/>
-      <c r="AF8" s="144"/>
-      <c r="AG8" s="141"/>
-      <c r="AH8" s="141"/>
-      <c r="AI8" s="141"/>
-      <c r="AJ8" s="141"/>
-      <c r="AK8" s="141"/>
-      <c r="AL8" s="141"/>
-      <c r="AM8" s="141"/>
-      <c r="AN8" s="149"/>
-      <c r="AO8" s="113"/>
-      <c r="AP8" s="113"/>
-      <c r="AQ8" s="156"/>
-    </row>
-    <row r="9" s="94" customFormat="1" ht="39.95" customHeight="1" spans="1:43">
-      <c r="A9" s="113"/>
-      <c r="B9" s="114"/>
-      <c r="C9" s="115"/>
-      <c r="D9" s="115"/>
-      <c r="E9" s="116"/>
-      <c r="F9" s="116"/>
-      <c r="G9" s="117"/>
-      <c r="H9" s="118"/>
-      <c r="I9" s="117">
+      <c r="J8" s="129"/>
+      <c r="K8" s="115"/>
+      <c r="L8" s="115"/>
+      <c r="M8" s="115"/>
+      <c r="N8" s="115"/>
+      <c r="O8" s="115"/>
+      <c r="P8" s="115"/>
+      <c r="Q8" s="115"/>
+      <c r="R8" s="115"/>
+      <c r="S8" s="115"/>
+      <c r="T8" s="115"/>
+      <c r="U8" s="115"/>
+      <c r="V8" s="115"/>
+      <c r="W8" s="115"/>
+      <c r="X8" s="115"/>
+      <c r="Y8" s="115"/>
+      <c r="Z8" s="140"/>
+      <c r="AA8" s="140"/>
+      <c r="AB8" s="140"/>
+      <c r="AC8" s="140"/>
+      <c r="AD8" s="141"/>
+      <c r="AE8" s="142"/>
+      <c r="AF8" s="143"/>
+      <c r="AG8" s="140"/>
+      <c r="AH8" s="140"/>
+      <c r="AI8" s="140"/>
+      <c r="AJ8" s="140"/>
+      <c r="AK8" s="140"/>
+      <c r="AL8" s="140"/>
+      <c r="AM8" s="140"/>
+      <c r="AN8" s="148"/>
+      <c r="AO8" s="112"/>
+      <c r="AP8" s="112"/>
+      <c r="AQ8" s="155"/>
+    </row>
+    <row r="9" s="93" customFormat="1" ht="39.95" customHeight="1" spans="1:43">
+      <c r="A9" s="112"/>
+      <c r="B9" s="113"/>
+      <c r="C9" s="114"/>
+      <c r="D9" s="114"/>
+      <c r="E9" s="115"/>
+      <c r="F9" s="115"/>
+      <c r="G9" s="116"/>
+      <c r="H9" s="117"/>
+      <c r="I9" s="116">
         <f>G9-H9</f>
         <v>0</v>
       </c>
-      <c r="J9" s="130"/>
-      <c r="K9" s="116"/>
-      <c r="L9" s="116"/>
-      <c r="M9" s="116"/>
-      <c r="N9" s="116"/>
-      <c r="O9" s="116"/>
-      <c r="P9" s="116"/>
-      <c r="Q9" s="116"/>
-      <c r="R9" s="116"/>
-      <c r="S9" s="116"/>
-      <c r="T9" s="116"/>
-      <c r="U9" s="116"/>
-      <c r="V9" s="116"/>
-      <c r="W9" s="116"/>
-      <c r="X9" s="116"/>
-      <c r="Y9" s="116"/>
-      <c r="Z9" s="145"/>
-      <c r="AA9" s="145"/>
-      <c r="AB9" s="145"/>
-      <c r="AC9" s="145"/>
-      <c r="AD9" s="142"/>
-      <c r="AE9" s="143"/>
-      <c r="AF9" s="143"/>
-      <c r="AG9" s="145"/>
-      <c r="AH9" s="145"/>
-      <c r="AI9" s="145"/>
-      <c r="AJ9" s="145"/>
-      <c r="AK9" s="145"/>
-      <c r="AL9" s="145"/>
-      <c r="AM9" s="145"/>
-      <c r="AN9" s="150"/>
-      <c r="AO9" s="113"/>
-      <c r="AP9" s="113"/>
-      <c r="AQ9" s="113"/>
-    </row>
-    <row r="10" s="94" customFormat="1" ht="39.95" customHeight="1" spans="1:43">
-      <c r="A10" s="113"/>
-      <c r="B10" s="119"/>
-      <c r="C10" s="120"/>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
-      <c r="F10" s="121"/>
-      <c r="G10" s="121"/>
-      <c r="H10" s="121"/>
-      <c r="I10" s="121"/>
-      <c r="J10" s="121"/>
-      <c r="K10" s="121"/>
-      <c r="L10" s="121"/>
-      <c r="M10" s="121"/>
-      <c r="N10" s="121"/>
-      <c r="O10" s="121"/>
-      <c r="P10" s="121"/>
-      <c r="Q10" s="121"/>
-      <c r="R10" s="121"/>
-      <c r="S10" s="121"/>
-      <c r="T10" s="121"/>
-      <c r="U10" s="121"/>
-      <c r="V10" s="121"/>
-      <c r="W10" s="121"/>
-      <c r="X10" s="121"/>
-      <c r="Y10" s="121"/>
-      <c r="Z10" s="121"/>
-      <c r="AA10" s="121"/>
-      <c r="AB10" s="121"/>
-      <c r="AC10" s="121"/>
-      <c r="AD10" s="146"/>
-      <c r="AE10" s="121"/>
-      <c r="AF10" s="121"/>
-      <c r="AG10" s="121"/>
-      <c r="AH10" s="121"/>
-      <c r="AI10" s="121"/>
-      <c r="AJ10" s="121"/>
-      <c r="AK10" s="121"/>
-      <c r="AL10" s="121"/>
-      <c r="AM10" s="121"/>
-      <c r="AN10" s="151"/>
-      <c r="AO10" s="113"/>
-      <c r="AP10" s="113"/>
-      <c r="AQ10" s="113"/>
+      <c r="J9" s="129"/>
+      <c r="K9" s="115"/>
+      <c r="L9" s="115"/>
+      <c r="M9" s="115"/>
+      <c r="N9" s="115"/>
+      <c r="O9" s="115"/>
+      <c r="P9" s="115"/>
+      <c r="Q9" s="115"/>
+      <c r="R9" s="115"/>
+      <c r="S9" s="115"/>
+      <c r="T9" s="115"/>
+      <c r="U9" s="115"/>
+      <c r="V9" s="115"/>
+      <c r="W9" s="115"/>
+      <c r="X9" s="115"/>
+      <c r="Y9" s="115"/>
+      <c r="Z9" s="144"/>
+      <c r="AA9" s="144"/>
+      <c r="AB9" s="144"/>
+      <c r="AC9" s="144"/>
+      <c r="AD9" s="141"/>
+      <c r="AE9" s="142"/>
+      <c r="AF9" s="142"/>
+      <c r="AG9" s="144"/>
+      <c r="AH9" s="144"/>
+      <c r="AI9" s="144"/>
+      <c r="AJ9" s="144"/>
+      <c r="AK9" s="144"/>
+      <c r="AL9" s="144"/>
+      <c r="AM9" s="144"/>
+      <c r="AN9" s="149"/>
+      <c r="AO9" s="112"/>
+      <c r="AP9" s="112"/>
+      <c r="AQ9" s="112"/>
+    </row>
+    <row r="10" s="93" customFormat="1" ht="39.95" customHeight="1" spans="1:43">
+      <c r="A10" s="112"/>
+      <c r="B10" s="118"/>
+      <c r="C10" s="119"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
+      <c r="F10" s="120"/>
+      <c r="G10" s="120"/>
+      <c r="H10" s="120"/>
+      <c r="I10" s="120"/>
+      <c r="J10" s="120"/>
+      <c r="K10" s="120"/>
+      <c r="L10" s="120"/>
+      <c r="M10" s="120"/>
+      <c r="N10" s="120"/>
+      <c r="O10" s="120"/>
+      <c r="P10" s="120"/>
+      <c r="Q10" s="120"/>
+      <c r="R10" s="120"/>
+      <c r="S10" s="120"/>
+      <c r="T10" s="120"/>
+      <c r="U10" s="120"/>
+      <c r="V10" s="120"/>
+      <c r="W10" s="120"/>
+      <c r="X10" s="120"/>
+      <c r="Y10" s="120"/>
+      <c r="Z10" s="120"/>
+      <c r="AA10" s="120"/>
+      <c r="AB10" s="120"/>
+      <c r="AC10" s="120"/>
+      <c r="AD10" s="145"/>
+      <c r="AE10" s="120"/>
+      <c r="AF10" s="120"/>
+      <c r="AG10" s="120"/>
+      <c r="AH10" s="120"/>
+      <c r="AI10" s="120"/>
+      <c r="AJ10" s="120"/>
+      <c r="AK10" s="120"/>
+      <c r="AL10" s="120"/>
+      <c r="AM10" s="120"/>
+      <c r="AN10" s="150"/>
+      <c r="AO10" s="112"/>
+      <c r="AP10" s="112"/>
+      <c r="AQ10" s="112"/>
     </row>
     <row r="11" ht="23.55" spans="1:43">
-      <c r="A11" s="101"/>
-      <c r="B11" s="119"/>
-      <c r="C11" s="120"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
-      <c r="F11" s="121"/>
-      <c r="G11" s="121"/>
-      <c r="H11" s="121"/>
-      <c r="I11" s="121"/>
-      <c r="J11" s="121"/>
-      <c r="K11" s="121"/>
-      <c r="L11" s="121"/>
-      <c r="M11" s="121"/>
-      <c r="N11" s="121"/>
-      <c r="O11" s="121"/>
-      <c r="P11" s="121"/>
-      <c r="Q11" s="121"/>
-      <c r="R11" s="121"/>
-      <c r="S11" s="121"/>
-      <c r="T11" s="121"/>
-      <c r="U11" s="121"/>
-      <c r="V11" s="121"/>
-      <c r="W11" s="121"/>
-      <c r="X11" s="121"/>
-      <c r="Y11" s="121"/>
-      <c r="Z11" s="121"/>
-      <c r="AA11" s="121"/>
-      <c r="AB11" s="121"/>
-      <c r="AC11" s="121"/>
-      <c r="AD11" s="146"/>
-      <c r="AE11" s="121"/>
-      <c r="AF11" s="121"/>
-      <c r="AG11" s="121"/>
-      <c r="AH11" s="121"/>
-      <c r="AI11" s="121"/>
-      <c r="AJ11" s="121"/>
-      <c r="AK11" s="121"/>
-      <c r="AL11" s="121"/>
-      <c r="AM11" s="121"/>
-      <c r="AN11" s="151"/>
-      <c r="AO11" s="113"/>
-      <c r="AP11" s="113"/>
-      <c r="AQ11" s="113"/>
+      <c r="A11" s="100"/>
+      <c r="B11" s="118"/>
+      <c r="C11" s="119"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
+      <c r="F11" s="120"/>
+      <c r="G11" s="120"/>
+      <c r="H11" s="120"/>
+      <c r="I11" s="120"/>
+      <c r="J11" s="120"/>
+      <c r="K11" s="120"/>
+      <c r="L11" s="120"/>
+      <c r="M11" s="120"/>
+      <c r="N11" s="120"/>
+      <c r="O11" s="120"/>
+      <c r="P11" s="120"/>
+      <c r="Q11" s="120"/>
+      <c r="R11" s="120"/>
+      <c r="S11" s="120"/>
+      <c r="T11" s="120"/>
+      <c r="U11" s="120"/>
+      <c r="V11" s="120"/>
+      <c r="W11" s="120"/>
+      <c r="X11" s="120"/>
+      <c r="Y11" s="120"/>
+      <c r="Z11" s="120"/>
+      <c r="AA11" s="120"/>
+      <c r="AB11" s="120"/>
+      <c r="AC11" s="120"/>
+      <c r="AD11" s="145"/>
+      <c r="AE11" s="120"/>
+      <c r="AF11" s="120"/>
+      <c r="AG11" s="120"/>
+      <c r="AH11" s="120"/>
+      <c r="AI11" s="120"/>
+      <c r="AJ11" s="120"/>
+      <c r="AK11" s="120"/>
+      <c r="AL11" s="120"/>
+      <c r="AM11" s="120"/>
+      <c r="AN11" s="150"/>
+      <c r="AO11" s="112"/>
+      <c r="AP11" s="112"/>
+      <c r="AQ11" s="112"/>
     </row>
     <row r="12" ht="23.55" spans="1:43">
-      <c r="A12" s="101"/>
-      <c r="B12" s="119"/>
-      <c r="C12" s="120"/>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
-      <c r="F12" s="121"/>
-      <c r="G12" s="121"/>
-      <c r="H12" s="121"/>
-      <c r="I12" s="121"/>
-      <c r="J12" s="121"/>
-      <c r="K12" s="121"/>
-      <c r="L12" s="121"/>
-      <c r="M12" s="121"/>
-      <c r="N12" s="121"/>
-      <c r="O12" s="121"/>
-      <c r="P12" s="121"/>
-      <c r="Q12" s="121"/>
-      <c r="R12" s="121"/>
-      <c r="S12" s="121"/>
-      <c r="T12" s="121"/>
-      <c r="U12" s="121"/>
-      <c r="V12" s="121"/>
-      <c r="W12" s="121"/>
-      <c r="X12" s="121"/>
-      <c r="Y12" s="121"/>
-      <c r="Z12" s="121"/>
-      <c r="AA12" s="121"/>
-      <c r="AB12" s="121"/>
-      <c r="AC12" s="121"/>
-      <c r="AD12" s="146"/>
-      <c r="AE12" s="121"/>
-      <c r="AF12" s="121"/>
-      <c r="AG12" s="121"/>
-      <c r="AH12" s="121"/>
-      <c r="AI12" s="121"/>
-      <c r="AJ12" s="121"/>
-      <c r="AK12" s="121"/>
-      <c r="AL12" s="121"/>
-      <c r="AM12" s="121"/>
-      <c r="AN12" s="151"/>
-      <c r="AO12" s="113"/>
-      <c r="AP12" s="113"/>
-      <c r="AQ12" s="113"/>
+      <c r="A12" s="100"/>
+      <c r="B12" s="118"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
+      <c r="F12" s="120"/>
+      <c r="G12" s="120"/>
+      <c r="H12" s="120"/>
+      <c r="I12" s="120"/>
+      <c r="J12" s="120"/>
+      <c r="K12" s="120"/>
+      <c r="L12" s="120"/>
+      <c r="M12" s="120"/>
+      <c r="N12" s="120"/>
+      <c r="O12" s="120"/>
+      <c r="P12" s="120"/>
+      <c r="Q12" s="120"/>
+      <c r="R12" s="120"/>
+      <c r="S12" s="120"/>
+      <c r="T12" s="120"/>
+      <c r="U12" s="120"/>
+      <c r="V12" s="120"/>
+      <c r="W12" s="120"/>
+      <c r="X12" s="120"/>
+      <c r="Y12" s="120"/>
+      <c r="Z12" s="120"/>
+      <c r="AA12" s="120"/>
+      <c r="AB12" s="120"/>
+      <c r="AC12" s="120"/>
+      <c r="AD12" s="145"/>
+      <c r="AE12" s="120"/>
+      <c r="AF12" s="120"/>
+      <c r="AG12" s="120"/>
+      <c r="AH12" s="120"/>
+      <c r="AI12" s="120"/>
+      <c r="AJ12" s="120"/>
+      <c r="AK12" s="120"/>
+      <c r="AL12" s="120"/>
+      <c r="AM12" s="120"/>
+      <c r="AN12" s="150"/>
+      <c r="AO12" s="112"/>
+      <c r="AP12" s="112"/>
+      <c r="AQ12" s="112"/>
     </row>
     <row r="13" ht="23.55" spans="1:43">
-      <c r="A13" s="101"/>
-      <c r="B13" s="119"/>
-      <c r="C13" s="120"/>
-      <c r="D13" s="120"/>
-      <c r="E13" s="120"/>
-      <c r="F13" s="121"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="121"/>
-      <c r="I13" s="121"/>
-      <c r="J13" s="121"/>
-      <c r="K13" s="121"/>
-      <c r="L13" s="121"/>
-      <c r="M13" s="121"/>
-      <c r="N13" s="121"/>
-      <c r="O13" s="121"/>
-      <c r="P13" s="121"/>
-      <c r="Q13" s="121"/>
-      <c r="R13" s="121"/>
-      <c r="S13" s="121"/>
-      <c r="T13" s="121"/>
-      <c r="U13" s="121"/>
-      <c r="V13" s="121"/>
-      <c r="W13" s="121"/>
-      <c r="X13" s="121"/>
-      <c r="Y13" s="121"/>
-      <c r="Z13" s="121"/>
-      <c r="AA13" s="121"/>
-      <c r="AB13" s="121"/>
-      <c r="AC13" s="121"/>
-      <c r="AD13" s="146"/>
-      <c r="AE13" s="121"/>
-      <c r="AF13" s="121"/>
-      <c r="AG13" s="121"/>
-      <c r="AH13" s="121"/>
-      <c r="AI13" s="121"/>
-      <c r="AJ13" s="121"/>
-      <c r="AK13" s="121"/>
-      <c r="AL13" s="121"/>
-      <c r="AM13" s="121"/>
-      <c r="AN13" s="151"/>
-      <c r="AO13" s="113"/>
-      <c r="AP13" s="113"/>
-      <c r="AQ13" s="113"/>
+      <c r="A13" s="100"/>
+      <c r="B13" s="118"/>
+      <c r="C13" s="119"/>
+      <c r="D13" s="119"/>
+      <c r="E13" s="119"/>
+      <c r="F13" s="120"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="120"/>
+      <c r="I13" s="120"/>
+      <c r="J13" s="120"/>
+      <c r="K13" s="120"/>
+      <c r="L13" s="120"/>
+      <c r="M13" s="120"/>
+      <c r="N13" s="120"/>
+      <c r="O13" s="120"/>
+      <c r="P13" s="120"/>
+      <c r="Q13" s="120"/>
+      <c r="R13" s="120"/>
+      <c r="S13" s="120"/>
+      <c r="T13" s="120"/>
+      <c r="U13" s="120"/>
+      <c r="V13" s="120"/>
+      <c r="W13" s="120"/>
+      <c r="X13" s="120"/>
+      <c r="Y13" s="120"/>
+      <c r="Z13" s="120"/>
+      <c r="AA13" s="120"/>
+      <c r="AB13" s="120"/>
+      <c r="AC13" s="120"/>
+      <c r="AD13" s="145"/>
+      <c r="AE13" s="120"/>
+      <c r="AF13" s="120"/>
+      <c r="AG13" s="120"/>
+      <c r="AH13" s="120"/>
+      <c r="AI13" s="120"/>
+      <c r="AJ13" s="120"/>
+      <c r="AK13" s="120"/>
+      <c r="AL13" s="120"/>
+      <c r="AM13" s="120"/>
+      <c r="AN13" s="150"/>
+      <c r="AO13" s="112"/>
+      <c r="AP13" s="112"/>
+      <c r="AQ13" s="112"/>
     </row>
     <row r="14" ht="23.55" spans="1:43">
-      <c r="A14" s="101"/>
-      <c r="B14" s="119"/>
-      <c r="C14" s="120"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
-      <c r="F14" s="121"/>
-      <c r="G14" s="121"/>
-      <c r="H14" s="121"/>
-      <c r="I14" s="121"/>
-      <c r="J14" s="121"/>
-      <c r="K14" s="121"/>
-      <c r="L14" s="121"/>
-      <c r="M14" s="121"/>
-      <c r="N14" s="121"/>
-      <c r="O14" s="121"/>
-      <c r="P14" s="121"/>
-      <c r="Q14" s="121"/>
-      <c r="R14" s="121"/>
-      <c r="S14" s="121"/>
-      <c r="T14" s="121"/>
-      <c r="U14" s="121"/>
-      <c r="V14" s="121"/>
-      <c r="W14" s="121"/>
-      <c r="X14" s="121"/>
-      <c r="Y14" s="121"/>
-      <c r="Z14" s="121"/>
-      <c r="AA14" s="121"/>
-      <c r="AB14" s="121"/>
-      <c r="AC14" s="121"/>
-      <c r="AD14" s="146"/>
-      <c r="AE14" s="121"/>
-      <c r="AF14" s="121"/>
-      <c r="AG14" s="121"/>
-      <c r="AH14" s="121"/>
-      <c r="AI14" s="121"/>
-      <c r="AJ14" s="121"/>
-      <c r="AK14" s="121"/>
-      <c r="AL14" s="121"/>
-      <c r="AM14" s="121"/>
-      <c r="AN14" s="151"/>
-      <c r="AO14" s="113"/>
-      <c r="AP14" s="113"/>
-      <c r="AQ14" s="113"/>
+      <c r="A14" s="100"/>
+      <c r="B14" s="118"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
+      <c r="F14" s="120"/>
+      <c r="G14" s="120"/>
+      <c r="H14" s="120"/>
+      <c r="I14" s="120"/>
+      <c r="J14" s="120"/>
+      <c r="K14" s="120"/>
+      <c r="L14" s="120"/>
+      <c r="M14" s="120"/>
+      <c r="N14" s="120"/>
+      <c r="O14" s="120"/>
+      <c r="P14" s="120"/>
+      <c r="Q14" s="120"/>
+      <c r="R14" s="120"/>
+      <c r="S14" s="120"/>
+      <c r="T14" s="120"/>
+      <c r="U14" s="120"/>
+      <c r="V14" s="120"/>
+      <c r="W14" s="120"/>
+      <c r="X14" s="120"/>
+      <c r="Y14" s="120"/>
+      <c r="Z14" s="120"/>
+      <c r="AA14" s="120"/>
+      <c r="AB14" s="120"/>
+      <c r="AC14" s="120"/>
+      <c r="AD14" s="145"/>
+      <c r="AE14" s="120"/>
+      <c r="AF14" s="120"/>
+      <c r="AG14" s="120"/>
+      <c r="AH14" s="120"/>
+      <c r="AI14" s="120"/>
+      <c r="AJ14" s="120"/>
+      <c r="AK14" s="120"/>
+      <c r="AL14" s="120"/>
+      <c r="AM14" s="120"/>
+      <c r="AN14" s="150"/>
+      <c r="AO14" s="112"/>
+      <c r="AP14" s="112"/>
+      <c r="AQ14" s="112"/>
     </row>
     <row r="15" ht="23.55" spans="1:43">
-      <c r="A15" s="101"/>
-      <c r="B15" s="119"/>
-      <c r="C15" s="120"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="120"/>
-      <c r="F15" s="121"/>
-      <c r="G15" s="121"/>
-      <c r="H15" s="121"/>
-      <c r="I15" s="121"/>
-      <c r="J15" s="121"/>
-      <c r="K15" s="121"/>
-      <c r="L15" s="121"/>
-      <c r="M15" s="121"/>
-      <c r="N15" s="121"/>
-      <c r="O15" s="121"/>
-      <c r="P15" s="121"/>
-      <c r="Q15" s="121"/>
-      <c r="R15" s="121"/>
-      <c r="S15" s="121"/>
-      <c r="T15" s="121"/>
-      <c r="U15" s="121"/>
-      <c r="V15" s="121"/>
-      <c r="W15" s="121"/>
-      <c r="X15" s="121"/>
-      <c r="Y15" s="121"/>
-      <c r="Z15" s="121"/>
-      <c r="AA15" s="121"/>
-      <c r="AB15" s="121"/>
-      <c r="AC15" s="121"/>
-      <c r="AD15" s="146"/>
-      <c r="AE15" s="121"/>
-      <c r="AF15" s="121"/>
-      <c r="AG15" s="121"/>
-      <c r="AH15" s="121"/>
-      <c r="AI15" s="121"/>
-      <c r="AJ15" s="121"/>
-      <c r="AK15" s="121"/>
-      <c r="AL15" s="121"/>
-      <c r="AM15" s="121"/>
-      <c r="AN15" s="151"/>
-      <c r="AO15" s="113"/>
-      <c r="AP15" s="113"/>
-      <c r="AQ15" s="113"/>
+      <c r="A15" s="100"/>
+      <c r="B15" s="118"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="119"/>
+      <c r="F15" s="120"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="120"/>
+      <c r="I15" s="120"/>
+      <c r="J15" s="120"/>
+      <c r="K15" s="120"/>
+      <c r="L15" s="120"/>
+      <c r="M15" s="120"/>
+      <c r="N15" s="120"/>
+      <c r="O15" s="120"/>
+      <c r="P15" s="120"/>
+      <c r="Q15" s="120"/>
+      <c r="R15" s="120"/>
+      <c r="S15" s="120"/>
+      <c r="T15" s="120"/>
+      <c r="U15" s="120"/>
+      <c r="V15" s="120"/>
+      <c r="W15" s="120"/>
+      <c r="X15" s="120"/>
+      <c r="Y15" s="120"/>
+      <c r="Z15" s="120"/>
+      <c r="AA15" s="120"/>
+      <c r="AB15" s="120"/>
+      <c r="AC15" s="120"/>
+      <c r="AD15" s="145"/>
+      <c r="AE15" s="120"/>
+      <c r="AF15" s="120"/>
+      <c r="AG15" s="120"/>
+      <c r="AH15" s="120"/>
+      <c r="AI15" s="120"/>
+      <c r="AJ15" s="120"/>
+      <c r="AK15" s="120"/>
+      <c r="AL15" s="120"/>
+      <c r="AM15" s="120"/>
+      <c r="AN15" s="150"/>
+      <c r="AO15" s="112"/>
+      <c r="AP15" s="112"/>
+      <c r="AQ15" s="112"/>
     </row>
     <row r="16" ht="23.55" spans="1:43">
-      <c r="A16" s="101"/>
-      <c r="B16" s="119"/>
-      <c r="C16" s="120"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
-      <c r="F16" s="121"/>
-      <c r="G16" s="121"/>
-      <c r="H16" s="121"/>
-      <c r="I16" s="121"/>
-      <c r="J16" s="121"/>
-      <c r="K16" s="121"/>
-      <c r="L16" s="121"/>
-      <c r="M16" s="121"/>
-      <c r="N16" s="121"/>
-      <c r="O16" s="121"/>
-      <c r="P16" s="121"/>
-      <c r="Q16" s="121"/>
-      <c r="R16" s="121"/>
-      <c r="S16" s="121"/>
-      <c r="T16" s="121"/>
-      <c r="U16" s="121"/>
-      <c r="V16" s="121"/>
-      <c r="W16" s="121"/>
-      <c r="X16" s="121"/>
-      <c r="Y16" s="121"/>
-      <c r="Z16" s="121"/>
-      <c r="AA16" s="121"/>
-      <c r="AB16" s="121"/>
-      <c r="AC16" s="121"/>
-      <c r="AD16" s="146"/>
-      <c r="AE16" s="121"/>
-      <c r="AF16" s="121"/>
-      <c r="AG16" s="121"/>
-      <c r="AH16" s="121"/>
-      <c r="AI16" s="121"/>
-      <c r="AJ16" s="121"/>
-      <c r="AK16" s="121"/>
-      <c r="AL16" s="121"/>
-      <c r="AM16" s="121"/>
-      <c r="AN16" s="151"/>
-      <c r="AO16" s="113"/>
-      <c r="AP16" s="113"/>
-      <c r="AQ16" s="113"/>
+      <c r="A16" s="100"/>
+      <c r="B16" s="118"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="119"/>
+      <c r="F16" s="120"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="120"/>
+      <c r="I16" s="120"/>
+      <c r="J16" s="120"/>
+      <c r="K16" s="120"/>
+      <c r="L16" s="120"/>
+      <c r="M16" s="120"/>
+      <c r="N16" s="120"/>
+      <c r="O16" s="120"/>
+      <c r="P16" s="120"/>
+      <c r="Q16" s="120"/>
+      <c r="R16" s="120"/>
+      <c r="S16" s="120"/>
+      <c r="T16" s="120"/>
+      <c r="U16" s="120"/>
+      <c r="V16" s="120"/>
+      <c r="W16" s="120"/>
+      <c r="X16" s="120"/>
+      <c r="Y16" s="120"/>
+      <c r="Z16" s="120"/>
+      <c r="AA16" s="120"/>
+      <c r="AB16" s="120"/>
+      <c r="AC16" s="120"/>
+      <c r="AD16" s="145"/>
+      <c r="AE16" s="120"/>
+      <c r="AF16" s="120"/>
+      <c r="AG16" s="120"/>
+      <c r="AH16" s="120"/>
+      <c r="AI16" s="120"/>
+      <c r="AJ16" s="120"/>
+      <c r="AK16" s="120"/>
+      <c r="AL16" s="120"/>
+      <c r="AM16" s="120"/>
+      <c r="AN16" s="150"/>
+      <c r="AO16" s="112"/>
+      <c r="AP16" s="112"/>
+      <c r="AQ16" s="112"/>
     </row>
     <row r="17" ht="23.55" spans="1:43">
-      <c r="A17" s="101"/>
-      <c r="B17" s="119"/>
-      <c r="C17" s="120"/>
-      <c r="D17" s="120"/>
-      <c r="E17" s="120"/>
-      <c r="F17" s="121"/>
-      <c r="G17" s="121"/>
-      <c r="H17" s="121"/>
-      <c r="I17" s="121"/>
-      <c r="J17" s="121"/>
-      <c r="K17" s="121"/>
-      <c r="L17" s="121"/>
-      <c r="M17" s="121"/>
-      <c r="N17" s="121"/>
-      <c r="O17" s="121"/>
-      <c r="P17" s="121"/>
-      <c r="Q17" s="121"/>
-      <c r="R17" s="121"/>
-      <c r="S17" s="121"/>
-      <c r="T17" s="121"/>
-      <c r="U17" s="121"/>
-      <c r="V17" s="121"/>
-      <c r="W17" s="121"/>
-      <c r="X17" s="121"/>
-      <c r="Y17" s="121"/>
-      <c r="Z17" s="121"/>
-      <c r="AA17" s="121"/>
-      <c r="AB17" s="121"/>
-      <c r="AC17" s="121"/>
-      <c r="AD17" s="146"/>
-      <c r="AE17" s="121"/>
-      <c r="AF17" s="121"/>
-      <c r="AG17" s="121"/>
-      <c r="AH17" s="121"/>
-      <c r="AI17" s="121"/>
-      <c r="AJ17" s="121"/>
-      <c r="AK17" s="121"/>
-      <c r="AL17" s="121"/>
-      <c r="AM17" s="121"/>
-      <c r="AN17" s="151"/>
-      <c r="AO17" s="113"/>
-      <c r="AP17" s="113"/>
-      <c r="AQ17" s="113"/>
+      <c r="A17" s="100"/>
+      <c r="B17" s="118"/>
+      <c r="C17" s="119"/>
+      <c r="D17" s="119"/>
+      <c r="E17" s="119"/>
+      <c r="F17" s="120"/>
+      <c r="G17" s="120"/>
+      <c r="H17" s="120"/>
+      <c r="I17" s="120"/>
+      <c r="J17" s="120"/>
+      <c r="K17" s="120"/>
+      <c r="L17" s="120"/>
+      <c r="M17" s="120"/>
+      <c r="N17" s="120"/>
+      <c r="O17" s="120"/>
+      <c r="P17" s="120"/>
+      <c r="Q17" s="120"/>
+      <c r="R17" s="120"/>
+      <c r="S17" s="120"/>
+      <c r="T17" s="120"/>
+      <c r="U17" s="120"/>
+      <c r="V17" s="120"/>
+      <c r="W17" s="120"/>
+      <c r="X17" s="120"/>
+      <c r="Y17" s="120"/>
+      <c r="Z17" s="120"/>
+      <c r="AA17" s="120"/>
+      <c r="AB17" s="120"/>
+      <c r="AC17" s="120"/>
+      <c r="AD17" s="145"/>
+      <c r="AE17" s="120"/>
+      <c r="AF17" s="120"/>
+      <c r="AG17" s="120"/>
+      <c r="AH17" s="120"/>
+      <c r="AI17" s="120"/>
+      <c r="AJ17" s="120"/>
+      <c r="AK17" s="120"/>
+      <c r="AL17" s="120"/>
+      <c r="AM17" s="120"/>
+      <c r="AN17" s="150"/>
+      <c r="AO17" s="112"/>
+      <c r="AP17" s="112"/>
+      <c r="AQ17" s="112"/>
     </row>
     <row r="18" ht="23.55" spans="1:43">
-      <c r="A18" s="101"/>
-      <c r="B18" s="119"/>
-      <c r="C18" s="120"/>
-      <c r="D18" s="120"/>
-      <c r="E18" s="120"/>
-      <c r="F18" s="121"/>
-      <c r="G18" s="121"/>
-      <c r="H18" s="121"/>
-      <c r="I18" s="121"/>
-      <c r="J18" s="121"/>
-      <c r="K18" s="121"/>
-      <c r="L18" s="121"/>
-      <c r="M18" s="121"/>
-      <c r="N18" s="121"/>
-      <c r="O18" s="121"/>
-      <c r="P18" s="121"/>
-      <c r="Q18" s="121"/>
-      <c r="R18" s="121"/>
-      <c r="S18" s="121"/>
-      <c r="T18" s="121"/>
-      <c r="U18" s="121"/>
-      <c r="V18" s="121"/>
-      <c r="W18" s="121"/>
-      <c r="X18" s="121"/>
-      <c r="Y18" s="121"/>
-      <c r="Z18" s="121"/>
-      <c r="AA18" s="121"/>
-      <c r="AB18" s="121"/>
-      <c r="AC18" s="121"/>
-      <c r="AD18" s="146"/>
-      <c r="AE18" s="121"/>
-      <c r="AF18" s="121"/>
-      <c r="AG18" s="121"/>
-      <c r="AH18" s="121"/>
-      <c r="AI18" s="121"/>
-      <c r="AJ18" s="121"/>
-      <c r="AK18" s="121"/>
-      <c r="AL18" s="121"/>
-      <c r="AM18" s="121"/>
-      <c r="AN18" s="151"/>
-      <c r="AO18" s="113"/>
-      <c r="AP18" s="113"/>
-      <c r="AQ18" s="113"/>
+      <c r="A18" s="100"/>
+      <c r="B18" s="118"/>
+      <c r="C18" s="119"/>
+      <c r="D18" s="119"/>
+      <c r="E18" s="119"/>
+      <c r="F18" s="120"/>
+      <c r="G18" s="120"/>
+      <c r="H18" s="120"/>
+      <c r="I18" s="120"/>
+      <c r="J18" s="120"/>
+      <c r="K18" s="120"/>
+      <c r="L18" s="120"/>
+      <c r="M18" s="120"/>
+      <c r="N18" s="120"/>
+      <c r="O18" s="120"/>
+      <c r="P18" s="120"/>
+      <c r="Q18" s="120"/>
+      <c r="R18" s="120"/>
+      <c r="S18" s="120"/>
+      <c r="T18" s="120"/>
+      <c r="U18" s="120"/>
+      <c r="V18" s="120"/>
+      <c r="W18" s="120"/>
+      <c r="X18" s="120"/>
+      <c r="Y18" s="120"/>
+      <c r="Z18" s="120"/>
+      <c r="AA18" s="120"/>
+      <c r="AB18" s="120"/>
+      <c r="AC18" s="120"/>
+      <c r="AD18" s="145"/>
+      <c r="AE18" s="120"/>
+      <c r="AF18" s="120"/>
+      <c r="AG18" s="120"/>
+      <c r="AH18" s="120"/>
+      <c r="AI18" s="120"/>
+      <c r="AJ18" s="120"/>
+      <c r="AK18" s="120"/>
+      <c r="AL18" s="120"/>
+      <c r="AM18" s="120"/>
+      <c r="AN18" s="150"/>
+      <c r="AO18" s="112"/>
+      <c r="AP18" s="112"/>
+      <c r="AQ18" s="112"/>
     </row>
     <row r="19" ht="23.55" spans="1:43">
-      <c r="A19" s="101"/>
-      <c r="B19" s="119"/>
-      <c r="C19" s="120"/>
-      <c r="D19" s="120"/>
-      <c r="E19" s="120"/>
-      <c r="F19" s="121"/>
-      <c r="G19" s="121"/>
-      <c r="H19" s="121"/>
-      <c r="I19" s="121"/>
-      <c r="J19" s="121"/>
-      <c r="K19" s="121"/>
-      <c r="L19" s="121"/>
-      <c r="M19" s="121"/>
-      <c r="N19" s="121"/>
-      <c r="O19" s="121"/>
-      <c r="P19" s="121"/>
-      <c r="Q19" s="121"/>
-      <c r="R19" s="121"/>
-      <c r="S19" s="121"/>
-      <c r="T19" s="121"/>
-      <c r="U19" s="121"/>
-      <c r="V19" s="121"/>
-      <c r="W19" s="121"/>
-      <c r="X19" s="121"/>
-      <c r="Y19" s="121"/>
-      <c r="Z19" s="121"/>
-      <c r="AA19" s="121"/>
-      <c r="AB19" s="121"/>
-      <c r="AC19" s="121"/>
-      <c r="AD19" s="146"/>
-      <c r="AE19" s="121"/>
-      <c r="AF19" s="121"/>
-      <c r="AG19" s="121"/>
-      <c r="AH19" s="121"/>
-      <c r="AI19" s="121"/>
-      <c r="AJ19" s="121"/>
-      <c r="AK19" s="121"/>
-      <c r="AL19" s="121"/>
-      <c r="AM19" s="121"/>
-      <c r="AN19" s="151"/>
-      <c r="AO19" s="113"/>
-      <c r="AP19" s="113"/>
-      <c r="AQ19" s="113"/>
+      <c r="A19" s="100"/>
+      <c r="B19" s="118"/>
+      <c r="C19" s="119"/>
+      <c r="D19" s="119"/>
+      <c r="E19" s="119"/>
+      <c r="F19" s="120"/>
+      <c r="G19" s="120"/>
+      <c r="H19" s="120"/>
+      <c r="I19" s="120"/>
+      <c r="J19" s="120"/>
+      <c r="K19" s="120"/>
+      <c r="L19" s="120"/>
+      <c r="M19" s="120"/>
+      <c r="N19" s="120"/>
+      <c r="O19" s="120"/>
+      <c r="P19" s="120"/>
+      <c r="Q19" s="120"/>
+      <c r="R19" s="120"/>
+      <c r="S19" s="120"/>
+      <c r="T19" s="120"/>
+      <c r="U19" s="120"/>
+      <c r="V19" s="120"/>
+      <c r="W19" s="120"/>
+      <c r="X19" s="120"/>
+      <c r="Y19" s="120"/>
+      <c r="Z19" s="120"/>
+      <c r="AA19" s="120"/>
+      <c r="AB19" s="120"/>
+      <c r="AC19" s="120"/>
+      <c r="AD19" s="145"/>
+      <c r="AE19" s="120"/>
+      <c r="AF19" s="120"/>
+      <c r="AG19" s="120"/>
+      <c r="AH19" s="120"/>
+      <c r="AI19" s="120"/>
+      <c r="AJ19" s="120"/>
+      <c r="AK19" s="120"/>
+      <c r="AL19" s="120"/>
+      <c r="AM19" s="120"/>
+      <c r="AN19" s="150"/>
+      <c r="AO19" s="112"/>
+      <c r="AP19" s="112"/>
+      <c r="AQ19" s="112"/>
     </row>
     <row r="20" ht="23.55" spans="1:43">
-      <c r="A20" s="101"/>
-      <c r="B20" s="119"/>
-      <c r="C20" s="120"/>
-      <c r="D20" s="120"/>
-      <c r="E20" s="120"/>
-      <c r="F20" s="121"/>
-      <c r="G20" s="121"/>
-      <c r="H20" s="121"/>
-      <c r="I20" s="121"/>
-      <c r="J20" s="121"/>
-      <c r="K20" s="121"/>
-      <c r="L20" s="121"/>
-      <c r="M20" s="121"/>
-      <c r="N20" s="121"/>
-      <c r="O20" s="121"/>
-      <c r="P20" s="121"/>
-      <c r="Q20" s="121"/>
-      <c r="R20" s="121"/>
-      <c r="S20" s="121"/>
-      <c r="T20" s="121"/>
-      <c r="U20" s="121"/>
-      <c r="V20" s="121"/>
-      <c r="W20" s="121"/>
-      <c r="X20" s="121"/>
-      <c r="Y20" s="121"/>
-      <c r="Z20" s="121"/>
-      <c r="AA20" s="121"/>
-      <c r="AB20" s="121"/>
-      <c r="AC20" s="121"/>
-      <c r="AD20" s="146"/>
-      <c r="AE20" s="121"/>
-      <c r="AF20" s="121"/>
-      <c r="AG20" s="121"/>
-      <c r="AH20" s="121"/>
-      <c r="AI20" s="121"/>
-      <c r="AJ20" s="121"/>
-      <c r="AK20" s="121"/>
-      <c r="AL20" s="121"/>
-      <c r="AM20" s="121"/>
-      <c r="AN20" s="151"/>
-      <c r="AO20" s="113"/>
-      <c r="AP20" s="113"/>
-      <c r="AQ20" s="113"/>
+      <c r="A20" s="100"/>
+      <c r="B20" s="118"/>
+      <c r="C20" s="119"/>
+      <c r="D20" s="119"/>
+      <c r="E20" s="119"/>
+      <c r="F20" s="120"/>
+      <c r="G20" s="120"/>
+      <c r="H20" s="120"/>
+      <c r="I20" s="120"/>
+      <c r="J20" s="120"/>
+      <c r="K20" s="120"/>
+      <c r="L20" s="120"/>
+      <c r="M20" s="120"/>
+      <c r="N20" s="120"/>
+      <c r="O20" s="120"/>
+      <c r="P20" s="120"/>
+      <c r="Q20" s="120"/>
+      <c r="R20" s="120"/>
+      <c r="S20" s="120"/>
+      <c r="T20" s="120"/>
+      <c r="U20" s="120"/>
+      <c r="V20" s="120"/>
+      <c r="W20" s="120"/>
+      <c r="X20" s="120"/>
+      <c r="Y20" s="120"/>
+      <c r="Z20" s="120"/>
+      <c r="AA20" s="120"/>
+      <c r="AB20" s="120"/>
+      <c r="AC20" s="120"/>
+      <c r="AD20" s="145"/>
+      <c r="AE20" s="120"/>
+      <c r="AF20" s="120"/>
+      <c r="AG20" s="120"/>
+      <c r="AH20" s="120"/>
+      <c r="AI20" s="120"/>
+      <c r="AJ20" s="120"/>
+      <c r="AK20" s="120"/>
+      <c r="AL20" s="120"/>
+      <c r="AM20" s="120"/>
+      <c r="AN20" s="150"/>
+      <c r="AO20" s="112"/>
+      <c r="AP20" s="112"/>
+      <c r="AQ20" s="112"/>
     </row>
     <row r="21" ht="23.55" spans="1:43">
-      <c r="A21" s="101"/>
-      <c r="B21" s="119"/>
-      <c r="C21" s="120"/>
-      <c r="D21" s="120"/>
-      <c r="E21" s="120"/>
-      <c r="F21" s="121"/>
-      <c r="G21" s="121"/>
-      <c r="H21" s="121"/>
-      <c r="I21" s="121"/>
-      <c r="J21" s="121"/>
-      <c r="K21" s="121"/>
-      <c r="L21" s="121"/>
-      <c r="M21" s="121"/>
-      <c r="N21" s="121"/>
-      <c r="O21" s="121"/>
-      <c r="P21" s="121"/>
-      <c r="Q21" s="121"/>
-      <c r="R21" s="121"/>
-      <c r="S21" s="121"/>
-      <c r="T21" s="121"/>
-      <c r="U21" s="121"/>
-      <c r="V21" s="121"/>
-      <c r="W21" s="121"/>
-      <c r="X21" s="121"/>
-      <c r="Y21" s="121"/>
-      <c r="Z21" s="121"/>
-      <c r="AA21" s="121"/>
-      <c r="AB21" s="121"/>
-      <c r="AC21" s="121"/>
-      <c r="AD21" s="146"/>
-      <c r="AE21" s="121"/>
-      <c r="AF21" s="121"/>
-      <c r="AG21" s="121"/>
-      <c r="AH21" s="121"/>
-      <c r="AI21" s="121"/>
-      <c r="AJ21" s="121"/>
-      <c r="AK21" s="121"/>
-      <c r="AL21" s="121"/>
-      <c r="AM21" s="121"/>
-      <c r="AN21" s="151"/>
-      <c r="AO21" s="113"/>
-      <c r="AP21" s="113"/>
-      <c r="AQ21" s="113"/>
+      <c r="A21" s="100"/>
+      <c r="B21" s="118"/>
+      <c r="C21" s="119"/>
+      <c r="D21" s="119"/>
+      <c r="E21" s="119"/>
+      <c r="F21" s="120"/>
+      <c r="G21" s="120"/>
+      <c r="H21" s="120"/>
+      <c r="I21" s="120"/>
+      <c r="J21" s="120"/>
+      <c r="K21" s="120"/>
+      <c r="L21" s="120"/>
+      <c r="M21" s="120"/>
+      <c r="N21" s="120"/>
+      <c r="O21" s="120"/>
+      <c r="P21" s="120"/>
+      <c r="Q21" s="120"/>
+      <c r="R21" s="120"/>
+      <c r="S21" s="120"/>
+      <c r="T21" s="120"/>
+      <c r="U21" s="120"/>
+      <c r="V21" s="120"/>
+      <c r="W21" s="120"/>
+      <c r="X21" s="120"/>
+      <c r="Y21" s="120"/>
+      <c r="Z21" s="120"/>
+      <c r="AA21" s="120"/>
+      <c r="AB21" s="120"/>
+      <c r="AC21" s="120"/>
+      <c r="AD21" s="145"/>
+      <c r="AE21" s="120"/>
+      <c r="AF21" s="120"/>
+      <c r="AG21" s="120"/>
+      <c r="AH21" s="120"/>
+      <c r="AI21" s="120"/>
+      <c r="AJ21" s="120"/>
+      <c r="AK21" s="120"/>
+      <c r="AL21" s="120"/>
+      <c r="AM21" s="120"/>
+      <c r="AN21" s="150"/>
+      <c r="AO21" s="112"/>
+      <c r="AP21" s="112"/>
+      <c r="AQ21" s="112"/>
     </row>
     <row r="22" ht="23.55" spans="1:43">
-      <c r="A22" s="101"/>
-      <c r="B22" s="119"/>
-      <c r="C22" s="120"/>
-      <c r="D22" s="120"/>
-      <c r="E22" s="120"/>
-      <c r="F22" s="121"/>
-      <c r="G22" s="121"/>
-      <c r="H22" s="121"/>
-      <c r="I22" s="121"/>
-      <c r="J22" s="121"/>
-      <c r="K22" s="121"/>
-      <c r="L22" s="121"/>
-      <c r="M22" s="121"/>
-      <c r="N22" s="121"/>
-      <c r="O22" s="121"/>
-      <c r="P22" s="121"/>
-      <c r="Q22" s="121"/>
-      <c r="R22" s="121"/>
-      <c r="S22" s="121"/>
-      <c r="T22" s="121"/>
-      <c r="U22" s="121"/>
-      <c r="V22" s="121"/>
-      <c r="W22" s="121"/>
-      <c r="X22" s="121"/>
-      <c r="Y22" s="121"/>
-      <c r="Z22" s="121"/>
-      <c r="AA22" s="121"/>
-      <c r="AB22" s="121"/>
-      <c r="AC22" s="121"/>
-      <c r="AD22" s="146"/>
-      <c r="AE22" s="121"/>
-      <c r="AF22" s="121"/>
-      <c r="AG22" s="121"/>
-      <c r="AH22" s="121"/>
-      <c r="AI22" s="121"/>
-      <c r="AJ22" s="121"/>
-      <c r="AK22" s="121"/>
-      <c r="AL22" s="121"/>
-      <c r="AM22" s="121"/>
-      <c r="AN22" s="151"/>
-      <c r="AO22" s="113"/>
-      <c r="AP22" s="113"/>
-      <c r="AQ22" s="113"/>
+      <c r="A22" s="100"/>
+      <c r="B22" s="118"/>
+      <c r="C22" s="119"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="119"/>
+      <c r="F22" s="120"/>
+      <c r="G22" s="120"/>
+      <c r="H22" s="120"/>
+      <c r="I22" s="120"/>
+      <c r="J22" s="120"/>
+      <c r="K22" s="120"/>
+      <c r="L22" s="120"/>
+      <c r="M22" s="120"/>
+      <c r="N22" s="120"/>
+      <c r="O22" s="120"/>
+      <c r="P22" s="120"/>
+      <c r="Q22" s="120"/>
+      <c r="R22" s="120"/>
+      <c r="S22" s="120"/>
+      <c r="T22" s="120"/>
+      <c r="U22" s="120"/>
+      <c r="V22" s="120"/>
+      <c r="W22" s="120"/>
+      <c r="X22" s="120"/>
+      <c r="Y22" s="120"/>
+      <c r="Z22" s="120"/>
+      <c r="AA22" s="120"/>
+      <c r="AB22" s="120"/>
+      <c r="AC22" s="120"/>
+      <c r="AD22" s="145"/>
+      <c r="AE22" s="120"/>
+      <c r="AF22" s="120"/>
+      <c r="AG22" s="120"/>
+      <c r="AH22" s="120"/>
+      <c r="AI22" s="120"/>
+      <c r="AJ22" s="120"/>
+      <c r="AK22" s="120"/>
+      <c r="AL22" s="120"/>
+      <c r="AM22" s="120"/>
+      <c r="AN22" s="150"/>
+      <c r="AO22" s="112"/>
+      <c r="AP22" s="112"/>
+      <c r="AQ22" s="112"/>
     </row>
     <row r="23" ht="23.55" spans="1:43">
-      <c r="A23" s="101"/>
-      <c r="B23" s="119"/>
-      <c r="C23" s="120"/>
-      <c r="D23" s="120"/>
-      <c r="E23" s="120"/>
-      <c r="F23" s="121"/>
-      <c r="G23" s="121"/>
-      <c r="H23" s="121"/>
-      <c r="I23" s="121"/>
-      <c r="J23" s="121"/>
-      <c r="K23" s="121"/>
-      <c r="L23" s="121"/>
-      <c r="M23" s="121"/>
-      <c r="N23" s="121"/>
-      <c r="O23" s="121"/>
-      <c r="P23" s="121"/>
-      <c r="Q23" s="121"/>
-      <c r="R23" s="121"/>
-      <c r="S23" s="121"/>
-      <c r="T23" s="121"/>
-      <c r="U23" s="121"/>
-      <c r="V23" s="121"/>
-      <c r="W23" s="121"/>
-      <c r="X23" s="121"/>
-      <c r="Y23" s="121"/>
-      <c r="Z23" s="121"/>
-      <c r="AA23" s="121"/>
-      <c r="AB23" s="121"/>
-      <c r="AC23" s="121"/>
-      <c r="AD23" s="146"/>
-      <c r="AE23" s="121"/>
-      <c r="AF23" s="121"/>
-      <c r="AG23" s="121"/>
-      <c r="AH23" s="121"/>
-      <c r="AI23" s="121"/>
-      <c r="AJ23" s="121"/>
-      <c r="AK23" s="121"/>
-      <c r="AL23" s="121"/>
-      <c r="AM23" s="121"/>
-      <c r="AN23" s="151"/>
-      <c r="AO23" s="113"/>
-      <c r="AP23" s="113"/>
-      <c r="AQ23" s="113"/>
+      <c r="A23" s="100"/>
+      <c r="B23" s="118"/>
+      <c r="C23" s="119"/>
+      <c r="D23" s="119"/>
+      <c r="E23" s="119"/>
+      <c r="F23" s="120"/>
+      <c r="G23" s="120"/>
+      <c r="H23" s="120"/>
+      <c r="I23" s="120"/>
+      <c r="J23" s="120"/>
+      <c r="K23" s="120"/>
+      <c r="L23" s="120"/>
+      <c r="M23" s="120"/>
+      <c r="N23" s="120"/>
+      <c r="O23" s="120"/>
+      <c r="P23" s="120"/>
+      <c r="Q23" s="120"/>
+      <c r="R23" s="120"/>
+      <c r="S23" s="120"/>
+      <c r="T23" s="120"/>
+      <c r="U23" s="120"/>
+      <c r="V23" s="120"/>
+      <c r="W23" s="120"/>
+      <c r="X23" s="120"/>
+      <c r="Y23" s="120"/>
+      <c r="Z23" s="120"/>
+      <c r="AA23" s="120"/>
+      <c r="AB23" s="120"/>
+      <c r="AC23" s="120"/>
+      <c r="AD23" s="145"/>
+      <c r="AE23" s="120"/>
+      <c r="AF23" s="120"/>
+      <c r="AG23" s="120"/>
+      <c r="AH23" s="120"/>
+      <c r="AI23" s="120"/>
+      <c r="AJ23" s="120"/>
+      <c r="AK23" s="120"/>
+      <c r="AL23" s="120"/>
+      <c r="AM23" s="120"/>
+      <c r="AN23" s="150"/>
+      <c r="AO23" s="112"/>
+      <c r="AP23" s="112"/>
+      <c r="AQ23" s="112"/>
     </row>
     <row r="24" ht="23.55" spans="1:43">
-      <c r="A24" s="101"/>
-      <c r="B24" s="119"/>
-      <c r="C24" s="120"/>
-      <c r="D24" s="120"/>
-      <c r="E24" s="120"/>
-      <c r="F24" s="121"/>
-      <c r="G24" s="121"/>
-      <c r="H24" s="121"/>
-      <c r="I24" s="121"/>
-      <c r="J24" s="121"/>
-      <c r="K24" s="121"/>
-      <c r="L24" s="121"/>
-      <c r="M24" s="121"/>
-      <c r="N24" s="121"/>
-      <c r="O24" s="121"/>
-      <c r="P24" s="121"/>
-      <c r="Q24" s="121"/>
-      <c r="R24" s="121"/>
-      <c r="S24" s="121"/>
-      <c r="T24" s="121"/>
-      <c r="U24" s="121"/>
-      <c r="V24" s="121"/>
-      <c r="W24" s="121"/>
-      <c r="X24" s="121"/>
-      <c r="Y24" s="121"/>
-      <c r="Z24" s="121"/>
-      <c r="AA24" s="121"/>
-      <c r="AB24" s="121"/>
-      <c r="AC24" s="121"/>
-      <c r="AD24" s="146"/>
-      <c r="AE24" s="121"/>
-      <c r="AF24" s="121"/>
-      <c r="AG24" s="121"/>
-      <c r="AH24" s="121"/>
-      <c r="AI24" s="121"/>
-      <c r="AJ24" s="121"/>
-      <c r="AK24" s="121"/>
-      <c r="AL24" s="121"/>
-      <c r="AM24" s="121"/>
-      <c r="AN24" s="151"/>
-      <c r="AO24" s="113"/>
-      <c r="AP24" s="113"/>
-      <c r="AQ24" s="113"/>
+      <c r="A24" s="100"/>
+      <c r="B24" s="118"/>
+      <c r="C24" s="119"/>
+      <c r="D24" s="119"/>
+      <c r="E24" s="119"/>
+      <c r="F24" s="120"/>
+      <c r="G24" s="120"/>
+      <c r="H24" s="120"/>
+      <c r="I24" s="120"/>
+      <c r="J24" s="120"/>
+      <c r="K24" s="120"/>
+      <c r="L24" s="120"/>
+      <c r="M24" s="120"/>
+      <c r="N24" s="120"/>
+      <c r="O24" s="120"/>
+      <c r="P24" s="120"/>
+      <c r="Q24" s="120"/>
+      <c r="R24" s="120"/>
+      <c r="S24" s="120"/>
+      <c r="T24" s="120"/>
+      <c r="U24" s="120"/>
+      <c r="V24" s="120"/>
+      <c r="W24" s="120"/>
+      <c r="X24" s="120"/>
+      <c r="Y24" s="120"/>
+      <c r="Z24" s="120"/>
+      <c r="AA24" s="120"/>
+      <c r="AB24" s="120"/>
+      <c r="AC24" s="120"/>
+      <c r="AD24" s="145"/>
+      <c r="AE24" s="120"/>
+      <c r="AF24" s="120"/>
+      <c r="AG24" s="120"/>
+      <c r="AH24" s="120"/>
+      <c r="AI24" s="120"/>
+      <c r="AJ24" s="120"/>
+      <c r="AK24" s="120"/>
+      <c r="AL24" s="120"/>
+      <c r="AM24" s="120"/>
+      <c r="AN24" s="150"/>
+      <c r="AO24" s="112"/>
+      <c r="AP24" s="112"/>
+      <c r="AQ24" s="112"/>
     </row>
     <row r="25" ht="23.55" spans="1:43">
-      <c r="A25" s="101"/>
-      <c r="B25" s="119"/>
-      <c r="C25" s="120"/>
-      <c r="D25" s="120"/>
-      <c r="E25" s="120"/>
-      <c r="F25" s="121"/>
-      <c r="G25" s="121"/>
-      <c r="H25" s="121"/>
-      <c r="I25" s="121"/>
-      <c r="J25" s="121"/>
-      <c r="K25" s="121"/>
-      <c r="L25" s="121"/>
-      <c r="M25" s="121"/>
-      <c r="N25" s="121"/>
-      <c r="O25" s="121"/>
-      <c r="P25" s="121"/>
-      <c r="Q25" s="121"/>
-      <c r="R25" s="121"/>
-      <c r="S25" s="121"/>
-      <c r="T25" s="121"/>
-      <c r="U25" s="121"/>
-      <c r="V25" s="121"/>
-      <c r="W25" s="121"/>
-      <c r="X25" s="121"/>
-      <c r="Y25" s="121"/>
-      <c r="Z25" s="121"/>
-      <c r="AA25" s="121"/>
-      <c r="AB25" s="121"/>
-      <c r="AC25" s="121"/>
-      <c r="AD25" s="146"/>
-      <c r="AE25" s="121"/>
-      <c r="AF25" s="121"/>
-      <c r="AG25" s="121"/>
-      <c r="AH25" s="121"/>
-      <c r="AI25" s="121"/>
-      <c r="AJ25" s="121"/>
-      <c r="AK25" s="121"/>
-      <c r="AL25" s="121"/>
-      <c r="AM25" s="121"/>
-      <c r="AN25" s="151"/>
-      <c r="AO25" s="113"/>
-      <c r="AP25" s="113"/>
-      <c r="AQ25" s="113"/>
+      <c r="A25" s="100"/>
+      <c r="B25" s="118"/>
+      <c r="C25" s="119"/>
+      <c r="D25" s="119"/>
+      <c r="E25" s="119"/>
+      <c r="F25" s="120"/>
+      <c r="G25" s="120"/>
+      <c r="H25" s="120"/>
+      <c r="I25" s="120"/>
+      <c r="J25" s="120"/>
+      <c r="K25" s="120"/>
+      <c r="L25" s="120"/>
+      <c r="M25" s="120"/>
+      <c r="N25" s="120"/>
+      <c r="O25" s="120"/>
+      <c r="P25" s="120"/>
+      <c r="Q25" s="120"/>
+      <c r="R25" s="120"/>
+      <c r="S25" s="120"/>
+      <c r="T25" s="120"/>
+      <c r="U25" s="120"/>
+      <c r="V25" s="120"/>
+      <c r="W25" s="120"/>
+      <c r="X25" s="120"/>
+      <c r="Y25" s="120"/>
+      <c r="Z25" s="120"/>
+      <c r="AA25" s="120"/>
+      <c r="AB25" s="120"/>
+      <c r="AC25" s="120"/>
+      <c r="AD25" s="145"/>
+      <c r="AE25" s="120"/>
+      <c r="AF25" s="120"/>
+      <c r="AG25" s="120"/>
+      <c r="AH25" s="120"/>
+      <c r="AI25" s="120"/>
+      <c r="AJ25" s="120"/>
+      <c r="AK25" s="120"/>
+      <c r="AL25" s="120"/>
+      <c r="AM25" s="120"/>
+      <c r="AN25" s="150"/>
+      <c r="AO25" s="112"/>
+      <c r="AP25" s="112"/>
+      <c r="AQ25" s="112"/>
     </row>
     <row r="26" ht="23.55" spans="1:43">
-      <c r="A26" s="101"/>
-      <c r="B26" s="119"/>
-      <c r="C26" s="120"/>
-      <c r="D26" s="120"/>
-      <c r="E26" s="120"/>
-      <c r="F26" s="121"/>
-      <c r="G26" s="121"/>
-      <c r="H26" s="121"/>
-      <c r="I26" s="121"/>
-      <c r="J26" s="121"/>
-      <c r="K26" s="121"/>
-      <c r="L26" s="121"/>
-      <c r="M26" s="121"/>
-      <c r="N26" s="121"/>
-      <c r="O26" s="121"/>
-      <c r="P26" s="121"/>
-      <c r="Q26" s="121"/>
-      <c r="R26" s="121"/>
-      <c r="S26" s="121"/>
-      <c r="T26" s="121"/>
-      <c r="U26" s="121"/>
-      <c r="V26" s="121"/>
-      <c r="W26" s="121"/>
-      <c r="X26" s="121"/>
-      <c r="Y26" s="121"/>
-      <c r="Z26" s="121"/>
-      <c r="AA26" s="121"/>
-      <c r="AB26" s="121"/>
-      <c r="AC26" s="121"/>
-      <c r="AD26" s="146"/>
-      <c r="AE26" s="121"/>
-      <c r="AF26" s="121"/>
-      <c r="AG26" s="121"/>
-      <c r="AH26" s="121"/>
-      <c r="AI26" s="121"/>
-      <c r="AJ26" s="121"/>
-      <c r="AK26" s="121"/>
-      <c r="AL26" s="121"/>
-      <c r="AM26" s="121"/>
-      <c r="AN26" s="151"/>
-      <c r="AO26" s="113"/>
-      <c r="AP26" s="113"/>
-      <c r="AQ26" s="113"/>
+      <c r="A26" s="100"/>
+      <c r="B26" s="118"/>
+      <c r="C26" s="119"/>
+      <c r="D26" s="119"/>
+      <c r="E26" s="119"/>
+      <c r="F26" s="120"/>
+      <c r="G26" s="120"/>
+      <c r="H26" s="120"/>
+      <c r="I26" s="120"/>
+      <c r="J26" s="120"/>
+      <c r="K26" s="120"/>
+      <c r="L26" s="120"/>
+      <c r="M26" s="120"/>
+      <c r="N26" s="120"/>
+      <c r="O26" s="120"/>
+      <c r="P26" s="120"/>
+      <c r="Q26" s="120"/>
+      <c r="R26" s="120"/>
+      <c r="S26" s="120"/>
+      <c r="T26" s="120"/>
+      <c r="U26" s="120"/>
+      <c r="V26" s="120"/>
+      <c r="W26" s="120"/>
+      <c r="X26" s="120"/>
+      <c r="Y26" s="120"/>
+      <c r="Z26" s="120"/>
+      <c r="AA26" s="120"/>
+      <c r="AB26" s="120"/>
+      <c r="AC26" s="120"/>
+      <c r="AD26" s="145"/>
+      <c r="AE26" s="120"/>
+      <c r="AF26" s="120"/>
+      <c r="AG26" s="120"/>
+      <c r="AH26" s="120"/>
+      <c r="AI26" s="120"/>
+      <c r="AJ26" s="120"/>
+      <c r="AK26" s="120"/>
+      <c r="AL26" s="120"/>
+      <c r="AM26" s="120"/>
+      <c r="AN26" s="150"/>
+      <c r="AO26" s="112"/>
+      <c r="AP26" s="112"/>
+      <c r="AQ26" s="112"/>
     </row>
     <row r="27" ht="23.55" spans="1:43">
-      <c r="A27" s="101"/>
-      <c r="B27" s="119"/>
-      <c r="C27" s="120"/>
-      <c r="D27" s="120"/>
-      <c r="E27" s="120"/>
-      <c r="F27" s="121"/>
-      <c r="G27" s="121"/>
-      <c r="H27" s="121"/>
-      <c r="I27" s="121"/>
-      <c r="J27" s="121"/>
-      <c r="K27" s="121"/>
-      <c r="L27" s="121"/>
-      <c r="M27" s="121"/>
-      <c r="N27" s="121"/>
-      <c r="O27" s="121"/>
-      <c r="P27" s="121"/>
-      <c r="Q27" s="121"/>
-      <c r="R27" s="121"/>
-      <c r="S27" s="121"/>
-      <c r="T27" s="121"/>
-      <c r="U27" s="121"/>
-      <c r="V27" s="121"/>
-      <c r="W27" s="121"/>
-      <c r="X27" s="121"/>
-      <c r="Y27" s="121"/>
-      <c r="Z27" s="121"/>
-      <c r="AA27" s="121"/>
-      <c r="AB27" s="121"/>
-      <c r="AC27" s="121"/>
-      <c r="AD27" s="146"/>
-      <c r="AE27" s="121"/>
-      <c r="AF27" s="121"/>
-      <c r="AG27" s="121"/>
-      <c r="AH27" s="121"/>
-      <c r="AI27" s="121"/>
-      <c r="AJ27" s="121"/>
-      <c r="AK27" s="121"/>
-      <c r="AL27" s="121"/>
-      <c r="AM27" s="121"/>
-      <c r="AN27" s="151"/>
-      <c r="AO27" s="113"/>
-      <c r="AP27" s="113"/>
-      <c r="AQ27" s="113"/>
+      <c r="A27" s="100"/>
+      <c r="B27" s="118"/>
+      <c r="C27" s="119"/>
+      <c r="D27" s="119"/>
+      <c r="E27" s="119"/>
+      <c r="F27" s="120"/>
+      <c r="G27" s="120"/>
+      <c r="H27" s="120"/>
+      <c r="I27" s="120"/>
+      <c r="J27" s="120"/>
+      <c r="K27" s="120"/>
+      <c r="L27" s="120"/>
+      <c r="M27" s="120"/>
+      <c r="N27" s="120"/>
+      <c r="O27" s="120"/>
+      <c r="P27" s="120"/>
+      <c r="Q27" s="120"/>
+      <c r="R27" s="120"/>
+      <c r="S27" s="120"/>
+      <c r="T27" s="120"/>
+      <c r="U27" s="120"/>
+      <c r="V27" s="120"/>
+      <c r="W27" s="120"/>
+      <c r="X27" s="120"/>
+      <c r="Y27" s="120"/>
+      <c r="Z27" s="120"/>
+      <c r="AA27" s="120"/>
+      <c r="AB27" s="120"/>
+      <c r="AC27" s="120"/>
+      <c r="AD27" s="145"/>
+      <c r="AE27" s="120"/>
+      <c r="AF27" s="120"/>
+      <c r="AG27" s="120"/>
+      <c r="AH27" s="120"/>
+      <c r="AI27" s="120"/>
+      <c r="AJ27" s="120"/>
+      <c r="AK27" s="120"/>
+      <c r="AL27" s="120"/>
+      <c r="AM27" s="120"/>
+      <c r="AN27" s="150"/>
+      <c r="AO27" s="112"/>
+      <c r="AP27" s="112"/>
+      <c r="AQ27" s="112"/>
     </row>
     <row r="28" ht="23.55" spans="1:43">
-      <c r="A28" s="101"/>
-      <c r="B28" s="119"/>
-      <c r="C28" s="120"/>
-      <c r="D28" s="120"/>
-      <c r="E28" s="120"/>
-      <c r="F28" s="121"/>
-      <c r="G28" s="121"/>
-      <c r="H28" s="121"/>
-      <c r="I28" s="121"/>
-      <c r="J28" s="121"/>
-      <c r="K28" s="121"/>
-      <c r="L28" s="121"/>
-      <c r="M28" s="121"/>
-      <c r="N28" s="121"/>
-      <c r="O28" s="121"/>
-      <c r="P28" s="121"/>
-      <c r="Q28" s="121"/>
-      <c r="R28" s="121"/>
-      <c r="S28" s="121"/>
-      <c r="T28" s="121"/>
-      <c r="U28" s="121"/>
-      <c r="V28" s="121"/>
-      <c r="W28" s="121"/>
-      <c r="X28" s="121"/>
-      <c r="Y28" s="121"/>
-      <c r="Z28" s="121"/>
-      <c r="AA28" s="121"/>
-      <c r="AB28" s="121"/>
-      <c r="AC28" s="121"/>
-      <c r="AD28" s="146"/>
-      <c r="AE28" s="121"/>
-      <c r="AF28" s="121"/>
-      <c r="AG28" s="121"/>
-      <c r="AH28" s="121"/>
-      <c r="AI28" s="121"/>
-      <c r="AJ28" s="121"/>
-      <c r="AK28" s="121"/>
-      <c r="AL28" s="121"/>
-      <c r="AM28" s="121"/>
-      <c r="AN28" s="151"/>
-      <c r="AO28" s="113"/>
-      <c r="AP28" s="113"/>
-      <c r="AQ28" s="113"/>
+      <c r="A28" s="100"/>
+      <c r="B28" s="118"/>
+      <c r="C28" s="119"/>
+      <c r="D28" s="119"/>
+      <c r="E28" s="119"/>
+      <c r="F28" s="120"/>
+      <c r="G28" s="120"/>
+      <c r="H28" s="120"/>
+      <c r="I28" s="120"/>
+      <c r="J28" s="120"/>
+      <c r="K28" s="120"/>
+      <c r="L28" s="120"/>
+      <c r="M28" s="120"/>
+      <c r="N28" s="120"/>
+      <c r="O28" s="120"/>
+      <c r="P28" s="120"/>
+      <c r="Q28" s="120"/>
+      <c r="R28" s="120"/>
+      <c r="S28" s="120"/>
+      <c r="T28" s="120"/>
+      <c r="U28" s="120"/>
+      <c r="V28" s="120"/>
+      <c r="W28" s="120"/>
+      <c r="X28" s="120"/>
+      <c r="Y28" s="120"/>
+      <c r="Z28" s="120"/>
+      <c r="AA28" s="120"/>
+      <c r="AB28" s="120"/>
+      <c r="AC28" s="120"/>
+      <c r="AD28" s="145"/>
+      <c r="AE28" s="120"/>
+      <c r="AF28" s="120"/>
+      <c r="AG28" s="120"/>
+      <c r="AH28" s="120"/>
+      <c r="AI28" s="120"/>
+      <c r="AJ28" s="120"/>
+      <c r="AK28" s="120"/>
+      <c r="AL28" s="120"/>
+      <c r="AM28" s="120"/>
+      <c r="AN28" s="150"/>
+      <c r="AO28" s="112"/>
+      <c r="AP28" s="112"/>
+      <c r="AQ28" s="112"/>
     </row>
     <row r="29" ht="23.55" spans="1:43">
-      <c r="A29" s="101"/>
-      <c r="B29" s="119"/>
-      <c r="C29" s="120"/>
-      <c r="D29" s="120"/>
-      <c r="E29" s="120"/>
-      <c r="F29" s="121"/>
-      <c r="G29" s="121"/>
-      <c r="H29" s="121"/>
-      <c r="I29" s="121"/>
-      <c r="J29" s="121"/>
-      <c r="K29" s="121"/>
-      <c r="L29" s="121"/>
-      <c r="M29" s="121"/>
-      <c r="N29" s="121"/>
-      <c r="O29" s="121"/>
-      <c r="P29" s="121"/>
-      <c r="Q29" s="121"/>
-      <c r="R29" s="121"/>
-      <c r="S29" s="121"/>
-      <c r="T29" s="121"/>
-      <c r="U29" s="121"/>
-      <c r="V29" s="121"/>
-      <c r="W29" s="121"/>
-      <c r="X29" s="121"/>
-      <c r="Y29" s="121"/>
-      <c r="Z29" s="121"/>
-      <c r="AA29" s="121"/>
-      <c r="AB29" s="121"/>
-      <c r="AC29" s="121"/>
-      <c r="AD29" s="146"/>
-      <c r="AE29" s="121"/>
-      <c r="AF29" s="121"/>
-      <c r="AG29" s="121"/>
-      <c r="AH29" s="121"/>
-      <c r="AI29" s="121"/>
-      <c r="AJ29" s="121"/>
-      <c r="AK29" s="121"/>
-      <c r="AL29" s="121"/>
-      <c r="AM29" s="121"/>
-      <c r="AN29" s="151"/>
-      <c r="AO29" s="113"/>
-      <c r="AP29" s="113"/>
-      <c r="AQ29" s="113"/>
+      <c r="A29" s="100"/>
+      <c r="B29" s="118"/>
+      <c r="C29" s="119"/>
+      <c r="D29" s="119"/>
+      <c r="E29" s="119"/>
+      <c r="F29" s="120"/>
+      <c r="G29" s="120"/>
+      <c r="H29" s="120"/>
+      <c r="I29" s="120"/>
+      <c r="J29" s="120"/>
+      <c r="K29" s="120"/>
+      <c r="L29" s="120"/>
+      <c r="M29" s="120"/>
+      <c r="N29" s="120"/>
+      <c r="O29" s="120"/>
+      <c r="P29" s="120"/>
+      <c r="Q29" s="120"/>
+      <c r="R29" s="120"/>
+      <c r="S29" s="120"/>
+      <c r="T29" s="120"/>
+      <c r="U29" s="120"/>
+      <c r="V29" s="120"/>
+      <c r="W29" s="120"/>
+      <c r="X29" s="120"/>
+      <c r="Y29" s="120"/>
+      <c r="Z29" s="120"/>
+      <c r="AA29" s="120"/>
+      <c r="AB29" s="120"/>
+      <c r="AC29" s="120"/>
+      <c r="AD29" s="145"/>
+      <c r="AE29" s="120"/>
+      <c r="AF29" s="120"/>
+      <c r="AG29" s="120"/>
+      <c r="AH29" s="120"/>
+      <c r="AI29" s="120"/>
+      <c r="AJ29" s="120"/>
+      <c r="AK29" s="120"/>
+      <c r="AL29" s="120"/>
+      <c r="AM29" s="120"/>
+      <c r="AN29" s="150"/>
+      <c r="AO29" s="112"/>
+      <c r="AP29" s="112"/>
+      <c r="AQ29" s="112"/>
     </row>
     <row r="30" ht="23.55" spans="1:43">
-      <c r="A30" s="101"/>
-      <c r="B30" s="119"/>
-      <c r="C30" s="120"/>
-      <c r="D30" s="120"/>
-      <c r="E30" s="120"/>
-      <c r="F30" s="121"/>
-      <c r="G30" s="121"/>
-      <c r="H30" s="121"/>
-      <c r="I30" s="121"/>
-      <c r="J30" s="121"/>
-      <c r="K30" s="121"/>
-      <c r="L30" s="121"/>
-      <c r="M30" s="121"/>
-      <c r="N30" s="121"/>
-      <c r="O30" s="121"/>
-      <c r="P30" s="121"/>
-      <c r="Q30" s="121"/>
-      <c r="R30" s="121"/>
-      <c r="S30" s="121"/>
-      <c r="T30" s="121"/>
-      <c r="U30" s="121"/>
-      <c r="V30" s="121"/>
-      <c r="W30" s="121"/>
-      <c r="X30" s="121"/>
-      <c r="Y30" s="121"/>
-      <c r="Z30" s="121"/>
-      <c r="AA30" s="121"/>
-      <c r="AB30" s="121"/>
-      <c r="AC30" s="121"/>
-      <c r="AD30" s="146"/>
-      <c r="AE30" s="121"/>
-      <c r="AF30" s="121"/>
-      <c r="AG30" s="121"/>
-      <c r="AH30" s="121"/>
-      <c r="AI30" s="121"/>
-      <c r="AJ30" s="121"/>
-      <c r="AK30" s="121"/>
-      <c r="AL30" s="121"/>
-      <c r="AM30" s="121"/>
-      <c r="AN30" s="151"/>
-      <c r="AO30" s="113"/>
-      <c r="AP30" s="113"/>
-      <c r="AQ30" s="113"/>
+      <c r="A30" s="100"/>
+      <c r="B30" s="118"/>
+      <c r="C30" s="119"/>
+      <c r="D30" s="119"/>
+      <c r="E30" s="119"/>
+      <c r="F30" s="120"/>
+      <c r="G30" s="120"/>
+      <c r="H30" s="120"/>
+      <c r="I30" s="120"/>
+      <c r="J30" s="120"/>
+      <c r="K30" s="120"/>
+      <c r="L30" s="120"/>
+      <c r="M30" s="120"/>
+      <c r="N30" s="120"/>
+      <c r="O30" s="120"/>
+      <c r="P30" s="120"/>
+      <c r="Q30" s="120"/>
+      <c r="R30" s="120"/>
+      <c r="S30" s="120"/>
+      <c r="T30" s="120"/>
+      <c r="U30" s="120"/>
+      <c r="V30" s="120"/>
+      <c r="W30" s="120"/>
+      <c r="X30" s="120"/>
+      <c r="Y30" s="120"/>
+      <c r="Z30" s="120"/>
+      <c r="AA30" s="120"/>
+      <c r="AB30" s="120"/>
+      <c r="AC30" s="120"/>
+      <c r="AD30" s="145"/>
+      <c r="AE30" s="120"/>
+      <c r="AF30" s="120"/>
+      <c r="AG30" s="120"/>
+      <c r="AH30" s="120"/>
+      <c r="AI30" s="120"/>
+      <c r="AJ30" s="120"/>
+      <c r="AK30" s="120"/>
+      <c r="AL30" s="120"/>
+      <c r="AM30" s="120"/>
+      <c r="AN30" s="150"/>
+      <c r="AO30" s="112"/>
+      <c r="AP30" s="112"/>
+      <c r="AQ30" s="112"/>
     </row>
     <row r="31" ht="23.55" spans="1:43">
-      <c r="A31" s="101"/>
-      <c r="B31" s="119"/>
-      <c r="C31" s="120"/>
-      <c r="D31" s="120"/>
-      <c r="E31" s="120"/>
-      <c r="F31" s="121"/>
-      <c r="G31" s="121"/>
-      <c r="H31" s="121"/>
-      <c r="I31" s="121"/>
-      <c r="J31" s="121"/>
-      <c r="K31" s="121"/>
-      <c r="L31" s="121"/>
-      <c r="M31" s="121"/>
-      <c r="N31" s="121"/>
-      <c r="O31" s="121"/>
-      <c r="P31" s="121"/>
-      <c r="Q31" s="121"/>
-      <c r="R31" s="121"/>
-      <c r="S31" s="121"/>
-      <c r="T31" s="121"/>
-      <c r="U31" s="121"/>
-      <c r="V31" s="121"/>
-      <c r="W31" s="121"/>
-      <c r="X31" s="121"/>
-      <c r="Y31" s="121"/>
-      <c r="Z31" s="121"/>
-      <c r="AA31" s="121"/>
-      <c r="AB31" s="121"/>
-      <c r="AC31" s="121"/>
-      <c r="AD31" s="146"/>
-      <c r="AE31" s="121"/>
-      <c r="AF31" s="121"/>
-      <c r="AG31" s="121"/>
-      <c r="AH31" s="121"/>
-      <c r="AI31" s="121"/>
-      <c r="AJ31" s="121"/>
-      <c r="AK31" s="121"/>
-      <c r="AL31" s="121"/>
-      <c r="AM31" s="121"/>
-      <c r="AN31" s="151"/>
-      <c r="AO31" s="113"/>
-      <c r="AP31" s="113"/>
-      <c r="AQ31" s="113"/>
+      <c r="A31" s="100"/>
+      <c r="B31" s="118"/>
+      <c r="C31" s="119"/>
+      <c r="D31" s="119"/>
+      <c r="E31" s="119"/>
+      <c r="F31" s="120"/>
+      <c r="G31" s="120"/>
+      <c r="H31" s="120"/>
+      <c r="I31" s="120"/>
+      <c r="J31" s="120"/>
+      <c r="K31" s="120"/>
+      <c r="L31" s="120"/>
+      <c r="M31" s="120"/>
+      <c r="N31" s="120"/>
+      <c r="O31" s="120"/>
+      <c r="P31" s="120"/>
+      <c r="Q31" s="120"/>
+      <c r="R31" s="120"/>
+      <c r="S31" s="120"/>
+      <c r="T31" s="120"/>
+      <c r="U31" s="120"/>
+      <c r="V31" s="120"/>
+      <c r="W31" s="120"/>
+      <c r="X31" s="120"/>
+      <c r="Y31" s="120"/>
+      <c r="Z31" s="120"/>
+      <c r="AA31" s="120"/>
+      <c r="AB31" s="120"/>
+      <c r="AC31" s="120"/>
+      <c r="AD31" s="145"/>
+      <c r="AE31" s="120"/>
+      <c r="AF31" s="120"/>
+      <c r="AG31" s="120"/>
+      <c r="AH31" s="120"/>
+      <c r="AI31" s="120"/>
+      <c r="AJ31" s="120"/>
+      <c r="AK31" s="120"/>
+      <c r="AL31" s="120"/>
+      <c r="AM31" s="120"/>
+      <c r="AN31" s="150"/>
+      <c r="AO31" s="112"/>
+      <c r="AP31" s="112"/>
+      <c r="AQ31" s="112"/>
     </row>
     <row r="32" ht="23.55" spans="1:43">
-      <c r="A32" s="101"/>
-      <c r="B32" s="119"/>
-      <c r="C32" s="120"/>
-      <c r="D32" s="120"/>
-      <c r="E32" s="120"/>
-      <c r="F32" s="121"/>
-      <c r="G32" s="121"/>
-      <c r="H32" s="121"/>
-      <c r="I32" s="121"/>
-      <c r="J32" s="121"/>
-      <c r="K32" s="121"/>
-      <c r="L32" s="121"/>
-      <c r="M32" s="121"/>
-      <c r="N32" s="121"/>
-      <c r="O32" s="121"/>
-      <c r="P32" s="121"/>
-      <c r="Q32" s="121"/>
-      <c r="R32" s="121"/>
-      <c r="S32" s="121"/>
-      <c r="T32" s="121"/>
-      <c r="U32" s="121"/>
-      <c r="V32" s="121"/>
-      <c r="W32" s="121"/>
-      <c r="X32" s="121"/>
-      <c r="Y32" s="121"/>
-      <c r="Z32" s="121"/>
-      <c r="AA32" s="121"/>
-      <c r="AB32" s="121"/>
-      <c r="AC32" s="121"/>
-      <c r="AD32" s="146"/>
-      <c r="AE32" s="121"/>
-      <c r="AF32" s="121"/>
-      <c r="AG32" s="121"/>
-      <c r="AH32" s="121"/>
-      <c r="AI32" s="121"/>
-      <c r="AJ32" s="121"/>
-      <c r="AK32" s="121"/>
-      <c r="AL32" s="121"/>
-      <c r="AM32" s="121"/>
-      <c r="AN32" s="151"/>
-      <c r="AO32" s="113"/>
-      <c r="AP32" s="113"/>
-      <c r="AQ32" s="113"/>
+      <c r="A32" s="100"/>
+      <c r="B32" s="118"/>
+      <c r="C32" s="119"/>
+      <c r="D32" s="119"/>
+      <c r="E32" s="119"/>
+      <c r="F32" s="120"/>
+      <c r="G32" s="120"/>
+      <c r="H32" s="120"/>
+      <c r="I32" s="120"/>
+      <c r="J32" s="120"/>
+      <c r="K32" s="120"/>
+      <c r="L32" s="120"/>
+      <c r="M32" s="120"/>
+      <c r="N32" s="120"/>
+      <c r="O32" s="120"/>
+      <c r="P32" s="120"/>
+      <c r="Q32" s="120"/>
+      <c r="R32" s="120"/>
+      <c r="S32" s="120"/>
+      <c r="T32" s="120"/>
+      <c r="U32" s="120"/>
+      <c r="V32" s="120"/>
+      <c r="W32" s="120"/>
+      <c r="X32" s="120"/>
+      <c r="Y32" s="120"/>
+      <c r="Z32" s="120"/>
+      <c r="AA32" s="120"/>
+      <c r="AB32" s="120"/>
+      <c r="AC32" s="120"/>
+      <c r="AD32" s="145"/>
+      <c r="AE32" s="120"/>
+      <c r="AF32" s="120"/>
+      <c r="AG32" s="120"/>
+      <c r="AH32" s="120"/>
+      <c r="AI32" s="120"/>
+      <c r="AJ32" s="120"/>
+      <c r="AK32" s="120"/>
+      <c r="AL32" s="120"/>
+      <c r="AM32" s="120"/>
+      <c r="AN32" s="150"/>
+      <c r="AO32" s="112"/>
+      <c r="AP32" s="112"/>
+      <c r="AQ32" s="112"/>
     </row>
     <row r="33" ht="23.55" spans="1:43">
-      <c r="A33" s="101"/>
-      <c r="B33" s="119"/>
-      <c r="C33" s="120"/>
-      <c r="D33" s="120"/>
-      <c r="E33" s="120"/>
-      <c r="F33" s="121"/>
-      <c r="G33" s="121"/>
-      <c r="H33" s="121"/>
-      <c r="I33" s="121"/>
-      <c r="J33" s="121"/>
-      <c r="K33" s="121"/>
-      <c r="L33" s="121"/>
-      <c r="M33" s="121"/>
-      <c r="N33" s="121"/>
-      <c r="O33" s="121"/>
-      <c r="P33" s="121"/>
-      <c r="Q33" s="121"/>
-      <c r="R33" s="121"/>
-      <c r="S33" s="121"/>
-      <c r="T33" s="121"/>
-      <c r="U33" s="121"/>
-      <c r="V33" s="121"/>
-      <c r="W33" s="121"/>
-      <c r="X33" s="121"/>
-      <c r="Y33" s="121"/>
-      <c r="Z33" s="121"/>
-      <c r="AA33" s="121"/>
-      <c r="AB33" s="121"/>
-      <c r="AC33" s="121"/>
-      <c r="AD33" s="146"/>
-      <c r="AE33" s="121"/>
-      <c r="AF33" s="121"/>
-      <c r="AG33" s="121"/>
-      <c r="AH33" s="121"/>
-      <c r="AI33" s="121"/>
-      <c r="AJ33" s="121"/>
-      <c r="AK33" s="121"/>
-      <c r="AL33" s="121"/>
-      <c r="AM33" s="121"/>
-      <c r="AN33" s="151"/>
-      <c r="AO33" s="113"/>
-      <c r="AP33" s="113"/>
-      <c r="AQ33" s="113"/>
+      <c r="A33" s="100"/>
+      <c r="B33" s="118"/>
+      <c r="C33" s="119"/>
+      <c r="D33" s="119"/>
+      <c r="E33" s="119"/>
+      <c r="F33" s="120"/>
+      <c r="G33" s="120"/>
+      <c r="H33" s="120"/>
+      <c r="I33" s="120"/>
+      <c r="J33" s="120"/>
+      <c r="K33" s="120"/>
+      <c r="L33" s="120"/>
+      <c r="M33" s="120"/>
+      <c r="N33" s="120"/>
+      <c r="O33" s="120"/>
+      <c r="P33" s="120"/>
+      <c r="Q33" s="120"/>
+      <c r="R33" s="120"/>
+      <c r="S33" s="120"/>
+      <c r="T33" s="120"/>
+      <c r="U33" s="120"/>
+      <c r="V33" s="120"/>
+      <c r="W33" s="120"/>
+      <c r="X33" s="120"/>
+      <c r="Y33" s="120"/>
+      <c r="Z33" s="120"/>
+      <c r="AA33" s="120"/>
+      <c r="AB33" s="120"/>
+      <c r="AC33" s="120"/>
+      <c r="AD33" s="145"/>
+      <c r="AE33" s="120"/>
+      <c r="AF33" s="120"/>
+      <c r="AG33" s="120"/>
+      <c r="AH33" s="120"/>
+      <c r="AI33" s="120"/>
+      <c r="AJ33" s="120"/>
+      <c r="AK33" s="120"/>
+      <c r="AL33" s="120"/>
+      <c r="AM33" s="120"/>
+      <c r="AN33" s="150"/>
+      <c r="AO33" s="112"/>
+      <c r="AP33" s="112"/>
+      <c r="AQ33" s="112"/>
     </row>
     <row r="34" ht="23.55" spans="1:43">
-      <c r="A34" s="101"/>
-      <c r="B34" s="119"/>
-      <c r="C34" s="120"/>
-      <c r="D34" s="120"/>
-      <c r="E34" s="120"/>
-      <c r="F34" s="121"/>
-      <c r="G34" s="121"/>
-      <c r="H34" s="121"/>
-      <c r="I34" s="121"/>
-      <c r="J34" s="121"/>
-      <c r="K34" s="121"/>
-      <c r="L34" s="121"/>
-      <c r="M34" s="121"/>
-      <c r="N34" s="121"/>
-      <c r="O34" s="121"/>
-      <c r="P34" s="121"/>
-      <c r="Q34" s="121"/>
-      <c r="R34" s="121"/>
-      <c r="S34" s="121"/>
-      <c r="T34" s="121"/>
-      <c r="U34" s="121"/>
-      <c r="V34" s="121"/>
-      <c r="W34" s="121"/>
-      <c r="X34" s="121"/>
-      <c r="Y34" s="121"/>
-      <c r="Z34" s="121"/>
-      <c r="AA34" s="121"/>
-      <c r="AB34" s="121"/>
-      <c r="AC34" s="121"/>
-      <c r="AD34" s="146"/>
-      <c r="AE34" s="121"/>
-      <c r="AF34" s="121"/>
-      <c r="AG34" s="121"/>
-      <c r="AH34" s="121"/>
-      <c r="AI34" s="121"/>
-      <c r="AJ34" s="121"/>
-      <c r="AK34" s="121"/>
-      <c r="AL34" s="121"/>
-      <c r="AM34" s="121"/>
-      <c r="AN34" s="151"/>
-      <c r="AO34" s="113"/>
-      <c r="AP34" s="113"/>
-      <c r="AQ34" s="113"/>
+      <c r="A34" s="100"/>
+      <c r="B34" s="118"/>
+      <c r="C34" s="119"/>
+      <c r="D34" s="119"/>
+      <c r="E34" s="119"/>
+      <c r="F34" s="120"/>
+      <c r="G34" s="120"/>
+      <c r="H34" s="120"/>
+      <c r="I34" s="120"/>
+      <c r="J34" s="120"/>
+      <c r="K34" s="120"/>
+      <c r="L34" s="120"/>
+      <c r="M34" s="120"/>
+      <c r="N34" s="120"/>
+      <c r="O34" s="120"/>
+      <c r="P34" s="120"/>
+      <c r="Q34" s="120"/>
+      <c r="R34" s="120"/>
+      <c r="S34" s="120"/>
+      <c r="T34" s="120"/>
+      <c r="U34" s="120"/>
+      <c r="V34" s="120"/>
+      <c r="W34" s="120"/>
+      <c r="X34" s="120"/>
+      <c r="Y34" s="120"/>
+      <c r="Z34" s="120"/>
+      <c r="AA34" s="120"/>
+      <c r="AB34" s="120"/>
+      <c r="AC34" s="120"/>
+      <c r="AD34" s="145"/>
+      <c r="AE34" s="120"/>
+      <c r="AF34" s="120"/>
+      <c r="AG34" s="120"/>
+      <c r="AH34" s="120"/>
+      <c r="AI34" s="120"/>
+      <c r="AJ34" s="120"/>
+      <c r="AK34" s="120"/>
+      <c r="AL34" s="120"/>
+      <c r="AM34" s="120"/>
+      <c r="AN34" s="150"/>
+      <c r="AO34" s="112"/>
+      <c r="AP34" s="112"/>
+      <c r="AQ34" s="112"/>
     </row>
     <row r="35" ht="23.55" spans="1:43">
-      <c r="A35" s="101"/>
-      <c r="B35" s="119"/>
-      <c r="C35" s="120"/>
-      <c r="D35" s="120"/>
-      <c r="E35" s="120"/>
-      <c r="F35" s="121"/>
-      <c r="G35" s="121"/>
-      <c r="H35" s="121"/>
-      <c r="I35" s="121"/>
-      <c r="J35" s="121"/>
-      <c r="K35" s="121"/>
-      <c r="L35" s="121"/>
-      <c r="M35" s="121"/>
-      <c r="N35" s="121"/>
-      <c r="O35" s="121"/>
-      <c r="P35" s="121"/>
-      <c r="Q35" s="121"/>
-      <c r="R35" s="121"/>
-      <c r="S35" s="121"/>
-      <c r="T35" s="121"/>
-      <c r="U35" s="121"/>
-      <c r="V35" s="121"/>
-      <c r="W35" s="121"/>
-      <c r="X35" s="121"/>
-      <c r="Y35" s="121"/>
-      <c r="Z35" s="121"/>
-      <c r="AA35" s="121"/>
-      <c r="AB35" s="121"/>
-      <c r="AC35" s="121"/>
-      <c r="AD35" s="146"/>
-      <c r="AE35" s="121"/>
-      <c r="AF35" s="121"/>
-      <c r="AG35" s="121"/>
-      <c r="AH35" s="121"/>
-      <c r="AI35" s="121"/>
-      <c r="AJ35" s="121"/>
-      <c r="AK35" s="121"/>
-      <c r="AL35" s="121"/>
-      <c r="AM35" s="121"/>
-      <c r="AN35" s="151"/>
-      <c r="AO35" s="113"/>
-      <c r="AP35" s="113"/>
-      <c r="AQ35" s="113"/>
+      <c r="A35" s="100"/>
+      <c r="B35" s="118"/>
+      <c r="C35" s="119"/>
+      <c r="D35" s="119"/>
+      <c r="E35" s="119"/>
+      <c r="F35" s="120"/>
+      <c r="G35" s="120"/>
+      <c r="H35" s="120"/>
+      <c r="I35" s="120"/>
+      <c r="J35" s="120"/>
+      <c r="K35" s="120"/>
+      <c r="L35" s="120"/>
+      <c r="M35" s="120"/>
+      <c r="N35" s="120"/>
+      <c r="O35" s="120"/>
+      <c r="P35" s="120"/>
+      <c r="Q35" s="120"/>
+      <c r="R35" s="120"/>
+      <c r="S35" s="120"/>
+      <c r="T35" s="120"/>
+      <c r="U35" s="120"/>
+      <c r="V35" s="120"/>
+      <c r="W35" s="120"/>
+      <c r="X35" s="120"/>
+      <c r="Y35" s="120"/>
+      <c r="Z35" s="120"/>
+      <c r="AA35" s="120"/>
+      <c r="AB35" s="120"/>
+      <c r="AC35" s="120"/>
+      <c r="AD35" s="145"/>
+      <c r="AE35" s="120"/>
+      <c r="AF35" s="120"/>
+      <c r="AG35" s="120"/>
+      <c r="AH35" s="120"/>
+      <c r="AI35" s="120"/>
+      <c r="AJ35" s="120"/>
+      <c r="AK35" s="120"/>
+      <c r="AL35" s="120"/>
+      <c r="AM35" s="120"/>
+      <c r="AN35" s="150"/>
+      <c r="AO35" s="112"/>
+      <c r="AP35" s="112"/>
+      <c r="AQ35" s="112"/>
     </row>
     <row r="36" ht="23.55" spans="1:43">
-      <c r="A36" s="101"/>
-      <c r="B36" s="119"/>
-      <c r="C36" s="120"/>
-      <c r="D36" s="120"/>
-      <c r="E36" s="120"/>
-      <c r="F36" s="121"/>
-      <c r="G36" s="121"/>
-      <c r="H36" s="121"/>
-      <c r="I36" s="121"/>
-      <c r="J36" s="121"/>
-      <c r="K36" s="121"/>
-      <c r="L36" s="121"/>
-      <c r="M36" s="121"/>
-      <c r="N36" s="121"/>
-      <c r="O36" s="121"/>
-      <c r="P36" s="121"/>
-      <c r="Q36" s="121"/>
-      <c r="R36" s="121"/>
-      <c r="S36" s="121"/>
-      <c r="T36" s="121"/>
-      <c r="U36" s="121"/>
-      <c r="V36" s="121"/>
-      <c r="W36" s="121"/>
-      <c r="X36" s="121"/>
-      <c r="Y36" s="121"/>
-      <c r="Z36" s="121"/>
-      <c r="AA36" s="121"/>
-      <c r="AB36" s="121"/>
-      <c r="AC36" s="121"/>
-      <c r="AD36" s="146"/>
-      <c r="AE36" s="121"/>
-      <c r="AF36" s="121"/>
-      <c r="AG36" s="121"/>
-      <c r="AH36" s="121"/>
-      <c r="AI36" s="121"/>
-      <c r="AJ36" s="121"/>
-      <c r="AK36" s="121"/>
-      <c r="AL36" s="121"/>
-      <c r="AM36" s="121"/>
-      <c r="AN36" s="151"/>
-      <c r="AO36" s="113"/>
-      <c r="AP36" s="113"/>
-      <c r="AQ36" s="113"/>
+      <c r="A36" s="100"/>
+      <c r="B36" s="118"/>
+      <c r="C36" s="119"/>
+      <c r="D36" s="119"/>
+      <c r="E36" s="119"/>
+      <c r="F36" s="120"/>
+      <c r="G36" s="120"/>
+      <c r="H36" s="120"/>
+      <c r="I36" s="120"/>
+      <c r="J36" s="120"/>
+      <c r="K36" s="120"/>
+      <c r="L36" s="120"/>
+      <c r="M36" s="120"/>
+      <c r="N36" s="120"/>
+      <c r="O36" s="120"/>
+      <c r="P36" s="120"/>
+      <c r="Q36" s="120"/>
+      <c r="R36" s="120"/>
+      <c r="S36" s="120"/>
+      <c r="T36" s="120"/>
+      <c r="U36" s="120"/>
+      <c r="V36" s="120"/>
+      <c r="W36" s="120"/>
+      <c r="X36" s="120"/>
+      <c r="Y36" s="120"/>
+      <c r="Z36" s="120"/>
+      <c r="AA36" s="120"/>
+      <c r="AB36" s="120"/>
+      <c r="AC36" s="120"/>
+      <c r="AD36" s="145"/>
+      <c r="AE36" s="120"/>
+      <c r="AF36" s="120"/>
+      <c r="AG36" s="120"/>
+      <c r="AH36" s="120"/>
+      <c r="AI36" s="120"/>
+      <c r="AJ36" s="120"/>
+      <c r="AK36" s="120"/>
+      <c r="AL36" s="120"/>
+      <c r="AM36" s="120"/>
+      <c r="AN36" s="150"/>
+      <c r="AO36" s="112"/>
+      <c r="AP36" s="112"/>
+      <c r="AQ36" s="112"/>
     </row>
     <row r="37" ht="23.55" spans="1:43">
-      <c r="A37" s="101"/>
-      <c r="B37" s="119"/>
-      <c r="C37" s="120"/>
-      <c r="D37" s="120"/>
-      <c r="E37" s="120"/>
-      <c r="F37" s="121"/>
-      <c r="G37" s="121"/>
-      <c r="H37" s="121"/>
-      <c r="I37" s="121"/>
-      <c r="J37" s="121"/>
-      <c r="K37" s="121"/>
-      <c r="L37" s="121"/>
-      <c r="M37" s="121"/>
-      <c r="N37" s="121"/>
-      <c r="O37" s="121"/>
-      <c r="P37" s="121"/>
-      <c r="Q37" s="121"/>
-      <c r="R37" s="121"/>
-      <c r="S37" s="121"/>
-      <c r="T37" s="121"/>
-      <c r="U37" s="121"/>
-      <c r="V37" s="121"/>
-      <c r="W37" s="121"/>
-      <c r="X37" s="121"/>
-      <c r="Y37" s="121"/>
-      <c r="Z37" s="121"/>
-      <c r="AA37" s="121"/>
-      <c r="AB37" s="121"/>
-      <c r="AC37" s="121"/>
-      <c r="AD37" s="146"/>
-      <c r="AE37" s="121"/>
-      <c r="AF37" s="121"/>
-      <c r="AG37" s="121"/>
-      <c r="AH37" s="121"/>
-      <c r="AI37" s="121"/>
-      <c r="AJ37" s="121"/>
-      <c r="AK37" s="121"/>
-      <c r="AL37" s="121"/>
-      <c r="AM37" s="121"/>
-      <c r="AN37" s="151"/>
-      <c r="AO37" s="113"/>
-      <c r="AP37" s="113"/>
-      <c r="AQ37" s="113"/>
+      <c r="A37" s="100"/>
+      <c r="B37" s="118"/>
+      <c r="C37" s="119"/>
+      <c r="D37" s="119"/>
+      <c r="E37" s="119"/>
+      <c r="F37" s="120"/>
+      <c r="G37" s="120"/>
+      <c r="H37" s="120"/>
+      <c r="I37" s="120"/>
+      <c r="J37" s="120"/>
+      <c r="K37" s="120"/>
+      <c r="L37" s="120"/>
+      <c r="M37" s="120"/>
+      <c r="N37" s="120"/>
+      <c r="O37" s="120"/>
+      <c r="P37" s="120"/>
+      <c r="Q37" s="120"/>
+      <c r="R37" s="120"/>
+      <c r="S37" s="120"/>
+      <c r="T37" s="120"/>
+      <c r="U37" s="120"/>
+      <c r="V37" s="120"/>
+      <c r="W37" s="120"/>
+      <c r="X37" s="120"/>
+      <c r="Y37" s="120"/>
+      <c r="Z37" s="120"/>
+      <c r="AA37" s="120"/>
+      <c r="AB37" s="120"/>
+      <c r="AC37" s="120"/>
+      <c r="AD37" s="145"/>
+      <c r="AE37" s="120"/>
+      <c r="AF37" s="120"/>
+      <c r="AG37" s="120"/>
+      <c r="AH37" s="120"/>
+      <c r="AI37" s="120"/>
+      <c r="AJ37" s="120"/>
+      <c r="AK37" s="120"/>
+      <c r="AL37" s="120"/>
+      <c r="AM37" s="120"/>
+      <c r="AN37" s="150"/>
+      <c r="AO37" s="112"/>
+      <c r="AP37" s="112"/>
+      <c r="AQ37" s="112"/>
     </row>
     <row r="38" ht="23.55" spans="1:43">
-      <c r="A38" s="101"/>
-      <c r="B38" s="119"/>
-      <c r="C38" s="120"/>
-      <c r="D38" s="120"/>
-      <c r="E38" s="120"/>
-      <c r="F38" s="121"/>
-      <c r="G38" s="121"/>
-      <c r="H38" s="121"/>
-      <c r="I38" s="121"/>
-      <c r="J38" s="121"/>
-      <c r="K38" s="121"/>
-      <c r="L38" s="121"/>
-      <c r="M38" s="121"/>
-      <c r="N38" s="121"/>
-      <c r="O38" s="121"/>
-      <c r="P38" s="121"/>
-      <c r="Q38" s="121"/>
-      <c r="R38" s="121"/>
-      <c r="S38" s="121"/>
-      <c r="T38" s="121"/>
-      <c r="U38" s="121"/>
-      <c r="V38" s="121"/>
-      <c r="W38" s="121"/>
-      <c r="X38" s="121"/>
-      <c r="Y38" s="121"/>
-      <c r="Z38" s="121"/>
-      <c r="AA38" s="121"/>
-      <c r="AB38" s="121"/>
-      <c r="AC38" s="121"/>
-      <c r="AD38" s="146"/>
-      <c r="AE38" s="121"/>
-      <c r="AF38" s="121"/>
-      <c r="AG38" s="121"/>
-      <c r="AH38" s="121"/>
-      <c r="AI38" s="121"/>
-      <c r="AJ38" s="121"/>
-      <c r="AK38" s="121"/>
-      <c r="AL38" s="121"/>
-      <c r="AM38" s="121"/>
-      <c r="AN38" s="151"/>
-      <c r="AO38" s="113"/>
-      <c r="AP38" s="113"/>
-      <c r="AQ38" s="113"/>
+      <c r="A38" s="100"/>
+      <c r="B38" s="118"/>
+      <c r="C38" s="119"/>
+      <c r="D38" s="119"/>
+      <c r="E38" s="119"/>
+      <c r="F38" s="120"/>
+      <c r="G38" s="120"/>
+      <c r="H38" s="120"/>
+      <c r="I38" s="120"/>
+      <c r="J38" s="120"/>
+      <c r="K38" s="120"/>
+      <c r="L38" s="120"/>
+      <c r="M38" s="120"/>
+      <c r="N38" s="120"/>
+      <c r="O38" s="120"/>
+      <c r="P38" s="120"/>
+      <c r="Q38" s="120"/>
+      <c r="R38" s="120"/>
+      <c r="S38" s="120"/>
+      <c r="T38" s="120"/>
+      <c r="U38" s="120"/>
+      <c r="V38" s="120"/>
+      <c r="W38" s="120"/>
+      <c r="X38" s="120"/>
+      <c r="Y38" s="120"/>
+      <c r="Z38" s="120"/>
+      <c r="AA38" s="120"/>
+      <c r="AB38" s="120"/>
+      <c r="AC38" s="120"/>
+      <c r="AD38" s="145"/>
+      <c r="AE38" s="120"/>
+      <c r="AF38" s="120"/>
+      <c r="AG38" s="120"/>
+      <c r="AH38" s="120"/>
+      <c r="AI38" s="120"/>
+      <c r="AJ38" s="120"/>
+      <c r="AK38" s="120"/>
+      <c r="AL38" s="120"/>
+      <c r="AM38" s="120"/>
+      <c r="AN38" s="150"/>
+      <c r="AO38" s="112"/>
+      <c r="AP38" s="112"/>
+      <c r="AQ38" s="112"/>
     </row>
     <row r="39" ht="23.55" spans="1:43">
-      <c r="A39" s="101"/>
-      <c r="B39" s="119"/>
-      <c r="C39" s="120"/>
-      <c r="D39" s="120"/>
-      <c r="E39" s="120"/>
-      <c r="F39" s="121"/>
-      <c r="G39" s="121"/>
-      <c r="H39" s="121"/>
-      <c r="I39" s="121"/>
-      <c r="J39" s="121"/>
-      <c r="K39" s="121"/>
-      <c r="L39" s="121"/>
-      <c r="M39" s="121"/>
-      <c r="N39" s="121"/>
-      <c r="O39" s="121"/>
-      <c r="P39" s="121"/>
-      <c r="Q39" s="121"/>
-      <c r="R39" s="121"/>
-      <c r="S39" s="121"/>
-      <c r="T39" s="121"/>
-      <c r="U39" s="121"/>
-      <c r="V39" s="121"/>
-      <c r="W39" s="121"/>
-      <c r="X39" s="121"/>
-      <c r="Y39" s="121"/>
-      <c r="Z39" s="121"/>
-      <c r="AA39" s="121"/>
-      <c r="AB39" s="121"/>
-      <c r="AC39" s="121"/>
-      <c r="AD39" s="146"/>
-      <c r="AE39" s="121"/>
-      <c r="AF39" s="121"/>
-      <c r="AG39" s="121"/>
-      <c r="AH39" s="121"/>
-      <c r="AI39" s="121"/>
-      <c r="AJ39" s="121"/>
-      <c r="AK39" s="121"/>
-      <c r="AL39" s="121"/>
-      <c r="AM39" s="121"/>
-      <c r="AN39" s="151"/>
-      <c r="AO39" s="113"/>
-      <c r="AP39" s="113"/>
-      <c r="AQ39" s="113"/>
+      <c r="A39" s="100"/>
+      <c r="B39" s="118"/>
+      <c r="C39" s="119"/>
+      <c r="D39" s="119"/>
+      <c r="E39" s="119"/>
+      <c r="F39" s="120"/>
+      <c r="G39" s="120"/>
+      <c r="H39" s="120"/>
+      <c r="I39" s="120"/>
+      <c r="J39" s="120"/>
+      <c r="K39" s="120"/>
+      <c r="L39" s="120"/>
+      <c r="M39" s="120"/>
+      <c r="N39" s="120"/>
+      <c r="O39" s="120"/>
+      <c r="P39" s="120"/>
+      <c r="Q39" s="120"/>
+      <c r="R39" s="120"/>
+      <c r="S39" s="120"/>
+      <c r="T39" s="120"/>
+      <c r="U39" s="120"/>
+      <c r="V39" s="120"/>
+      <c r="W39" s="120"/>
+      <c r="X39" s="120"/>
+      <c r="Y39" s="120"/>
+      <c r="Z39" s="120"/>
+      <c r="AA39" s="120"/>
+      <c r="AB39" s="120"/>
+      <c r="AC39" s="120"/>
+      <c r="AD39" s="145"/>
+      <c r="AE39" s="120"/>
+      <c r="AF39" s="120"/>
+      <c r="AG39" s="120"/>
+      <c r="AH39" s="120"/>
+      <c r="AI39" s="120"/>
+      <c r="AJ39" s="120"/>
+      <c r="AK39" s="120"/>
+      <c r="AL39" s="120"/>
+      <c r="AM39" s="120"/>
+      <c r="AN39" s="150"/>
+      <c r="AO39" s="112"/>
+      <c r="AP39" s="112"/>
+      <c r="AQ39" s="112"/>
     </row>
     <row r="40" ht="23.55" spans="1:43">
-      <c r="A40" s="101"/>
-      <c r="B40" s="119"/>
-      <c r="C40" s="120"/>
-      <c r="D40" s="120"/>
-      <c r="E40" s="120"/>
-      <c r="F40" s="121"/>
-      <c r="G40" s="121"/>
-      <c r="H40" s="121"/>
-      <c r="I40" s="121"/>
-      <c r="J40" s="121"/>
-      <c r="K40" s="121"/>
-      <c r="L40" s="121"/>
-      <c r="M40" s="121"/>
-      <c r="N40" s="121"/>
-      <c r="O40" s="121"/>
-      <c r="P40" s="121"/>
-      <c r="Q40" s="121"/>
-      <c r="R40" s="121"/>
-      <c r="S40" s="121"/>
-      <c r="T40" s="121"/>
-      <c r="U40" s="121"/>
-      <c r="V40" s="121"/>
-      <c r="W40" s="121"/>
-      <c r="X40" s="121"/>
-      <c r="Y40" s="121"/>
-      <c r="Z40" s="121"/>
-      <c r="AA40" s="121"/>
-      <c r="AB40" s="121"/>
-      <c r="AC40" s="121"/>
-      <c r="AD40" s="146"/>
-      <c r="AE40" s="121"/>
-      <c r="AF40" s="121"/>
-      <c r="AG40" s="121"/>
-      <c r="AH40" s="121"/>
-      <c r="AI40" s="121"/>
-      <c r="AJ40" s="121"/>
-      <c r="AK40" s="121"/>
-      <c r="AL40" s="121"/>
-      <c r="AM40" s="121"/>
-      <c r="AN40" s="151"/>
-      <c r="AO40" s="113"/>
-      <c r="AP40" s="113"/>
-      <c r="AQ40" s="113"/>
+      <c r="A40" s="100"/>
+      <c r="B40" s="118"/>
+      <c r="C40" s="119"/>
+      <c r="D40" s="119"/>
+      <c r="E40" s="119"/>
+      <c r="F40" s="120"/>
+      <c r="G40" s="120"/>
+      <c r="H40" s="120"/>
+      <c r="I40" s="120"/>
+      <c r="J40" s="120"/>
+      <c r="K40" s="120"/>
+      <c r="L40" s="120"/>
+      <c r="M40" s="120"/>
+      <c r="N40" s="120"/>
+      <c r="O40" s="120"/>
+      <c r="P40" s="120"/>
+      <c r="Q40" s="120"/>
+      <c r="R40" s="120"/>
+      <c r="S40" s="120"/>
+      <c r="T40" s="120"/>
+      <c r="U40" s="120"/>
+      <c r="V40" s="120"/>
+      <c r="W40" s="120"/>
+      <c r="X40" s="120"/>
+      <c r="Y40" s="120"/>
+      <c r="Z40" s="120"/>
+      <c r="AA40" s="120"/>
+      <c r="AB40" s="120"/>
+      <c r="AC40" s="120"/>
+      <c r="AD40" s="145"/>
+      <c r="AE40" s="120"/>
+      <c r="AF40" s="120"/>
+      <c r="AG40" s="120"/>
+      <c r="AH40" s="120"/>
+      <c r="AI40" s="120"/>
+      <c r="AJ40" s="120"/>
+      <c r="AK40" s="120"/>
+      <c r="AL40" s="120"/>
+      <c r="AM40" s="120"/>
+      <c r="AN40" s="150"/>
+      <c r="AO40" s="112"/>
+      <c r="AP40" s="112"/>
+      <c r="AQ40" s="112"/>
     </row>
     <row r="41" ht="23.55" spans="1:43">
-      <c r="A41" s="101"/>
-      <c r="B41" s="119"/>
-      <c r="C41" s="120"/>
-      <c r="D41" s="120"/>
-      <c r="E41" s="120"/>
-      <c r="F41" s="121"/>
-      <c r="G41" s="121"/>
-      <c r="H41" s="121"/>
-      <c r="I41" s="121"/>
-      <c r="J41" s="121"/>
-      <c r="K41" s="121"/>
-      <c r="L41" s="121"/>
-      <c r="M41" s="121"/>
-      <c r="N41" s="121"/>
-      <c r="O41" s="121"/>
-      <c r="P41" s="121"/>
-      <c r="Q41" s="121"/>
-      <c r="R41" s="121"/>
-      <c r="S41" s="121"/>
-      <c r="T41" s="121"/>
-      <c r="U41" s="121"/>
-      <c r="V41" s="121"/>
-      <c r="W41" s="121"/>
-      <c r="X41" s="121"/>
-      <c r="Y41" s="121"/>
-      <c r="Z41" s="121"/>
-      <c r="AA41" s="121"/>
-      <c r="AB41" s="121"/>
-      <c r="AC41" s="121"/>
-      <c r="AD41" s="146"/>
-      <c r="AE41" s="121"/>
-      <c r="AF41" s="121"/>
-      <c r="AG41" s="121"/>
-      <c r="AH41" s="121"/>
-      <c r="AI41" s="121"/>
-      <c r="AJ41" s="121"/>
-      <c r="AK41" s="121"/>
-      <c r="AL41" s="121"/>
-      <c r="AM41" s="121"/>
-      <c r="AN41" s="151"/>
-      <c r="AO41" s="113"/>
-      <c r="AP41" s="113"/>
-      <c r="AQ41" s="113"/>
+      <c r="A41" s="100"/>
+      <c r="B41" s="118"/>
+      <c r="C41" s="119"/>
+      <c r="D41" s="119"/>
+      <c r="E41" s="119"/>
+      <c r="F41" s="120"/>
+      <c r="G41" s="120"/>
+      <c r="H41" s="120"/>
+      <c r="I41" s="120"/>
+      <c r="J41" s="120"/>
+      <c r="K41" s="120"/>
+      <c r="L41" s="120"/>
+      <c r="M41" s="120"/>
+      <c r="N41" s="120"/>
+      <c r="O41" s="120"/>
+      <c r="P41" s="120"/>
+      <c r="Q41" s="120"/>
+      <c r="R41" s="120"/>
+      <c r="S41" s="120"/>
+      <c r="T41" s="120"/>
+      <c r="U41" s="120"/>
+      <c r="V41" s="120"/>
+      <c r="W41" s="120"/>
+      <c r="X41" s="120"/>
+      <c r="Y41" s="120"/>
+      <c r="Z41" s="120"/>
+      <c r="AA41" s="120"/>
+      <c r="AB41" s="120"/>
+      <c r="AC41" s="120"/>
+      <c r="AD41" s="145"/>
+      <c r="AE41" s="120"/>
+      <c r="AF41" s="120"/>
+      <c r="AG41" s="120"/>
+      <c r="AH41" s="120"/>
+      <c r="AI41" s="120"/>
+      <c r="AJ41" s="120"/>
+      <c r="AK41" s="120"/>
+      <c r="AL41" s="120"/>
+      <c r="AM41" s="120"/>
+      <c r="AN41" s="150"/>
+      <c r="AO41" s="112"/>
+      <c r="AP41" s="112"/>
+      <c r="AQ41" s="112"/>
     </row>
     <row r="42" ht="23.55" spans="1:43">
-      <c r="A42" s="101"/>
-      <c r="B42" s="119"/>
-      <c r="C42" s="120"/>
-      <c r="D42" s="120"/>
-      <c r="E42" s="120"/>
-      <c r="F42" s="121"/>
-      <c r="G42" s="121"/>
-      <c r="H42" s="121"/>
-      <c r="I42" s="121"/>
-      <c r="J42" s="121"/>
-      <c r="K42" s="121"/>
-      <c r="L42" s="121"/>
-      <c r="M42" s="121"/>
-      <c r="N42" s="121"/>
-      <c r="O42" s="121"/>
-      <c r="P42" s="121"/>
-      <c r="Q42" s="121"/>
-      <c r="R42" s="121"/>
-      <c r="S42" s="121"/>
-      <c r="T42" s="121"/>
-      <c r="U42" s="121"/>
-      <c r="V42" s="121"/>
-      <c r="W42" s="121"/>
-      <c r="X42" s="121"/>
-      <c r="Y42" s="121"/>
-      <c r="Z42" s="121"/>
-      <c r="AA42" s="121"/>
-      <c r="AB42" s="121"/>
-      <c r="AC42" s="121"/>
-      <c r="AD42" s="146"/>
-      <c r="AE42" s="121"/>
-      <c r="AF42" s="121"/>
-      <c r="AG42" s="121"/>
-      <c r="AH42" s="121"/>
-      <c r="AI42" s="121"/>
-      <c r="AJ42" s="121"/>
-      <c r="AK42" s="121"/>
-      <c r="AL42" s="121"/>
-      <c r="AM42" s="121"/>
-      <c r="AN42" s="151"/>
-      <c r="AO42" s="113"/>
-      <c r="AP42" s="113"/>
-      <c r="AQ42" s="113"/>
+      <c r="A42" s="100"/>
+      <c r="B42" s="118"/>
+      <c r="C42" s="119"/>
+      <c r="D42" s="119"/>
+      <c r="E42" s="119"/>
+      <c r="F42" s="120"/>
+      <c r="G42" s="120"/>
+      <c r="H42" s="120"/>
+      <c r="I42" s="120"/>
+      <c r="J42" s="120"/>
+      <c r="K42" s="120"/>
+      <c r="L42" s="120"/>
+      <c r="M42" s="120"/>
+      <c r="N42" s="120"/>
+      <c r="O42" s="120"/>
+      <c r="P42" s="120"/>
+      <c r="Q42" s="120"/>
+      <c r="R42" s="120"/>
+      <c r="S42" s="120"/>
+      <c r="T42" s="120"/>
+      <c r="U42" s="120"/>
+      <c r="V42" s="120"/>
+      <c r="W42" s="120"/>
+      <c r="X42" s="120"/>
+      <c r="Y42" s="120"/>
+      <c r="Z42" s="120"/>
+      <c r="AA42" s="120"/>
+      <c r="AB42" s="120"/>
+      <c r="AC42" s="120"/>
+      <c r="AD42" s="145"/>
+      <c r="AE42" s="120"/>
+      <c r="AF42" s="120"/>
+      <c r="AG42" s="120"/>
+      <c r="AH42" s="120"/>
+      <c r="AI42" s="120"/>
+      <c r="AJ42" s="120"/>
+      <c r="AK42" s="120"/>
+      <c r="AL42" s="120"/>
+      <c r="AM42" s="120"/>
+      <c r="AN42" s="150"/>
+      <c r="AO42" s="112"/>
+      <c r="AP42" s="112"/>
+      <c r="AQ42" s="112"/>
     </row>
     <row r="43" ht="23.55" spans="1:43">
-      <c r="A43" s="101"/>
-      <c r="B43" s="119"/>
-      <c r="C43" s="120"/>
-      <c r="D43" s="120"/>
-      <c r="E43" s="120"/>
-      <c r="F43" s="121"/>
-      <c r="G43" s="121"/>
-      <c r="H43" s="121"/>
-      <c r="I43" s="121"/>
-      <c r="J43" s="121"/>
-      <c r="K43" s="121"/>
-      <c r="L43" s="121"/>
-      <c r="M43" s="121"/>
-      <c r="N43" s="121"/>
-      <c r="O43" s="121"/>
-      <c r="P43" s="121"/>
-      <c r="Q43" s="121"/>
-      <c r="R43" s="121"/>
-      <c r="S43" s="121"/>
-      <c r="T43" s="121"/>
-      <c r="U43" s="121"/>
-      <c r="V43" s="121"/>
-      <c r="W43" s="121"/>
-      <c r="X43" s="121"/>
-      <c r="Y43" s="121"/>
-      <c r="Z43" s="121"/>
-      <c r="AA43" s="121"/>
-      <c r="AB43" s="121"/>
-      <c r="AC43" s="121"/>
-      <c r="AD43" s="146"/>
-      <c r="AE43" s="121"/>
-      <c r="AF43" s="121"/>
-      <c r="AG43" s="121"/>
-      <c r="AH43" s="121"/>
-      <c r="AI43" s="121"/>
-      <c r="AJ43" s="121"/>
-      <c r="AK43" s="121"/>
-      <c r="AL43" s="121"/>
-      <c r="AM43" s="121"/>
-      <c r="AN43" s="151"/>
-      <c r="AO43" s="113"/>
-      <c r="AP43" s="113"/>
-      <c r="AQ43" s="113"/>
+      <c r="A43" s="100"/>
+      <c r="B43" s="118"/>
+      <c r="C43" s="119"/>
+      <c r="D43" s="119"/>
+      <c r="E43" s="119"/>
+      <c r="F43" s="120"/>
+      <c r="G43" s="120"/>
+      <c r="H43" s="120"/>
+      <c r="I43" s="120"/>
+      <c r="J43" s="120"/>
+      <c r="K43" s="120"/>
+      <c r="L43" s="120"/>
+      <c r="M43" s="120"/>
+      <c r="N43" s="120"/>
+      <c r="O43" s="120"/>
+      <c r="P43" s="120"/>
+      <c r="Q43" s="120"/>
+      <c r="R43" s="120"/>
+      <c r="S43" s="120"/>
+      <c r="T43" s="120"/>
+      <c r="U43" s="120"/>
+      <c r="V43" s="120"/>
+      <c r="W43" s="120"/>
+      <c r="X43" s="120"/>
+      <c r="Y43" s="120"/>
+      <c r="Z43" s="120"/>
+      <c r="AA43" s="120"/>
+      <c r="AB43" s="120"/>
+      <c r="AC43" s="120"/>
+      <c r="AD43" s="145"/>
+      <c r="AE43" s="120"/>
+      <c r="AF43" s="120"/>
+      <c r="AG43" s="120"/>
+      <c r="AH43" s="120"/>
+      <c r="AI43" s="120"/>
+      <c r="AJ43" s="120"/>
+      <c r="AK43" s="120"/>
+      <c r="AL43" s="120"/>
+      <c r="AM43" s="120"/>
+      <c r="AN43" s="150"/>
+      <c r="AO43" s="112"/>
+      <c r="AP43" s="112"/>
+      <c r="AQ43" s="112"/>
     </row>
     <row r="44" ht="23.55" spans="1:43">
-      <c r="A44" s="101"/>
-      <c r="B44" s="119"/>
-      <c r="C44" s="120"/>
-      <c r="D44" s="120"/>
-      <c r="E44" s="120"/>
-      <c r="F44" s="121"/>
-      <c r="G44" s="121"/>
-      <c r="H44" s="121"/>
-      <c r="I44" s="121"/>
-      <c r="J44" s="121"/>
-      <c r="K44" s="121"/>
-      <c r="L44" s="121"/>
-      <c r="M44" s="121"/>
-      <c r="N44" s="121"/>
-      <c r="O44" s="121"/>
-      <c r="P44" s="121"/>
-      <c r="Q44" s="121"/>
-      <c r="R44" s="121"/>
-      <c r="S44" s="121"/>
-      <c r="T44" s="121"/>
-      <c r="U44" s="121"/>
-      <c r="V44" s="121"/>
-      <c r="W44" s="121"/>
-      <c r="X44" s="121"/>
-      <c r="Y44" s="121"/>
-      <c r="Z44" s="121"/>
-      <c r="AA44" s="121"/>
-      <c r="AB44" s="121"/>
-      <c r="AC44" s="121"/>
-      <c r="AD44" s="146"/>
-      <c r="AE44" s="121"/>
-      <c r="AF44" s="121"/>
-      <c r="AG44" s="121"/>
-      <c r="AH44" s="121"/>
-      <c r="AI44" s="121"/>
-      <c r="AJ44" s="121"/>
-      <c r="AK44" s="121"/>
-      <c r="AL44" s="121"/>
-      <c r="AM44" s="121"/>
-      <c r="AN44" s="151"/>
-      <c r="AO44" s="113"/>
-      <c r="AP44" s="113"/>
-      <c r="AQ44" s="113"/>
+      <c r="A44" s="100"/>
+      <c r="B44" s="118"/>
+      <c r="C44" s="119"/>
+      <c r="D44" s="119"/>
+      <c r="E44" s="119"/>
+      <c r="F44" s="120"/>
+      <c r="G44" s="120"/>
+      <c r="H44" s="120"/>
+      <c r="I44" s="120"/>
+      <c r="J44" s="120"/>
+      <c r="K44" s="120"/>
+      <c r="L44" s="120"/>
+      <c r="M44" s="120"/>
+      <c r="N44" s="120"/>
+      <c r="O44" s="120"/>
+      <c r="P44" s="120"/>
+      <c r="Q44" s="120"/>
+      <c r="R44" s="120"/>
+      <c r="S44" s="120"/>
+      <c r="T44" s="120"/>
+      <c r="U44" s="120"/>
+      <c r="V44" s="120"/>
+      <c r="W44" s="120"/>
+      <c r="X44" s="120"/>
+      <c r="Y44" s="120"/>
+      <c r="Z44" s="120"/>
+      <c r="AA44" s="120"/>
+      <c r="AB44" s="120"/>
+      <c r="AC44" s="120"/>
+      <c r="AD44" s="145"/>
+      <c r="AE44" s="120"/>
+      <c r="AF44" s="120"/>
+      <c r="AG44" s="120"/>
+      <c r="AH44" s="120"/>
+      <c r="AI44" s="120"/>
+      <c r="AJ44" s="120"/>
+      <c r="AK44" s="120"/>
+      <c r="AL44" s="120"/>
+      <c r="AM44" s="120"/>
+      <c r="AN44" s="150"/>
+      <c r="AO44" s="112"/>
+      <c r="AP44" s="112"/>
+      <c r="AQ44" s="112"/>
     </row>
     <row r="45" ht="23.55" spans="1:43">
-      <c r="A45" s="101"/>
-      <c r="B45" s="119"/>
-      <c r="C45" s="120"/>
-      <c r="D45" s="120"/>
-      <c r="E45" s="120"/>
-      <c r="F45" s="121"/>
-      <c r="G45" s="121"/>
-      <c r="H45" s="121"/>
-      <c r="I45" s="121"/>
-      <c r="J45" s="121"/>
-      <c r="K45" s="121"/>
-      <c r="L45" s="121"/>
-      <c r="M45" s="121"/>
-      <c r="N45" s="121"/>
-      <c r="O45" s="121"/>
-      <c r="P45" s="121"/>
-      <c r="Q45" s="121"/>
-      <c r="R45" s="121"/>
-      <c r="S45" s="121"/>
-      <c r="T45" s="121"/>
-      <c r="U45" s="121"/>
-      <c r="V45" s="121"/>
-      <c r="W45" s="121"/>
-      <c r="X45" s="121"/>
-      <c r="Y45" s="121"/>
-      <c r="Z45" s="121"/>
-      <c r="AA45" s="121"/>
-      <c r="AB45" s="121"/>
-      <c r="AC45" s="121"/>
-      <c r="AD45" s="146"/>
-      <c r="AE45" s="121"/>
-      <c r="AF45" s="121"/>
-      <c r="AG45" s="121"/>
-      <c r="AH45" s="121"/>
-      <c r="AI45" s="121"/>
-      <c r="AJ45" s="121"/>
-      <c r="AK45" s="121"/>
-      <c r="AL45" s="121"/>
-      <c r="AM45" s="121"/>
-      <c r="AN45" s="151"/>
-      <c r="AO45" s="113"/>
-      <c r="AP45" s="113"/>
-      <c r="AQ45" s="113"/>
+      <c r="A45" s="100"/>
+      <c r="B45" s="118"/>
+      <c r="C45" s="119"/>
+      <c r="D45" s="119"/>
+      <c r="E45" s="119"/>
+      <c r="F45" s="120"/>
+      <c r="G45" s="120"/>
+      <c r="H45" s="120"/>
+      <c r="I45" s="120"/>
+      <c r="J45" s="120"/>
+      <c r="K45" s="120"/>
+      <c r="L45" s="120"/>
+      <c r="M45" s="120"/>
+      <c r="N45" s="120"/>
+      <c r="O45" s="120"/>
+      <c r="P45" s="120"/>
+      <c r="Q45" s="120"/>
+      <c r="R45" s="120"/>
+      <c r="S45" s="120"/>
+      <c r="T45" s="120"/>
+      <c r="U45" s="120"/>
+      <c r="V45" s="120"/>
+      <c r="W45" s="120"/>
+      <c r="X45" s="120"/>
+      <c r="Y45" s="120"/>
+      <c r="Z45" s="120"/>
+      <c r="AA45" s="120"/>
+      <c r="AB45" s="120"/>
+      <c r="AC45" s="120"/>
+      <c r="AD45" s="145"/>
+      <c r="AE45" s="120"/>
+      <c r="AF45" s="120"/>
+      <c r="AG45" s="120"/>
+      <c r="AH45" s="120"/>
+      <c r="AI45" s="120"/>
+      <c r="AJ45" s="120"/>
+      <c r="AK45" s="120"/>
+      <c r="AL45" s="120"/>
+      <c r="AM45" s="120"/>
+      <c r="AN45" s="150"/>
+      <c r="AO45" s="112"/>
+      <c r="AP45" s="112"/>
+      <c r="AQ45" s="112"/>
     </row>
   </sheetData>
   <protectedRanges>
@@ -15181,8 +15174,8 @@
   <sheetPr/>
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="6"/>
@@ -15195,21 +15188,21 @@
   </cols>
   <sheetData>
     <row r="1" ht="32.25" customHeight="1" spans="1:3">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="77" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="77" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="78" t="s">
+      <c r="C1" s="77" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="78" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="79" t="s">
         <v>103</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -15217,10 +15210,10 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="78" t="s">
         <v>102</v>
       </c>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="79" t="s">
         <v>105</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -15228,10 +15221,10 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="78" t="s">
         <v>102</v>
       </c>
-      <c r="B4" s="80" t="s">
+      <c r="B4" s="79" t="s">
         <v>107</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -15243,10 +15236,10 @@
       <c r="C5" s="17"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="80" t="s">
         <v>109</v>
       </c>
-      <c r="B6" s="82" t="s">
+      <c r="B6" s="81" t="s">
         <v>110</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -15254,10 +15247,10 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="81" t="s">
+      <c r="A7" s="80" t="s">
         <v>109</v>
       </c>
-      <c r="B7" s="82" t="s">
+      <c r="B7" s="81" t="s">
         <v>112</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -15265,10 +15258,10 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="81" t="s">
+      <c r="A8" s="80" t="s">
         <v>109</v>
       </c>
-      <c r="B8" s="82" t="s">
+      <c r="B8" s="81" t="s">
         <v>114</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -15276,15 +15269,15 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="80"/>
-      <c r="B9" s="83"/>
+      <c r="A9" s="79"/>
+      <c r="B9" s="82"/>
       <c r="C9" s="4"/>
     </row>
     <row r="10" ht="14.25" customHeight="1" spans="1:3">
-      <c r="A10" s="84" t="s">
+      <c r="A10" s="83" t="s">
         <v>116</v>
       </c>
-      <c r="B10" s="83" t="s">
+      <c r="B10" s="82" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -15292,10 +15285,10 @@
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1" spans="1:3">
-      <c r="A11" s="84" t="s">
+      <c r="A11" s="83" t="s">
         <v>116</v>
       </c>
-      <c r="B11" s="83" t="s">
+      <c r="B11" s="82" t="s">
         <v>118</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -15303,10 +15296,10 @@
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1" spans="1:3">
-      <c r="A12" s="84" t="s">
+      <c r="A12" s="83" t="s">
         <v>116</v>
       </c>
-      <c r="B12" s="83" t="s">
+      <c r="B12" s="82" t="s">
         <v>120</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -15314,21 +15307,21 @@
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1" spans="1:3">
-      <c r="A13" s="84" t="s">
+      <c r="A13" s="83" t="s">
         <v>116</v>
       </c>
-      <c r="B13" s="85" t="s">
+      <c r="B13" s="84" t="s">
         <v>121</v>
       </c>
-      <c r="C13" s="86" t="s">
+      <c r="C13" s="85" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="14" ht="14.25" customHeight="1" spans="1:3">
-      <c r="A14" s="84" t="s">
+      <c r="A14" s="83" t="s">
         <v>116</v>
       </c>
-      <c r="B14" s="83" t="s">
+      <c r="B14" s="82" t="s">
         <v>123</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -15336,10 +15329,10 @@
       </c>
     </row>
     <row r="15" ht="14.25" customHeight="1" spans="1:3">
-      <c r="A15" s="84" t="s">
+      <c r="A15" s="83" t="s">
         <v>116</v>
       </c>
-      <c r="B15" s="83" t="s">
+      <c r="B15" s="82" t="s">
         <v>6</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -15347,10 +15340,10 @@
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1" spans="1:3">
-      <c r="A16" s="84" t="s">
+      <c r="A16" s="83" t="s">
         <v>116</v>
       </c>
-      <c r="B16" s="83" t="s">
+      <c r="B16" s="82" t="s">
         <v>126</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -15358,10 +15351,10 @@
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1" spans="1:3">
-      <c r="A17" s="84" t="s">
+      <c r="A17" s="83" t="s">
         <v>116</v>
       </c>
-      <c r="B17" s="83" t="s">
+      <c r="B17" s="82" t="s">
         <v>128</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -15369,10 +15362,10 @@
       </c>
     </row>
     <row r="18" ht="14.25" customHeight="1" spans="1:3">
-      <c r="A18" s="84" t="s">
+      <c r="A18" s="83" t="s">
         <v>116</v>
       </c>
-      <c r="B18" s="83" t="s">
+      <c r="B18" s="82" t="s">
         <v>130</v>
       </c>
       <c r="C18" s="4" t="s">
@@ -15380,10 +15373,10 @@
       </c>
     </row>
     <row r="19" ht="14.25" customHeight="1" spans="1:3">
-      <c r="A19" s="84" t="s">
+      <c r="A19" s="83" t="s">
         <v>116</v>
       </c>
-      <c r="B19" s="83" t="s">
+      <c r="B19" s="82" t="s">
         <v>132</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -15391,10 +15384,10 @@
       </c>
     </row>
     <row r="20" ht="14.25" customHeight="1" spans="1:3">
-      <c r="A20" s="84" t="s">
+      <c r="A20" s="83" t="s">
         <v>116</v>
       </c>
-      <c r="B20" s="83" t="s">
+      <c r="B20" s="82" t="s">
         <v>134</v>
       </c>
       <c r="C20" s="4" t="s">
@@ -15402,10 +15395,10 @@
       </c>
     </row>
     <row r="21" ht="14.25" customHeight="1" spans="1:3">
-      <c r="A21" s="84" t="s">
+      <c r="A21" s="83" t="s">
         <v>116</v>
       </c>
-      <c r="B21" s="83" t="s">
+      <c r="B21" s="82" t="s">
         <v>136</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -15413,10 +15406,10 @@
       </c>
     </row>
     <row r="22" ht="14.25" customHeight="1" spans="1:3">
-      <c r="A22" s="84" t="s">
+      <c r="A22" s="83" t="s">
         <v>116</v>
       </c>
-      <c r="B22" s="83" t="s">
+      <c r="B22" s="82" t="s">
         <v>138</v>
       </c>
       <c r="C22" s="4" t="s">
@@ -15424,10 +15417,10 @@
       </c>
     </row>
     <row r="23" ht="14.25" customHeight="1" spans="1:3">
-      <c r="A23" s="84" t="s">
+      <c r="A23" s="83" t="s">
         <v>116</v>
       </c>
-      <c r="B23" s="83" t="s">
+      <c r="B23" s="82" t="s">
         <v>140</v>
       </c>
       <c r="C23" s="4" t="s">
@@ -15435,10 +15428,10 @@
       </c>
     </row>
     <row r="24" ht="14.25" customHeight="1" spans="1:3">
-      <c r="A24" s="84" t="s">
+      <c r="A24" s="83" t="s">
         <v>116</v>
       </c>
-      <c r="B24" s="83" t="s">
+      <c r="B24" s="82" t="s">
         <v>142</v>
       </c>
       <c r="C24" s="4" t="s">
@@ -15446,21 +15439,21 @@
       </c>
     </row>
     <row r="25" ht="14.25" customHeight="1" spans="1:3">
-      <c r="A25" s="84" t="s">
+      <c r="A25" s="83" t="s">
         <v>116</v>
       </c>
-      <c r="B25" s="87" t="s">
+      <c r="B25" s="86" t="s">
         <v>144</v>
       </c>
-      <c r="C25" s="88" t="s">
+      <c r="C25" s="87" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="1:3">
-      <c r="A26" s="84" t="s">
+      <c r="A26" s="83" t="s">
         <v>116</v>
       </c>
-      <c r="B26" s="80" t="s">
+      <c r="B26" s="79" t="s">
         <v>146</v>
       </c>
       <c r="C26" s="4" t="s">
@@ -15468,10 +15461,10 @@
       </c>
     </row>
     <row r="27" ht="14.25" customHeight="1" spans="1:3">
-      <c r="A27" s="84" t="s">
+      <c r="A27" s="83" t="s">
         <v>116</v>
       </c>
-      <c r="B27" s="80" t="s">
+      <c r="B27" s="79" t="s">
         <v>148</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -15481,10 +15474,10 @@
     <row r="28" ht="14.25" customHeight="1"/>
     <row r="29" ht="28.5" customHeight="1"/>
     <row r="30" ht="27" customHeight="1" spans="1:3">
-      <c r="A30" s="84" t="s">
+      <c r="A30" s="83" t="s">
         <v>150</v>
       </c>
-      <c r="B30" s="89" t="s">
+      <c r="B30" s="88" t="s">
         <v>151</v>
       </c>
       <c r="C30" s="4" t="s">
@@ -15492,10 +15485,10 @@
       </c>
     </row>
     <row r="31" ht="14.25" customHeight="1" spans="1:7">
-      <c r="A31" s="84" t="s">
+      <c r="A31" s="83" t="s">
         <v>150</v>
       </c>
-      <c r="B31" s="89" t="s">
+      <c r="B31" s="88" t="s">
         <v>153</v>
       </c>
       <c r="C31" s="4" t="s">
@@ -15506,10 +15499,10 @@
       <c r="G31" s="16"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="84" t="s">
+      <c r="A32" s="83" t="s">
         <v>150</v>
       </c>
-      <c r="B32" s="89" t="s">
+      <c r="B32" s="88" t="s">
         <v>154</v>
       </c>
       <c r="C32" s="4" t="s">
@@ -15520,10 +15513,10 @@
       <c r="G32" s="16"/>
     </row>
     <row r="33" ht="27.75" customHeight="1" spans="1:7">
-      <c r="A33" s="84" t="s">
+      <c r="A33" s="83" t="s">
         <v>150</v>
       </c>
-      <c r="B33" s="89" t="s">
+      <c r="B33" s="88" t="s">
         <v>155</v>
       </c>
       <c r="C33" s="4" t="s">
@@ -15534,10 +15527,10 @@
       <c r="G33" s="16"/>
     </row>
     <row r="34" ht="18" customHeight="1" spans="1:7">
-      <c r="A34" s="84" t="s">
+      <c r="A34" s="83" t="s">
         <v>150</v>
       </c>
-      <c r="B34" s="89" t="s">
+      <c r="B34" s="88" t="s">
         <v>156</v>
       </c>
       <c r="C34" s="4" t="s">
@@ -15548,10 +15541,10 @@
       <c r="G34" s="16"/>
     </row>
     <row r="35" ht="14.25" customHeight="1" spans="1:7">
-      <c r="A35" s="84" t="s">
+      <c r="A35" s="83" t="s">
         <v>150</v>
       </c>
-      <c r="B35" s="89" t="s">
+      <c r="B35" s="88" t="s">
         <v>158</v>
       </c>
       <c r="C35" s="4" t="s">
@@ -15562,10 +15555,10 @@
       <c r="G35" s="16"/>
     </row>
     <row r="36" ht="14.25" customHeight="1" spans="1:7">
-      <c r="A36" s="84" t="s">
+      <c r="A36" s="83" t="s">
         <v>150</v>
       </c>
-      <c r="B36" s="89" t="s">
+      <c r="B36" s="88" t="s">
         <v>159</v>
       </c>
       <c r="C36" s="4" t="s">
@@ -15576,10 +15569,10 @@
       <c r="G36" s="16"/>
     </row>
     <row r="37" ht="16.5" customHeight="1" spans="1:6">
-      <c r="A37" s="84" t="s">
+      <c r="A37" s="83" t="s">
         <v>150</v>
       </c>
-      <c r="B37" s="89" t="s">
+      <c r="B37" s="88" t="s">
         <v>160</v>
       </c>
       <c r="C37" s="4" t="s">
@@ -15588,10 +15581,10 @@
       <c r="F37" s="16"/>
     </row>
     <row r="38" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A38" s="84" t="s">
+      <c r="A38" s="83" t="s">
         <v>150</v>
       </c>
-      <c r="B38" s="89" t="s">
+      <c r="B38" s="88" t="s">
         <v>162</v>
       </c>
       <c r="C38" s="4" t="s">
@@ -15603,24 +15596,24 @@
       <c r="F39" s="16"/>
     </row>
     <row r="40" ht="36" customHeight="1" spans="1:3">
-      <c r="A40" s="90" t="s">
+      <c r="A40" s="89" t="s">
         <v>164</v>
       </c>
-      <c r="B40" s="91" t="s">
+      <c r="B40" s="90" t="s">
         <v>165</v>
       </c>
-      <c r="C40" s="92" t="s">
+      <c r="C40" s="91" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="41" ht="31.2" spans="1:3">
-      <c r="A41" s="90" t="s">
+      <c r="A41" s="89" t="s">
         <v>164</v>
       </c>
-      <c r="B41" s="93" t="s">
+      <c r="B41" s="92" t="s">
         <v>167</v>
       </c>
-      <c r="C41" s="92" t="s">
+      <c r="C41" s="91" t="s">
         <v>168</v>
       </c>
     </row>
@@ -15634,6 +15627,678 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E83"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="17.6333333333333" customWidth="1"/>
+    <col min="2" max="2" width="57" customWidth="1"/>
+    <col min="3" max="3" width="11.8833333333333" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="33" customHeight="1" spans="1:3">
+      <c r="A1" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>170</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2" ht="41.25" customHeight="1" spans="1:3">
+      <c r="A2" s="41" t="s">
+        <v>172</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>173</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" ht="41.25" customHeight="1" spans="1:3">
+      <c r="A3" s="11"/>
+      <c r="B3" s="42" t="s">
+        <v>174</v>
+      </c>
+      <c r="C3" s="45"/>
+    </row>
+    <row r="4" ht="17.4" spans="1:5">
+      <c r="A4" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="B4" s="46" t="s">
+        <v>175</v>
+      </c>
+      <c r="C4" s="47">
+        <v>1</v>
+      </c>
+      <c r="E4" s="48"/>
+    </row>
+    <row r="5" ht="17.4" spans="1:3">
+      <c r="A5" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5" s="49" t="s">
+        <v>176</v>
+      </c>
+      <c r="C5" s="47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" ht="17.4" spans="1:3">
+      <c r="A6" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="B6" s="49" t="s">
+        <v>177</v>
+      </c>
+      <c r="C6" s="47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" ht="17.4" spans="1:3">
+      <c r="A7" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="B7" s="49" t="s">
+        <v>178</v>
+      </c>
+      <c r="C7" s="47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" ht="17.4" spans="1:3">
+      <c r="A8" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="B8" s="49" t="s">
+        <v>179</v>
+      </c>
+      <c r="C8" s="47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" ht="41.4" spans="1:3">
+      <c r="A9" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="B9" s="50" t="s">
+        <v>180</v>
+      </c>
+      <c r="C9" s="47">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" ht="41.25" customHeight="1" spans="1:3">
+      <c r="A10" s="11"/>
+      <c r="B10" s="62" t="s">
+        <v>181</v>
+      </c>
+      <c r="C10" s="45"/>
+    </row>
+    <row r="11" ht="17.4" spans="1:3">
+      <c r="A11" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B11" s="49" t="s">
+        <v>182</v>
+      </c>
+      <c r="C11" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" ht="17.4" spans="1:3">
+      <c r="A12" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B12" s="49" t="s">
+        <v>183</v>
+      </c>
+      <c r="C12" s="56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" ht="17.4" spans="1:3">
+      <c r="A13" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" s="49" t="s">
+        <v>184</v>
+      </c>
+      <c r="C13" s="56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" ht="17.4" spans="1:3">
+      <c r="A14" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B14" s="49" t="s">
+        <v>185</v>
+      </c>
+      <c r="C14" s="56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" ht="17.4" spans="1:3">
+      <c r="A15" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B15" s="49" t="s">
+        <v>186</v>
+      </c>
+      <c r="C15" s="56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" ht="27.6" spans="1:3">
+      <c r="A16" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B16" s="49" t="s">
+        <v>187</v>
+      </c>
+      <c r="C16" s="56">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" ht="17.4" spans="1:3">
+      <c r="A17" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B17" s="49" t="s">
+        <v>188</v>
+      </c>
+      <c r="C17" s="56">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" ht="17.4" spans="1:3">
+      <c r="A18" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B18" s="49" t="s">
+        <v>189</v>
+      </c>
+      <c r="C18" s="56">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" ht="17.4" spans="1:3">
+      <c r="A19" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B19" s="49" t="s">
+        <v>190</v>
+      </c>
+      <c r="C19" s="56">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" ht="17.4" spans="1:3">
+      <c r="A20" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B20" s="49" t="s">
+        <v>191</v>
+      </c>
+      <c r="C20" s="56">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" ht="17.4" spans="1:3">
+      <c r="A21" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B21" t="s">
+        <v>192</v>
+      </c>
+      <c r="C21" s="56">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" ht="29.25" customHeight="1" spans="1:3">
+      <c r="A22" s="11"/>
+      <c r="B22" s="62" t="s">
+        <v>154</v>
+      </c>
+      <c r="C22" s="55"/>
+    </row>
+    <row r="23" ht="17.4" spans="1:3">
+      <c r="A23" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B23" s="49" t="s">
+        <v>193</v>
+      </c>
+      <c r="C23" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" ht="17.4" spans="1:3">
+      <c r="A24" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B24" s="49" t="s">
+        <v>194</v>
+      </c>
+      <c r="C24" s="56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" ht="17.4" spans="1:3">
+      <c r="A25" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B25" s="49" t="s">
+        <v>195</v>
+      </c>
+      <c r="C25" s="56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" ht="17.4" spans="1:3">
+      <c r="A26" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B26" s="49" t="s">
+        <v>196</v>
+      </c>
+      <c r="C26" s="56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" ht="34.8" spans="1:3">
+      <c r="A27" s="11"/>
+      <c r="B27" s="62" t="s">
+        <v>155</v>
+      </c>
+      <c r="C27" s="45"/>
+    </row>
+    <row r="28" ht="17.4" spans="1:3">
+      <c r="A28" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="B28" s="49" t="s">
+        <v>197</v>
+      </c>
+      <c r="C28" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" ht="17.4" spans="1:3">
+      <c r="A29" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="B29" s="49" t="s">
+        <v>198</v>
+      </c>
+      <c r="C29" s="56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" ht="17.4" spans="1:3">
+      <c r="A30" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="B30" s="49" t="s">
+        <v>199</v>
+      </c>
+      <c r="C30" s="56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" ht="17.4" spans="1:3">
+      <c r="A31" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="B31" s="49" t="s">
+        <v>200</v>
+      </c>
+      <c r="C31" s="56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" ht="17.4" spans="1:3">
+      <c r="A32" s="11"/>
+      <c r="B32" s="62" t="s">
+        <v>201</v>
+      </c>
+      <c r="C32" s="58"/>
+    </row>
+    <row r="33" ht="17.4" spans="1:3">
+      <c r="A33" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="B33" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="C33" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" ht="17.4" spans="1:3">
+      <c r="A34" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="B34" s="51" t="s">
+        <v>203</v>
+      </c>
+      <c r="C34" s="56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" ht="17.4" spans="1:5">
+      <c r="A35" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="B35" s="49" t="s">
+        <v>204</v>
+      </c>
+      <c r="C35" s="56">
+        <v>3</v>
+      </c>
+      <c r="E35" s="48"/>
+    </row>
+    <row r="36" ht="17.4" spans="1:3">
+      <c r="A36" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="B36" s="49" t="s">
+        <v>205</v>
+      </c>
+      <c r="C36" s="56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" ht="17.4" spans="1:3">
+      <c r="A37" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="B37" s="49" t="s">
+        <v>206</v>
+      </c>
+      <c r="C37" s="56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" ht="30" customHeight="1" spans="1:3">
+      <c r="A38" s="11"/>
+      <c r="B38" s="62" t="s">
+        <v>207</v>
+      </c>
+      <c r="C38" s="58"/>
+    </row>
+    <row r="39" ht="17.4" spans="1:3">
+      <c r="A39" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="B39" s="49" t="s">
+        <v>208</v>
+      </c>
+      <c r="C39" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" ht="17.4" spans="1:3">
+      <c r="A40" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="B40" s="49" t="s">
+        <v>209</v>
+      </c>
+      <c r="C40" s="59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" ht="33.75" customHeight="1" spans="1:3">
+      <c r="A41" s="11"/>
+      <c r="B41" s="62" t="s">
+        <v>159</v>
+      </c>
+      <c r="C41" s="58"/>
+    </row>
+    <row r="42" ht="17.4" spans="1:3">
+      <c r="A42" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B42" s="49" t="s">
+        <v>210</v>
+      </c>
+      <c r="C42" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" ht="17.4" spans="1:3">
+      <c r="A43" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B43" t="s">
+        <v>211</v>
+      </c>
+      <c r="C43" s="56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" ht="17.4" spans="1:3">
+      <c r="A44" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B44" s="46" t="s">
+        <v>212</v>
+      </c>
+      <c r="C44" s="56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" ht="17.4" spans="1:3">
+      <c r="A45" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B45" t="s">
+        <v>213</v>
+      </c>
+      <c r="C45" s="56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" ht="17.4" spans="1:3">
+      <c r="A46" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B46" s="49" t="s">
+        <v>214</v>
+      </c>
+      <c r="C46" s="56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" ht="17.4" spans="1:3">
+      <c r="A47" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B47" s="49" t="s">
+        <v>215</v>
+      </c>
+      <c r="C47" s="56">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" ht="17.4" spans="1:3">
+      <c r="A48" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B48" s="49" t="s">
+        <v>216</v>
+      </c>
+      <c r="C48" s="56">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" ht="17.4" spans="1:3">
+      <c r="A49" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B49" s="49" t="s">
+        <v>217</v>
+      </c>
+      <c r="C49" s="56">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" ht="17.4" spans="1:3">
+      <c r="A50" s="11"/>
+      <c r="B50" s="74" t="s">
+        <v>218</v>
+      </c>
+      <c r="C50" s="58"/>
+    </row>
+    <row r="51" ht="17.4" spans="1:3">
+      <c r="A51" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="B51" s="49" t="s">
+        <v>219</v>
+      </c>
+      <c r="C51" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" ht="17.4" spans="1:3">
+      <c r="A52" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="B52" s="49" t="s">
+        <v>220</v>
+      </c>
+      <c r="C52" s="56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" ht="17.4" spans="1:3">
+      <c r="A53" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="B53" t="s">
+        <v>221</v>
+      </c>
+      <c r="C53" s="56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" ht="17.4" spans="1:3">
+      <c r="A54" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="B54" s="49" t="s">
+        <v>222</v>
+      </c>
+      <c r="C54" s="56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" ht="17.4" spans="1:3">
+      <c r="A55" s="11"/>
+      <c r="B55" s="74" t="s">
+        <v>162</v>
+      </c>
+      <c r="C55" s="58"/>
+    </row>
+    <row r="56" ht="17.4" spans="1:3">
+      <c r="A56" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="B56" s="49" t="s">
+        <v>223</v>
+      </c>
+      <c r="C56" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" ht="27.6" spans="1:3">
+      <c r="A57" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="B57" s="49" t="s">
+        <v>224</v>
+      </c>
+      <c r="C57" s="56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" ht="27.6" spans="1:3">
+      <c r="A58" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="B58" s="49" t="s">
+        <v>225</v>
+      </c>
+      <c r="C58" s="56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" ht="27.6" spans="1:5">
+      <c r="A59" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="B59" s="49" t="s">
+        <v>226</v>
+      </c>
+      <c r="C59" s="56">
+        <v>4</v>
+      </c>
+      <c r="E59" s="48"/>
+    </row>
+    <row r="60" ht="17.4" spans="1:3">
+      <c r="A60" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="B60" s="49" t="s">
+        <v>227</v>
+      </c>
+      <c r="C60" s="56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" ht="17.4" spans="1:3">
+      <c r="A61" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="B61" s="76" t="s">
+        <v>228</v>
+      </c>
+      <c r="C61" s="56">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="5:5">
+      <c r="E76" s="48"/>
+    </row>
+    <row r="83" spans="5:5">
+      <c r="E83" s="48"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;K008004&amp;10&amp;"Calibri"Public Internal - عام (داخلي) </oddHeader>
+  </headerFooter>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E83"/>
@@ -15672,7 +16337,7 @@
       </c>
     </row>
     <row r="3" ht="41.25" customHeight="1" spans="1:3">
-      <c r="A3" s="11"/>
+      <c r="A3" s="65"/>
       <c r="B3" s="42" t="s">
         <v>174</v>
       </c>
@@ -15746,679 +16411,7 @@
       </c>
     </row>
     <row r="10" ht="41.25" customHeight="1" spans="1:3">
-      <c r="A10" s="11"/>
-      <c r="B10" s="62" t="s">
-        <v>181</v>
-      </c>
-      <c r="C10" s="45"/>
-    </row>
-    <row r="11" ht="17.4" spans="1:3">
-      <c r="A11" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="B11" s="49" t="s">
-        <v>182</v>
-      </c>
-      <c r="C11" s="56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" ht="17.4" spans="1:3">
-      <c r="A12" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="B12" s="49" t="s">
-        <v>183</v>
-      </c>
-      <c r="C12" s="56">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" ht="17.4" spans="1:3">
-      <c r="A13" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="B13" s="49" t="s">
-        <v>184</v>
-      </c>
-      <c r="C13" s="56">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" ht="17.4" spans="1:3">
-      <c r="A14" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="B14" s="49" t="s">
-        <v>185</v>
-      </c>
-      <c r="C14" s="56">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" ht="17.4" spans="1:3">
-      <c r="A15" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="B15" s="49" t="s">
-        <v>186</v>
-      </c>
-      <c r="C15" s="56">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" ht="27.6" spans="1:3">
-      <c r="A16" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="B16" s="49" t="s">
-        <v>187</v>
-      </c>
-      <c r="C16" s="56">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" ht="17.4" spans="1:3">
-      <c r="A17" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="B17" s="49" t="s">
-        <v>188</v>
-      </c>
-      <c r="C17" s="56">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" ht="17.4" spans="1:3">
-      <c r="A18" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="B18" s="49" t="s">
-        <v>189</v>
-      </c>
-      <c r="C18" s="56">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" ht="17.4" spans="1:3">
-      <c r="A19" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="B19" s="49" t="s">
-        <v>190</v>
-      </c>
-      <c r="C19" s="56">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" ht="17.4" spans="1:3">
-      <c r="A20" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="B20" s="49" t="s">
-        <v>191</v>
-      </c>
-      <c r="C20" s="56">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" ht="17.4" spans="1:3">
-      <c r="A21" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="B21" t="s">
-        <v>192</v>
-      </c>
-      <c r="C21" s="56">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" ht="29.25" customHeight="1" spans="1:3">
-      <c r="A22" s="11"/>
-      <c r="B22" s="62" t="s">
-        <v>154</v>
-      </c>
-      <c r="C22" s="55"/>
-    </row>
-    <row r="23" ht="17.4" spans="1:3">
-      <c r="A23" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="B23" s="49" t="s">
-        <v>193</v>
-      </c>
-      <c r="C23" s="56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" ht="17.4" spans="1:3">
-      <c r="A24" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="B24" s="49" t="s">
-        <v>194</v>
-      </c>
-      <c r="C24" s="56">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" ht="17.4" spans="1:3">
-      <c r="A25" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="B25" s="49" t="s">
-        <v>195</v>
-      </c>
-      <c r="C25" s="56">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" ht="17.4" spans="1:3">
-      <c r="A26" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="B26" s="49" t="s">
-        <v>196</v>
-      </c>
-      <c r="C26" s="56">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" ht="34.8" spans="1:3">
-      <c r="A27" s="11"/>
-      <c r="B27" s="62" t="s">
-        <v>155</v>
-      </c>
-      <c r="C27" s="45"/>
-    </row>
-    <row r="28" ht="17.4" spans="1:3">
-      <c r="A28" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="B28" s="49" t="s">
-        <v>197</v>
-      </c>
-      <c r="C28" s="56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" ht="17.4" spans="1:3">
-      <c r="A29" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="B29" s="49" t="s">
-        <v>198</v>
-      </c>
-      <c r="C29" s="56">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" ht="17.4" spans="1:3">
-      <c r="A30" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="B30" s="49" t="s">
-        <v>199</v>
-      </c>
-      <c r="C30" s="56">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" ht="17.4" spans="1:3">
-      <c r="A31" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="B31" s="49" t="s">
-        <v>200</v>
-      </c>
-      <c r="C31" s="56">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" ht="17.4" spans="1:3">
-      <c r="A32" s="11"/>
-      <c r="B32" s="62" t="s">
-        <v>201</v>
-      </c>
-      <c r="C32" s="58"/>
-    </row>
-    <row r="33" ht="17.4" spans="1:3">
-      <c r="A33" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="B33" s="51" t="s">
-        <v>202</v>
-      </c>
-      <c r="C33" s="56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" ht="17.4" spans="1:3">
-      <c r="A34" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="B34" s="51" t="s">
-        <v>203</v>
-      </c>
-      <c r="C34" s="56">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" ht="17.4" spans="1:5">
-      <c r="A35" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="B35" s="49" t="s">
-        <v>204</v>
-      </c>
-      <c r="C35" s="56">
-        <v>3</v>
-      </c>
-      <c r="E35" s="48"/>
-    </row>
-    <row r="36" ht="17.4" spans="1:3">
-      <c r="A36" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="B36" s="49" t="s">
-        <v>205</v>
-      </c>
-      <c r="C36" s="56">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" ht="17.4" spans="1:3">
-      <c r="A37" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="B37" s="49" t="s">
-        <v>206</v>
-      </c>
-      <c r="C37" s="56">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" ht="30" customHeight="1" spans="1:3">
-      <c r="A38" s="11"/>
-      <c r="B38" s="62" t="s">
-        <v>207</v>
-      </c>
-      <c r="C38" s="58"/>
-    </row>
-    <row r="39" ht="17.4" spans="1:3">
-      <c r="A39" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="B39" s="49" t="s">
-        <v>208</v>
-      </c>
-      <c r="C39" s="56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" ht="17.4" spans="1:3">
-      <c r="A40" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="B40" s="49" t="s">
-        <v>209</v>
-      </c>
-      <c r="C40" s="59">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" ht="33.75" customHeight="1" spans="1:3">
-      <c r="A41" s="11"/>
-      <c r="B41" s="62" t="s">
-        <v>159</v>
-      </c>
-      <c r="C41" s="58"/>
-    </row>
-    <row r="42" ht="17.4" spans="1:3">
-      <c r="A42" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="B42" s="49" t="s">
-        <v>210</v>
-      </c>
-      <c r="C42" s="56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" ht="17.4" spans="1:3">
-      <c r="A43" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="B43" t="s">
-        <v>211</v>
-      </c>
-      <c r="C43" s="56">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" ht="17.4" spans="1:3">
-      <c r="A44" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="B44" s="46" t="s">
-        <v>212</v>
-      </c>
-      <c r="C44" s="56">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" ht="17.4" spans="1:3">
-      <c r="A45" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="B45" t="s">
-        <v>213</v>
-      </c>
-      <c r="C45" s="56">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" ht="17.4" spans="1:3">
-      <c r="A46" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="B46" s="49" t="s">
-        <v>214</v>
-      </c>
-      <c r="C46" s="56">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" ht="17.4" spans="1:3">
-      <c r="A47" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="B47" s="49" t="s">
-        <v>215</v>
-      </c>
-      <c r="C47" s="56">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" ht="17.4" spans="1:3">
-      <c r="A48" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="B48" s="49" t="s">
-        <v>216</v>
-      </c>
-      <c r="C48" s="56">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" ht="17.4" spans="1:3">
-      <c r="A49" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="B49" s="49" t="s">
-        <v>217</v>
-      </c>
-      <c r="C49" s="56">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" ht="17.4" spans="1:3">
-      <c r="A50" s="11"/>
-      <c r="B50" s="75" t="s">
-        <v>218</v>
-      </c>
-      <c r="C50" s="58"/>
-    </row>
-    <row r="51" ht="17.4" spans="1:3">
-      <c r="A51" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="B51" s="49" t="s">
-        <v>219</v>
-      </c>
-      <c r="C51" s="56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" ht="17.4" spans="1:3">
-      <c r="A52" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="B52" s="49" t="s">
-        <v>220</v>
-      </c>
-      <c r="C52" s="56">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" ht="17.4" spans="1:3">
-      <c r="A53" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="B53" t="s">
-        <v>221</v>
-      </c>
-      <c r="C53" s="56">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" ht="17.4" spans="1:3">
-      <c r="A54" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="B54" s="49" t="s">
-        <v>222</v>
-      </c>
-      <c r="C54" s="56">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" ht="17.4" spans="1:3">
-      <c r="A55" s="11"/>
-      <c r="B55" s="75" t="s">
-        <v>162</v>
-      </c>
-      <c r="C55" s="58"/>
-    </row>
-    <row r="56" ht="17.4" spans="1:3">
-      <c r="A56" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="B56" s="49" t="s">
-        <v>223</v>
-      </c>
-      <c r="C56" s="56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" ht="27.6" spans="1:3">
-      <c r="A57" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="B57" s="49" t="s">
-        <v>224</v>
-      </c>
-      <c r="C57" s="56">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" ht="27.6" spans="1:3">
-      <c r="A58" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="B58" s="49" t="s">
-        <v>225</v>
-      </c>
-      <c r="C58" s="56">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" ht="27.6" spans="1:5">
-      <c r="A59" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="B59" s="49" t="s">
-        <v>226</v>
-      </c>
-      <c r="C59" s="56">
-        <v>4</v>
-      </c>
-      <c r="E59" s="48"/>
-    </row>
-    <row r="60" ht="17.4" spans="1:3">
-      <c r="A60" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="B60" s="49" t="s">
-        <v>227</v>
-      </c>
-      <c r="C60" s="56">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" ht="17.4" spans="1:3">
-      <c r="A61" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="B61" s="77" t="s">
-        <v>228</v>
-      </c>
-      <c r="C61" s="56">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="76" spans="5:5">
-      <c r="E76" s="48"/>
-    </row>
-    <row r="83" spans="5:5">
-      <c r="E83" s="48"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;K008004&amp;10&amp;"Calibri"Public Internal - عام (داخلي) </oddHeader>
-  </headerFooter>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E83"/>
-  <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="4"/>
-  <cols>
-    <col min="1" max="1" width="17.6333333333333" customWidth="1"/>
-    <col min="2" max="2" width="57" customWidth="1"/>
-    <col min="3" max="3" width="11.8833333333333" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="33" customHeight="1" spans="1:3">
-      <c r="A1" s="39" t="s">
-        <v>169</v>
-      </c>
-      <c r="B1" s="40" t="s">
-        <v>170</v>
-      </c>
-      <c r="C1" s="40" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="2" ht="41.25" customHeight="1" spans="1:3">
-      <c r="A2" s="41" t="s">
-        <v>172</v>
-      </c>
-      <c r="B2" s="42" t="s">
-        <v>173</v>
-      </c>
-      <c r="C2" s="43" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" ht="41.25" customHeight="1" spans="1:3">
-      <c r="A3" s="74"/>
-      <c r="B3" s="42" t="s">
-        <v>174</v>
-      </c>
-      <c r="C3" s="45"/>
-    </row>
-    <row r="4" ht="17.4" spans="1:5">
-      <c r="A4" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="B4" s="46" t="s">
-        <v>175</v>
-      </c>
-      <c r="C4" s="47">
-        <v>1</v>
-      </c>
-      <c r="E4" s="48"/>
-    </row>
-    <row r="5" ht="17.4" spans="1:3">
-      <c r="A5" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="B5" s="49" t="s">
-        <v>176</v>
-      </c>
-      <c r="C5" s="47">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" ht="17.4" spans="1:3">
-      <c r="A6" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="B6" s="49" t="s">
-        <v>177</v>
-      </c>
-      <c r="C6" s="47">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" ht="17.4" spans="1:3">
-      <c r="A7" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="B7" s="49" t="s">
-        <v>178</v>
-      </c>
-      <c r="C7" s="47">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" ht="17.4" spans="1:3">
-      <c r="A8" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="B8" s="49" t="s">
-        <v>179</v>
-      </c>
-      <c r="C8" s="47">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" ht="41.4" spans="1:3">
-      <c r="A9" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="B9" s="50" t="s">
-        <v>180</v>
-      </c>
-      <c r="C9" s="47">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" ht="41.25" customHeight="1" spans="1:3">
-      <c r="A10" s="74"/>
+      <c r="A10" s="65"/>
       <c r="B10" s="62" t="s">
         <v>181</v>
       </c>
@@ -16597,7 +16590,7 @@
       </c>
     </row>
     <row r="27" ht="34.8" spans="1:3">
-      <c r="A27" s="74"/>
+      <c r="A27" s="65"/>
       <c r="B27" s="62" t="s">
         <v>155</v>
       </c>
@@ -16648,7 +16641,7 @@
       </c>
     </row>
     <row r="32" ht="17.4" spans="1:3">
-      <c r="A32" s="74"/>
+      <c r="A32" s="65"/>
       <c r="B32" s="62" t="s">
         <v>201</v>
       </c>
@@ -16711,7 +16704,7 @@
       </c>
     </row>
     <row r="38" ht="30" customHeight="1" spans="1:3">
-      <c r="A38" s="74"/>
+      <c r="A38" s="65"/>
       <c r="B38" s="62" t="s">
         <v>207</v>
       </c>
@@ -16740,7 +16733,7 @@
       </c>
     </row>
     <row r="41" ht="33.75" customHeight="1" spans="1:3">
-      <c r="A41" s="74"/>
+      <c r="A41" s="65"/>
       <c r="B41" s="62" t="s">
         <v>159</v>
       </c>
@@ -16835,8 +16828,8 @@
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="74"/>
-      <c r="B50" s="75" t="s">
+      <c r="A50" s="65"/>
+      <c r="B50" s="74" t="s">
         <v>218</v>
       </c>
       <c r="C50" s="58"/>
@@ -16887,7 +16880,7 @@
     </row>
     <row r="55" ht="17.4" spans="1:3">
       <c r="A55" s="44"/>
-      <c r="B55" s="75" t="s">
+      <c r="B55" s="74" t="s">
         <v>162</v>
       </c>
       <c r="C55" s="58"/>
@@ -16941,7 +16934,7 @@
       <c r="A60" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="B60" s="76" t="s">
+      <c r="B60" s="75" t="s">
         <v>227</v>
       </c>
       <c r="C60" s="59">
@@ -16952,7 +16945,7 @@
       <c r="A61" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="B61" s="77" t="s">
+      <c r="B61" s="76" t="s">
         <v>228</v>
       </c>
       <c r="C61" s="59">
@@ -17016,7 +17009,7 @@
       </c>
     </row>
     <row r="3" ht="17.4" spans="1:3">
-      <c r="A3" s="74"/>
+      <c r="A3" s="65"/>
       <c r="B3" s="42" t="s">
         <v>230</v>
       </c>
@@ -17625,7 +17618,7 @@
   <dimension ref="A1:E75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="4"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9000" tabRatio="907" activeTab="2"/>
+    <workbookView windowWidth="23040" windowHeight="9000" tabRatio="907" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Design Operating Data" sheetId="23" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Key" sheetId="20" r:id="rId3"/>
     <sheet name="Boiler" sheetId="2" r:id="rId4"/>
     <sheet name="Heat Recovery Steam Gen" sheetId="26" r:id="rId5"/>
-    <sheet name="Steam Turbine" sheetId="3" r:id="rId6"/>
+    <sheet name="Steam Turbine " sheetId="3" r:id="rId6"/>
     <sheet name="Gas Turbine" sheetId="9" r:id="rId7"/>
     <sheet name="Generator" sheetId="4" r:id="rId8"/>
     <sheet name="Transformer" sheetId="12" r:id="rId9"/>
@@ -15174,7 +15174,7 @@
   <sheetPr/>
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -16975,8 +16975,8 @@
   <sheetPr/>
   <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="4"/>
